--- a/src/main/resources/Input_Proposal.xlsx
+++ b/src/main/resources/Input_Proposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Iteration_1\Multi-variable-Sports-Scheduler\MultiVariable_Sports_Scheduler\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brady\Desktop\Year 4\Fall Semester\Capstone\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9D572EB-929E-4EED-9FF3-8954D9D7BA5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4DB598C-7DE0-45DD-82A5-0DAB9EF47CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="2325" windowWidth="15105" windowHeight="15795" tabRatio="888" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -307,8 +307,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm:ss;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -427,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -490,6 +491,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -8211,8 +8213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEB974B-2D7D-4CFB-A136-A35740E0CA9A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8239,10 +8241,10 @@
       <c r="A2" t="s">
         <v>72</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="38">
         <v>43.674810000000001</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="38">
         <v>-79.502290000000002</v>
       </c>
     </row>
@@ -8250,50 +8252,110 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
+      <c r="B3" s="38">
+        <v>43.733452499999999</v>
+      </c>
+      <c r="C3" s="38">
+        <v>-79.262179599999996</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>70</v>
       </c>
+      <c r="B4" s="38">
+        <v>43.602780199999998</v>
+      </c>
+      <c r="C4" s="38">
+        <v>-79.5255437</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
+      </c>
+      <c r="B5" s="38">
+        <v>43.668515200000002</v>
+      </c>
+      <c r="C5" s="38">
+        <v>-79.479602099999994</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>73</v>
       </c>
+      <c r="B6" s="38">
+        <v>43.664890900000003</v>
+      </c>
+      <c r="C6" s="38">
+        <v>-79.508030099999999</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>66</v>
       </c>
+      <c r="B7" s="38">
+        <v>43.704013199999999</v>
+      </c>
+      <c r="C7" s="38">
+        <v>-79.422493599999996</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
+      <c r="B8" s="38">
+        <v>43.701893599999998</v>
+      </c>
+      <c r="C8" s="38">
+        <v>-79.363176999999993</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>60</v>
       </c>
+      <c r="B9" s="38">
+        <v>43.701893599999998</v>
+      </c>
+      <c r="C9" s="38">
+        <v>-79.363176999999993</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>71</v>
       </c>
+      <c r="B10" s="38">
+        <v>43.5919344</v>
+      </c>
+      <c r="C10" s="38">
+        <v>-79.531457700000004</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
+      <c r="B11" s="38">
+        <v>43.706986200000003</v>
+      </c>
+      <c r="C11" s="38">
+        <v>-79.406715700000007</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>62</v>
+      </c>
+      <c r="B12" s="38">
+        <v>43.691305</v>
+      </c>
+      <c r="C12" s="38">
+        <v>-79.433751700000002</v>
       </c>
     </row>
   </sheetData>
@@ -8301,6 +8363,7 @@
     <sortCondition ref="D2:D13"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/main/resources/Input_Proposal.xlsx
+++ b/src/main/resources/Input_Proposal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Iteration_1.4\Multi_variable_Sports_Scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AA3D30-C667-4700-A69E-C000B52A6D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9668F-183E-4E1B-A363-1661A5B4DBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1518,7 +1518,7 @@
   <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:E11"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,7 +1526,7 @@
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" customWidth="1"/>
     <col min="5" max="5" width="4.85546875" style="35" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -8352,8 +8352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040452FA-3DCE-4D1C-81A3-35B898AE38A0}">
   <dimension ref="A1:D789"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A776" workbookViewId="0">
-      <selection activeCell="E787" sqref="E787"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/Input_Proposal.xlsx
+++ b/src/main/resources/Input_Proposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Iteration_1.4\Multi_variable_Sports_Scheduler\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Iteration 2\Itteration_2.3\Multi_variable_Sports_Scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C9668F-183E-4E1B-A363-1661A5B4DBB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70662887-6426-4FCB-A23F-05BAD6E1438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -416,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -433,21 +433,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="20" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="20" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -469,7 +466,7 @@
     <xf numFmtId="14" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1527,7 +1524,7 @@
     <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="35" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="32" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
@@ -1546,7 +1543,7 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="32" t="s">
         <v>65</v>
       </c>
       <c r="F1" t="s">
@@ -1569,7 +1566,7 @@
       <c r="D2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1586,7 +1583,7 @@
       <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1603,7 +1600,7 @@
       <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="35">
+      <c r="E4" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1620,7 +1617,7 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1637,7 +1634,7 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1654,7 +1651,7 @@
       <c r="D7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1671,7 +1668,7 @@
       <c r="D8" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1688,7 +1685,7 @@
       <c r="D9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1705,7 +1702,7 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="35">
+      <c r="E10" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1722,7 +1719,7 @@
       <c r="D11" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1739,7 +1736,7 @@
       <c r="D12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1756,7 +1753,7 @@
       <c r="D13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1773,7 +1770,7 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="35">
+      <c r="E14" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1790,7 +1787,7 @@
       <c r="D15" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1807,7 +1804,7 @@
       <c r="D16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E16" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1824,7 +1821,7 @@
       <c r="D17" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1841,7 +1838,7 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E18" s="32">
         <v>3</v>
       </c>
     </row>
@@ -1858,7 +1855,7 @@
       <c r="D19" t="s">
         <v>19</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="32">
         <v>0</v>
       </c>
     </row>
@@ -1875,7 +1872,7 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="35">
+      <c r="E20" s="32">
         <v>0</v>
       </c>
     </row>
@@ -1892,7 +1889,7 @@
       <c r="D21" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="35">
+      <c r="E21" s="32">
         <v>0</v>
       </c>
     </row>
@@ -1909,7 +1906,7 @@
       <c r="D22" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="35">
+      <c r="E22" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1926,7 +1923,7 @@
       <c r="D23" t="s">
         <v>19</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1943,7 +1940,7 @@
       <c r="D24" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="35">
+      <c r="E24" s="32">
         <v>1</v>
       </c>
     </row>
@@ -1960,7 +1957,7 @@
       <c r="D25" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1977,7 +1974,7 @@
       <c r="D26" t="s">
         <v>19</v>
       </c>
-      <c r="E26" s="35">
+      <c r="E26" s="32">
         <v>2</v>
       </c>
     </row>
@@ -1994,7 +1991,7 @@
       <c r="D27" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="35">
+      <c r="E27" s="32">
         <v>2</v>
       </c>
     </row>
@@ -2011,7 +2008,7 @@
       <c r="D28" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="35">
+      <c r="E28" s="32">
         <v>2</v>
       </c>
     </row>
@@ -2028,7 +2025,7 @@
       <c r="D29" t="s">
         <v>19</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E29" s="32">
         <v>2</v>
       </c>
     </row>
@@ -2045,7 +2042,7 @@
       <c r="D30" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="35">
+      <c r="E30" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2062,7 +2059,7 @@
       <c r="D31" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="35">
+      <c r="E31" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2079,7 +2076,7 @@
       <c r="D32" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="35">
+      <c r="E32" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2096,7 +2093,7 @@
       <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="35">
+      <c r="E33" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2113,7 +2110,7 @@
       <c r="D34" t="s">
         <v>19</v>
       </c>
-      <c r="E34" s="35">
+      <c r="E34" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2130,7 +2127,7 @@
       <c r="D35" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="35">
+      <c r="E35" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2147,7 +2144,7 @@
       <c r="D36" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="35">
+      <c r="E36" s="32">
         <v>0</v>
       </c>
     </row>
@@ -2164,7 +2161,7 @@
       <c r="D37" t="s">
         <v>42</v>
       </c>
-      <c r="E37" s="35">
+      <c r="E37" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2181,7 +2178,7 @@
       <c r="D38" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="35">
+      <c r="E38" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2198,7 +2195,7 @@
       <c r="D39" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E39" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2215,7 +2212,7 @@
       <c r="D40" t="s">
         <v>42</v>
       </c>
-      <c r="E40" s="35">
+      <c r="E40" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2232,7 +2229,7 @@
       <c r="D41" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="35">
+      <c r="E41" s="32">
         <v>1</v>
       </c>
     </row>
@@ -2249,7 +2246,7 @@
       <c r="D42" t="s">
         <v>42</v>
       </c>
-      <c r="E42" s="35">
+      <c r="E42" s="32">
         <v>2</v>
       </c>
     </row>
@@ -2266,7 +2263,7 @@
       <c r="D43" t="s">
         <v>42</v>
       </c>
-      <c r="E43" s="35">
+      <c r="E43" s="32">
         <v>2</v>
       </c>
     </row>
@@ -2283,7 +2280,7 @@
       <c r="D44" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="35">
+      <c r="E44" s="32">
         <v>2</v>
       </c>
     </row>
@@ -2300,7 +2297,7 @@
       <c r="D45" t="s">
         <v>42</v>
       </c>
-      <c r="E45" s="35">
+      <c r="E45" s="32">
         <v>2</v>
       </c>
     </row>
@@ -2317,7 +2314,7 @@
       <c r="D46" t="s">
         <v>42</v>
       </c>
-      <c r="E46" s="35">
+      <c r="E46" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2334,7 +2331,7 @@
       <c r="D47" t="s">
         <v>42</v>
       </c>
-      <c r="E47" s="35">
+      <c r="E47" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2351,7 +2348,7 @@
       <c r="D48" t="s">
         <v>42</v>
       </c>
-      <c r="E48" s="35">
+      <c r="E48" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2368,7 +2365,7 @@
       <c r="D49" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="35">
+      <c r="E49" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2385,7 +2382,7 @@
       <c r="D50" t="s">
         <v>42</v>
       </c>
-      <c r="E50" s="35">
+      <c r="E50" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2402,7 +2399,7 @@
       <c r="D51" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="35">
+      <c r="E51" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2419,7 +2416,7 @@
       <c r="D52" t="s">
         <v>42</v>
       </c>
-      <c r="E52" s="35">
+      <c r="E52" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2436,7 +2433,7 @@
       <c r="D53" t="s">
         <v>42</v>
       </c>
-      <c r="E53" s="35">
+      <c r="E53" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2453,7 +2450,7 @@
       <c r="D54" t="s">
         <v>42</v>
       </c>
-      <c r="E54" s="35">
+      <c r="E54" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2470,7 +2467,7 @@
       <c r="D55" t="s">
         <v>42</v>
       </c>
-      <c r="E55" s="35">
+      <c r="E55" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2487,7 +2484,7 @@
       <c r="D56" t="s">
         <v>42</v>
       </c>
-      <c r="E56" s="35">
+      <c r="E56" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2504,7 +2501,7 @@
       <c r="D57" t="s">
         <v>42</v>
       </c>
-      <c r="E57" s="35">
+      <c r="E57" s="32">
         <v>3</v>
       </c>
     </row>
@@ -2531,16 +2528,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="23"/>
-    <col min="6" max="6" width="7.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.42578125" style="23" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="23" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -2588,7 +2583,7 @@
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -5980,16 +5975,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA098CFB-FD8A-4615-BF02-45A69431C1A9}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="23" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -6017,7 +6011,7 @@
         <v>44527</v>
       </c>
       <c r="D2" s="6">
-        <v>44530</v>
+        <v>44527</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -7475,7 +7469,7 @@
       <c r="D106" s="6">
         <v>44633</v>
       </c>
-      <c r="F106" s="24"/>
+      <c r="F106" s="23"/>
     </row>
     <row r="107" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -7490,7 +7484,7 @@
       <c r="D107" s="6">
         <v>44638</v>
       </c>
-      <c r="F107" s="24"/>
+      <c r="F107" s="23"/>
     </row>
     <row r="108" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -7505,7 +7499,7 @@
       <c r="D108" s="6">
         <v>44638</v>
       </c>
-      <c r="F108" s="24"/>
+      <c r="F108" s="23"/>
     </row>
     <row r="109" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -7520,7 +7514,7 @@
       <c r="D109" s="6">
         <v>44638</v>
       </c>
-      <c r="F109" s="24"/>
+      <c r="F109" s="23"/>
     </row>
     <row r="110" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -7535,7 +7529,7 @@
       <c r="D110" s="6">
         <v>44638</v>
       </c>
-      <c r="F110" s="24"/>
+      <c r="F110" s="23"/>
     </row>
     <row r="111" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -7550,7 +7544,7 @@
       <c r="D111" s="6">
         <v>44638</v>
       </c>
-      <c r="F111" s="24"/>
+      <c r="F111" s="23"/>
     </row>
     <row r="112" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -7565,7 +7559,7 @@
       <c r="D112" s="6">
         <v>44638</v>
       </c>
-      <c r="F112" s="24"/>
+      <c r="F112" s="23"/>
     </row>
     <row r="113" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -7580,7 +7574,7 @@
       <c r="D113" s="6">
         <v>44634</v>
       </c>
-      <c r="F113" s="24"/>
+      <c r="F113" s="23"/>
     </row>
     <row r="114" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -7595,7 +7589,7 @@
       <c r="D114" s="6">
         <v>44638</v>
       </c>
-      <c r="F114" s="24"/>
+      <c r="F114" s="23"/>
     </row>
     <row r="115" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -7610,7 +7604,7 @@
       <c r="D115" s="6">
         <v>44638</v>
       </c>
-      <c r="F115" s="24"/>
+      <c r="F115" s="23"/>
     </row>
     <row r="116" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -7625,7 +7619,7 @@
       <c r="D116" s="6">
         <v>44638</v>
       </c>
-      <c r="F116" s="24"/>
+      <c r="F116" s="23"/>
     </row>
     <row r="117" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -7640,7 +7634,7 @@
       <c r="D117" s="6">
         <v>44638</v>
       </c>
-      <c r="F117" s="24"/>
+      <c r="F117" s="23"/>
     </row>
     <row r="118" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -7655,7 +7649,7 @@
       <c r="D118" s="6">
         <v>44638</v>
       </c>
-      <c r="F118" s="24"/>
+      <c r="F118" s="23"/>
     </row>
     <row r="119" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -7670,7 +7664,7 @@
       <c r="D119" s="6">
         <v>44638</v>
       </c>
-      <c r="F119" s="24"/>
+      <c r="F119" s="23"/>
     </row>
     <row r="120" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -7685,7 +7679,7 @@
       <c r="D120" s="6">
         <v>44638</v>
       </c>
-      <c r="F120" s="24"/>
+      <c r="F120" s="23"/>
     </row>
     <row r="121" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -7700,7 +7694,7 @@
       <c r="D121" s="6">
         <v>44640</v>
       </c>
-      <c r="F121" s="24"/>
+      <c r="F121" s="23"/>
     </row>
     <row r="122" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -7715,7 +7709,7 @@
       <c r="D122" s="6">
         <v>44638</v>
       </c>
-      <c r="F122" s="24"/>
+      <c r="F122" s="23"/>
     </row>
     <row r="123" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -7730,7 +7724,7 @@
       <c r="D123" s="6">
         <v>44638</v>
       </c>
-      <c r="F123" s="24"/>
+      <c r="F123" s="23"/>
     </row>
     <row r="124" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -7745,7 +7739,7 @@
       <c r="D124" s="6">
         <v>44633</v>
       </c>
-      <c r="F124" s="24"/>
+      <c r="F124" s="23"/>
     </row>
     <row r="125" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -7760,7 +7754,7 @@
       <c r="D125" s="6">
         <v>44638</v>
       </c>
-      <c r="F125" s="24"/>
+      <c r="F125" s="23"/>
     </row>
     <row r="126" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -7775,7 +7769,7 @@
       <c r="D126" s="6">
         <v>44638</v>
       </c>
-      <c r="F126" s="24"/>
+      <c r="F126" s="23"/>
     </row>
     <row r="127" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -7790,7 +7784,7 @@
       <c r="D127" s="6">
         <v>44638</v>
       </c>
-      <c r="F127" s="24"/>
+      <c r="F127" s="23"/>
     </row>
     <row r="128" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -7805,7 +7799,7 @@
       <c r="D128" s="6">
         <v>44640</v>
       </c>
-      <c r="F128" s="24"/>
+      <c r="F128" s="23"/>
     </row>
     <row r="129" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -8188,6 +8182,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8352,20 +8347,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{040452FA-3DCE-4D1C-81A3-35B898AE38A0}">
   <dimension ref="A1:D789"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="26"/>
-    <col min="4" max="4" width="18.140625" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="23"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -8386,7 +8380,7 @@
       <c r="A2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="27">
+      <c r="B2" s="24">
         <v>44506</v>
       </c>
       <c r="C2" s="20">
@@ -8400,7 +8394,7 @@
       <c r="A3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="25">
         <v>44506</v>
       </c>
       <c r="C3" s="15">
@@ -8414,7 +8408,7 @@
       <c r="A4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="26">
         <v>44506</v>
       </c>
       <c r="C4" s="21">
@@ -8428,7 +8422,7 @@
       <c r="A5" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="27">
         <v>44506</v>
       </c>
       <c r="C5" s="15">
@@ -8442,7 +8436,7 @@
       <c r="A6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="27">
+      <c r="B6" s="24">
         <v>44506</v>
       </c>
       <c r="C6" s="20">
@@ -8456,7 +8450,7 @@
       <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="25">
         <v>44506</v>
       </c>
       <c r="C7" s="15">
@@ -8470,7 +8464,7 @@
       <c r="A8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="26">
         <v>44507</v>
       </c>
       <c r="C8" s="21">
@@ -8484,7 +8478,7 @@
       <c r="A9" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="27">
         <v>44507</v>
       </c>
       <c r="C9" s="22">
@@ -8498,7 +8492,7 @@
       <c r="A10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="24">
         <v>44507</v>
       </c>
       <c r="C10" s="20">
@@ -8512,7 +8506,7 @@
       <c r="A11" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="25">
         <v>44507</v>
       </c>
       <c r="C11" s="15">
@@ -8526,7 +8520,7 @@
       <c r="A12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="26">
         <v>44508</v>
       </c>
       <c r="C12" s="21">
@@ -8540,7 +8534,7 @@
       <c r="A13" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="27">
         <v>44509</v>
       </c>
       <c r="C13" s="22">
@@ -8554,7 +8548,7 @@
       <c r="A14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="24">
         <v>44511</v>
       </c>
       <c r="C14" s="22">
@@ -8568,7 +8562,7 @@
       <c r="A15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="25">
         <v>44511</v>
       </c>
       <c r="C15" s="21">
@@ -8582,7 +8576,7 @@
       <c r="A16" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="26">
         <v>44512</v>
       </c>
       <c r="C16" s="21">
@@ -8596,7 +8590,7 @@
       <c r="A17" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="30">
+      <c r="B17" s="27">
         <v>44512</v>
       </c>
       <c r="C17" s="22">
@@ -8610,7 +8604,7 @@
       <c r="A18" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="27">
+      <c r="B18" s="24">
         <v>44513</v>
       </c>
       <c r="C18" s="20">
@@ -8624,7 +8618,7 @@
       <c r="A19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="25">
         <v>44513</v>
       </c>
       <c r="C19" s="15">
@@ -8638,7 +8632,7 @@
       <c r="A20" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="26">
         <v>44513</v>
       </c>
       <c r="C20" s="21">
@@ -8652,7 +8646,7 @@
       <c r="A21" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="30">
+      <c r="B21" s="27">
         <v>44513</v>
       </c>
       <c r="C21" s="20">
@@ -8666,7 +8660,7 @@
       <c r="A22" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="27">
+      <c r="B22" s="24">
         <v>44513</v>
       </c>
       <c r="C22" s="15">
@@ -8680,7 +8674,7 @@
       <c r="A23" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="25">
         <v>44513</v>
       </c>
       <c r="C23" s="19">
@@ -8694,7 +8688,7 @@
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="26">
         <v>44514</v>
       </c>
       <c r="C24" s="18">
@@ -8708,7 +8702,7 @@
       <c r="A25" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="30">
+      <c r="B25" s="27">
         <v>44514</v>
       </c>
       <c r="C25" s="19">
@@ -8722,7 +8716,7 @@
       <c r="A26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="27">
+      <c r="B26" s="24">
         <v>44514</v>
       </c>
       <c r="C26" s="16">
@@ -8736,7 +8730,7 @@
       <c r="A27" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="28">
+      <c r="B27" s="25">
         <v>44514</v>
       </c>
       <c r="C27" s="17">
@@ -8750,7 +8744,7 @@
       <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="26">
         <v>44515</v>
       </c>
       <c r="C28" s="16">
@@ -8764,7 +8758,7 @@
       <c r="A29" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="27">
         <v>44516</v>
       </c>
       <c r="C29" s="17">
@@ -8778,7 +8772,7 @@
       <c r="A30" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="27">
+      <c r="B30" s="24">
         <v>44516</v>
       </c>
       <c r="C30" s="18">
@@ -8792,7 +8786,7 @@
       <c r="A31" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="28">
+      <c r="B31" s="25">
         <v>44516</v>
       </c>
       <c r="C31" s="19">
@@ -8806,7 +8800,7 @@
       <c r="A32" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="29">
+      <c r="B32" s="26">
         <v>44516</v>
       </c>
       <c r="C32" s="16">
@@ -8820,7 +8814,7 @@
       <c r="A33" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="30">
+      <c r="B33" s="27">
         <v>44517</v>
       </c>
       <c r="C33" s="18">
@@ -8834,7 +8828,7 @@
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="27">
+      <c r="B34" s="24">
         <v>44517</v>
       </c>
       <c r="C34" s="19">
@@ -8848,7 +8842,7 @@
       <c r="A35" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="28">
+      <c r="B35" s="25">
         <v>44518</v>
       </c>
       <c r="C35" s="17">
@@ -8862,7 +8856,7 @@
       <c r="A36" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="29">
+      <c r="B36" s="26">
         <v>44518</v>
       </c>
       <c r="C36" s="16">
@@ -8876,7 +8870,7 @@
       <c r="A37" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="30">
+      <c r="B37" s="27">
         <v>44518</v>
       </c>
       <c r="C37" s="19">
@@ -8890,7 +8884,7 @@
       <c r="A38" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B38" s="27">
+      <c r="B38" s="24">
         <v>44518</v>
       </c>
       <c r="C38" s="16">
@@ -8904,7 +8898,7 @@
       <c r="A39" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="28">
+      <c r="B39" s="25">
         <v>44519</v>
       </c>
       <c r="C39" s="17">
@@ -8918,7 +8912,7 @@
       <c r="A40" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B40" s="26">
         <v>44519</v>
       </c>
       <c r="C40" s="16">
@@ -8932,7 +8926,7 @@
       <c r="A41" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="30">
+      <c r="B41" s="27">
         <v>44520</v>
       </c>
       <c r="C41" s="19">
@@ -8946,7 +8940,7 @@
       <c r="A42" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="27">
+      <c r="B42" s="24">
         <v>44520</v>
       </c>
       <c r="C42" s="16">
@@ -8960,7 +8954,7 @@
       <c r="A43" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="28">
+      <c r="B43" s="25">
         <v>44520</v>
       </c>
       <c r="C43" s="18">
@@ -8974,7 +8968,7 @@
       <c r="A44" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="29">
+      <c r="B44" s="26">
         <v>44520</v>
       </c>
       <c r="C44" s="19">
@@ -8988,7 +8982,7 @@
       <c r="A45" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="30">
+      <c r="B45" s="27">
         <v>44520</v>
       </c>
       <c r="C45" s="19">
@@ -9002,7 +8996,7 @@
       <c r="A46" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="27">
+      <c r="B46" s="24">
         <v>44520</v>
       </c>
       <c r="C46" s="18">
@@ -9016,7 +9010,7 @@
       <c r="A47" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B47" s="28">
+      <c r="B47" s="25">
         <v>44520</v>
       </c>
       <c r="C47" s="19">
@@ -9030,7 +9024,7 @@
       <c r="A48" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B48" s="29">
+      <c r="B48" s="26">
         <v>44520</v>
       </c>
       <c r="C48" s="16">
@@ -9044,7 +9038,7 @@
       <c r="A49" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B49" s="30">
+      <c r="B49" s="27">
         <v>44520</v>
       </c>
       <c r="C49" s="18">
@@ -9058,7 +9052,7 @@
       <c r="A50" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B50" s="24">
         <v>44521</v>
       </c>
       <c r="C50" s="18">
@@ -9072,7 +9066,7 @@
       <c r="A51" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B51" s="28">
+      <c r="B51" s="25">
         <v>44521</v>
       </c>
       <c r="C51" s="19">
@@ -9086,7 +9080,7 @@
       <c r="A52" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="29">
+      <c r="B52" s="26">
         <v>44521</v>
       </c>
       <c r="C52" s="16">
@@ -9100,7 +9094,7 @@
       <c r="A53" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B53" s="30">
+      <c r="B53" s="27">
         <v>44521</v>
       </c>
       <c r="C53" s="17">
@@ -9114,7 +9108,7 @@
       <c r="A54" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="27">
+      <c r="B54" s="24">
         <v>44521</v>
       </c>
       <c r="C54" s="18">
@@ -9128,7 +9122,7 @@
       <c r="A55" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B55" s="28">
+      <c r="B55" s="25">
         <v>44521</v>
       </c>
       <c r="C55" s="19">
@@ -9142,7 +9136,7 @@
       <c r="A56" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B56" s="29">
+      <c r="B56" s="26">
         <v>44521</v>
       </c>
       <c r="C56" s="16">
@@ -9156,7 +9150,7 @@
       <c r="A57" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B57" s="30">
+      <c r="B57" s="27">
         <v>44522</v>
       </c>
       <c r="C57" s="16">
@@ -9170,7 +9164,7 @@
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B58" s="27">
+      <c r="B58" s="24">
         <v>44523</v>
       </c>
       <c r="C58" s="17">
@@ -9184,7 +9178,7 @@
       <c r="A59" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="28">
+      <c r="B59" s="25">
         <v>44523</v>
       </c>
       <c r="C59" s="18">
@@ -9198,7 +9192,7 @@
       <c r="A60" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B60" s="29">
+      <c r="B60" s="26">
         <v>44523</v>
       </c>
       <c r="C60" s="19">
@@ -9212,7 +9206,7 @@
       <c r="A61" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="30">
+      <c r="B61" s="27">
         <v>44523</v>
       </c>
       <c r="C61" s="16">
@@ -9226,7 +9220,7 @@
       <c r="A62" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B62" s="27">
+      <c r="B62" s="24">
         <v>44524</v>
       </c>
       <c r="C62" s="18">
@@ -9240,7 +9234,7 @@
       <c r="A63" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B63" s="28">
+      <c r="B63" s="25">
         <v>44524</v>
       </c>
       <c r="C63" s="19">
@@ -9254,7 +9248,7 @@
       <c r="A64" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B64" s="29">
+      <c r="B64" s="26">
         <v>44525</v>
       </c>
       <c r="C64" s="17">
@@ -9268,7 +9262,7 @@
       <c r="A65" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B65" s="30">
+      <c r="B65" s="27">
         <v>44525</v>
       </c>
       <c r="C65" s="16">
@@ -9282,7 +9276,7 @@
       <c r="A66" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B66" s="27">
+      <c r="B66" s="24">
         <v>44525</v>
       </c>
       <c r="C66" s="19">
@@ -9296,7 +9290,7 @@
       <c r="A67" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B67" s="28">
+      <c r="B67" s="25">
         <v>44525</v>
       </c>
       <c r="C67" s="16">
@@ -9310,7 +9304,7 @@
       <c r="A68" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B68" s="29">
+      <c r="B68" s="26">
         <v>44526</v>
       </c>
       <c r="C68" s="17">
@@ -9324,7 +9318,7 @@
       <c r="A69" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="27">
         <v>44526</v>
       </c>
       <c r="C69" s="16">
@@ -9338,7 +9332,7 @@
       <c r="A70" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="27">
+      <c r="B70" s="24">
         <v>44527</v>
       </c>
       <c r="C70" s="18">
@@ -9352,7 +9346,7 @@
       <c r="A71" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="31">
+      <c r="B71" s="28">
         <v>44527</v>
       </c>
       <c r="C71" s="19">
@@ -9366,7 +9360,7 @@
       <c r="A72" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B72" s="29">
+      <c r="B72" s="26">
         <v>44527</v>
       </c>
       <c r="C72" s="16">
@@ -9380,7 +9374,7 @@
       <c r="A73" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B73" s="30">
+      <c r="B73" s="27">
         <v>44527</v>
       </c>
       <c r="C73" s="18">
@@ -9394,7 +9388,7 @@
       <c r="A74" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B74" s="31">
+      <c r="B74" s="28">
         <v>44527</v>
       </c>
       <c r="C74" s="19">
@@ -9408,7 +9402,7 @@
       <c r="A75" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B75" s="28">
+      <c r="B75" s="25">
         <v>44527</v>
       </c>
       <c r="C75" s="19">
@@ -9422,7 +9416,7 @@
       <c r="A76" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B76" s="29">
+      <c r="B76" s="26">
         <v>44527</v>
       </c>
       <c r="C76" s="18">
@@ -9436,7 +9430,7 @@
       <c r="A77" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B77" s="30">
+      <c r="B77" s="27">
         <v>44527</v>
       </c>
       <c r="C77" s="19">
@@ -9450,7 +9444,7 @@
       <c r="A78" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B78" s="31">
+      <c r="B78" s="28">
         <v>44527</v>
       </c>
       <c r="C78" s="16">
@@ -9464,7 +9458,7 @@
       <c r="A79" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B79" s="28">
+      <c r="B79" s="25">
         <v>44528</v>
       </c>
       <c r="C79" s="18">
@@ -9478,7 +9472,7 @@
       <c r="A80" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B80" s="29">
+      <c r="B80" s="26">
         <v>44528</v>
       </c>
       <c r="C80" s="19">
@@ -9492,7 +9486,7 @@
       <c r="A81" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="30">
+      <c r="B81" s="27">
         <v>44528</v>
       </c>
       <c r="C81" s="16">
@@ -9506,7 +9500,7 @@
       <c r="A82" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B82" s="27">
+      <c r="B82" s="24">
         <v>44528</v>
       </c>
       <c r="C82" s="17">
@@ -9520,7 +9514,7 @@
       <c r="A83" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B83" s="28">
+      <c r="B83" s="25">
         <v>44528</v>
       </c>
       <c r="C83" s="18">
@@ -9534,7 +9528,7 @@
       <c r="A84" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="29">
+      <c r="B84" s="26">
         <v>44528</v>
       </c>
       <c r="C84" s="19">
@@ -9548,7 +9542,7 @@
       <c r="A85" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B85" s="30">
+      <c r="B85" s="27">
         <v>44528</v>
       </c>
       <c r="C85" s="16">
@@ -9562,7 +9556,7 @@
       <c r="A86" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="27">
+      <c r="B86" s="24">
         <v>44529</v>
       </c>
       <c r="C86" s="16">
@@ -9576,7 +9570,7 @@
       <c r="A87" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B87" s="28">
+      <c r="B87" s="25">
         <v>44530</v>
       </c>
       <c r="C87" s="17">
@@ -9590,7 +9584,7 @@
       <c r="A88" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B88" s="31">
+      <c r="B88" s="28">
         <v>44530</v>
       </c>
       <c r="C88" s="18">
@@ -9604,7 +9598,7 @@
       <c r="A89" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B89" s="31">
+      <c r="B89" s="28">
         <v>44530</v>
       </c>
       <c r="C89" s="18">
@@ -9618,7 +9612,7 @@
       <c r="A90" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B90" s="30">
+      <c r="B90" s="27">
         <v>44530</v>
       </c>
       <c r="C90" s="19">
@@ -9632,7 +9626,7 @@
       <c r="A91" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B91" s="27">
+      <c r="B91" s="24">
         <v>44530</v>
       </c>
       <c r="C91" s="16">
@@ -9646,7 +9640,7 @@
       <c r="A92" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B92" s="28">
+      <c r="B92" s="25">
         <v>44531</v>
       </c>
       <c r="C92" s="18">
@@ -9660,7 +9654,7 @@
       <c r="A93" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="29">
+      <c r="B93" s="26">
         <v>44531</v>
       </c>
       <c r="C93" s="19">
@@ -9674,7 +9668,7 @@
       <c r="A94" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B94" s="30">
+      <c r="B94" s="27">
         <v>44532</v>
       </c>
       <c r="C94" s="17">
@@ -9688,7 +9682,7 @@
       <c r="A95" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B95" s="27">
+      <c r="B95" s="24">
         <v>44532</v>
       </c>
       <c r="C95" s="16">
@@ -9702,7 +9696,7 @@
       <c r="A96" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B96" s="28">
+      <c r="B96" s="25">
         <v>44532</v>
       </c>
       <c r="C96" s="19">
@@ -9716,7 +9710,7 @@
       <c r="A97" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B97" s="29">
+      <c r="B97" s="26">
         <v>44532</v>
       </c>
       <c r="C97" s="16">
@@ -9730,7 +9724,7 @@
       <c r="A98" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B98" s="30">
+      <c r="B98" s="27">
         <v>44533</v>
       </c>
       <c r="C98" s="17">
@@ -9744,7 +9738,7 @@
       <c r="A99" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B99" s="27">
+      <c r="B99" s="24">
         <v>44533</v>
       </c>
       <c r="C99" s="16">
@@ -9758,7 +9752,7 @@
       <c r="A100" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B100" s="28">
+      <c r="B100" s="25">
         <v>44533</v>
       </c>
       <c r="C100" s="18">
@@ -9772,7 +9766,7 @@
       <c r="A101" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B101" s="32">
+      <c r="B101" s="29">
         <v>44533</v>
       </c>
       <c r="C101" s="19">
@@ -9786,7 +9780,7 @@
       <c r="A102" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B102" s="30">
+      <c r="B102" s="27">
         <v>44534</v>
       </c>
       <c r="C102" s="19">
@@ -9800,7 +9794,7 @@
       <c r="A103" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B103" s="27">
+      <c r="B103" s="24">
         <v>44534</v>
       </c>
       <c r="C103" s="16">
@@ -9814,7 +9808,7 @@
       <c r="A104" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B104" s="28">
+      <c r="B104" s="25">
         <v>44534</v>
       </c>
       <c r="C104" s="18">
@@ -9828,7 +9822,7 @@
       <c r="A105" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="29">
+      <c r="B105" s="26">
         <v>44534</v>
       </c>
       <c r="C105" s="19">
@@ -9842,7 +9836,7 @@
       <c r="A106" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B106" s="30">
+      <c r="B106" s="27">
         <v>44534</v>
       </c>
       <c r="C106" s="19">
@@ -9856,7 +9850,7 @@
       <c r="A107" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B107" s="31">
+      <c r="B107" s="28">
         <v>44534</v>
       </c>
       <c r="C107" s="18">
@@ -9870,7 +9864,7 @@
       <c r="A108" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B108" s="31">
+      <c r="B108" s="28">
         <v>44534</v>
       </c>
       <c r="C108" s="18">
@@ -9884,7 +9878,7 @@
       <c r="A109" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B109" s="28">
+      <c r="B109" s="25">
         <v>44534</v>
       </c>
       <c r="C109" s="19">
@@ -9898,7 +9892,7 @@
       <c r="A110" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B110" s="29">
+      <c r="B110" s="26">
         <v>44534</v>
       </c>
       <c r="C110" s="16">
@@ -9912,7 +9906,7 @@
       <c r="A111" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B111" s="30">
+      <c r="B111" s="27">
         <v>44534</v>
       </c>
       <c r="C111" s="18">
@@ -9926,7 +9920,7 @@
       <c r="A112" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B112" s="27">
+      <c r="B112" s="24">
         <v>44535</v>
       </c>
       <c r="C112" s="18">
@@ -9940,7 +9934,7 @@
       <c r="A113" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="28">
+      <c r="B113" s="25">
         <v>44535</v>
       </c>
       <c r="C113" s="19">
@@ -9954,7 +9948,7 @@
       <c r="A114" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="29">
+      <c r="B114" s="26">
         <v>44535</v>
       </c>
       <c r="C114" s="16">
@@ -9968,7 +9962,7 @@
       <c r="A115" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B115" s="32">
+      <c r="B115" s="29">
         <v>44535</v>
       </c>
       <c r="C115" s="17">
@@ -9982,7 +9976,7 @@
       <c r="A116" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B116" s="27">
+      <c r="B116" s="24">
         <v>44535</v>
       </c>
       <c r="C116" s="18">
@@ -9996,7 +9990,7 @@
       <c r="A117" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B117" s="28">
+      <c r="B117" s="25">
         <v>44535</v>
       </c>
       <c r="C117" s="19">
@@ -10010,7 +10004,7 @@
       <c r="A118" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B118" s="29">
+      <c r="B118" s="26">
         <v>44535</v>
       </c>
       <c r="C118" s="16">
@@ -10024,7 +10018,7 @@
       <c r="A119" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="30">
+      <c r="B119" s="27">
         <v>44536</v>
       </c>
       <c r="C119" s="16">
@@ -10038,7 +10032,7 @@
       <c r="A120" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B120" s="27">
+      <c r="B120" s="24">
         <v>44537</v>
       </c>
       <c r="C120" s="17">
@@ -10052,7 +10046,7 @@
       <c r="A121" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B121" s="28">
+      <c r="B121" s="25">
         <v>44537</v>
       </c>
       <c r="C121" s="18">
@@ -10066,7 +10060,7 @@
       <c r="A122" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B122" s="29">
+      <c r="B122" s="26">
         <v>44537</v>
       </c>
       <c r="C122" s="19">
@@ -10080,7 +10074,7 @@
       <c r="A123" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B123" s="31">
+      <c r="B123" s="28">
         <v>44537</v>
       </c>
       <c r="C123" s="16">
@@ -10094,7 +10088,7 @@
       <c r="A124" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B124" s="27">
+      <c r="B124" s="24">
         <v>44538</v>
       </c>
       <c r="C124" s="18">
@@ -10108,7 +10102,7 @@
       <c r="A125" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B125" s="28">
+      <c r="B125" s="25">
         <v>44538</v>
       </c>
       <c r="C125" s="19">
@@ -10122,7 +10116,7 @@
       <c r="A126" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B126" s="29">
+      <c r="B126" s="26">
         <v>44539</v>
       </c>
       <c r="C126" s="17">
@@ -10136,7 +10130,7 @@
       <c r="A127" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B127" s="31">
+      <c r="B127" s="28">
         <v>44539</v>
       </c>
       <c r="C127" s="16">
@@ -10150,7 +10144,7 @@
       <c r="A128" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B128" s="27">
+      <c r="B128" s="24">
         <v>44539</v>
       </c>
       <c r="C128" s="19">
@@ -10164,7 +10158,7 @@
       <c r="A129" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B129" s="28">
+      <c r="B129" s="25">
         <v>44539</v>
       </c>
       <c r="C129" s="16">
@@ -10178,7 +10172,7 @@
       <c r="A130" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B130" s="29">
+      <c r="B130" s="26">
         <v>44540</v>
       </c>
       <c r="C130" s="17">
@@ -10192,7 +10186,7 @@
       <c r="A131" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B131" s="31">
+      <c r="B131" s="28">
         <v>44540</v>
       </c>
       <c r="C131" s="16">
@@ -10206,7 +10200,7 @@
       <c r="A132" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B132" s="27">
+      <c r="B132" s="24">
         <v>44540</v>
       </c>
       <c r="C132" s="18">
@@ -10220,7 +10214,7 @@
       <c r="A133" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B133" s="28">
+      <c r="B133" s="25">
         <v>44540</v>
       </c>
       <c r="C133" s="19">
@@ -10234,7 +10228,7 @@
       <c r="A134" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B134" s="29">
+      <c r="B134" s="26">
         <v>44541</v>
       </c>
       <c r="C134" s="19">
@@ -10248,7 +10242,7 @@
       <c r="A135" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B135" s="30">
+      <c r="B135" s="27">
         <v>44541</v>
       </c>
       <c r="C135" s="16">
@@ -10262,7 +10256,7 @@
       <c r="A136" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B136" s="27">
+      <c r="B136" s="24">
         <v>44541</v>
       </c>
       <c r="C136" s="18">
@@ -10276,7 +10270,7 @@
       <c r="A137" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B137" s="28">
+      <c r="B137" s="25">
         <v>44541</v>
       </c>
       <c r="C137" s="19">
@@ -10290,7 +10284,7 @@
       <c r="A138" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B138" s="29">
+      <c r="B138" s="26">
         <v>44541</v>
       </c>
       <c r="C138" s="19">
@@ -10304,7 +10298,7 @@
       <c r="A139" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B139" s="33">
+      <c r="B139" s="30">
         <v>44541</v>
       </c>
       <c r="C139" s="18">
@@ -10318,7 +10312,7 @@
       <c r="A140" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B140" s="27">
+      <c r="B140" s="24">
         <v>44541</v>
       </c>
       <c r="C140" s="19">
@@ -10332,7 +10326,7 @@
       <c r="A141" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B141" s="28">
+      <c r="B141" s="25">
         <v>44541</v>
       </c>
       <c r="C141" s="16">
@@ -10346,7 +10340,7 @@
       <c r="A142" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B142" s="29">
+      <c r="B142" s="26">
         <v>44541</v>
       </c>
       <c r="C142" s="18">
@@ -10360,7 +10354,7 @@
       <c r="A143" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B143" s="30">
+      <c r="B143" s="27">
         <v>44542</v>
       </c>
       <c r="C143" s="18">
@@ -10374,7 +10368,7 @@
       <c r="A144" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B144" s="27">
+      <c r="B144" s="24">
         <v>44542</v>
       </c>
       <c r="C144" s="19">
@@ -10388,7 +10382,7 @@
       <c r="A145" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B145" s="28">
+      <c r="B145" s="25">
         <v>44542</v>
       </c>
       <c r="C145" s="16">
@@ -10402,7 +10396,7 @@
       <c r="A146" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B146" s="32">
+      <c r="B146" s="29">
         <v>44542</v>
       </c>
       <c r="C146" s="17">
@@ -10416,7 +10410,7 @@
       <c r="A147" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B147" s="30">
+      <c r="B147" s="27">
         <v>44542</v>
       </c>
       <c r="C147" s="18">
@@ -10430,7 +10424,7 @@
       <c r="A148" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B148" s="27">
+      <c r="B148" s="24">
         <v>44542</v>
       </c>
       <c r="C148" s="19">
@@ -10444,7 +10438,7 @@
       <c r="A149" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B149" s="28">
+      <c r="B149" s="25">
         <v>44542</v>
       </c>
       <c r="C149" s="16">
@@ -10458,7 +10452,7 @@
       <c r="A150" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B150" s="29">
+      <c r="B150" s="26">
         <v>44543</v>
       </c>
       <c r="C150" s="16">
@@ -10472,7 +10466,7 @@
       <c r="A151" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B151" s="30">
+      <c r="B151" s="27">
         <v>44544</v>
       </c>
       <c r="C151" s="17">
@@ -10486,7 +10480,7 @@
       <c r="A152" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B152" s="31">
+      <c r="B152" s="28">
         <v>44544</v>
       </c>
       <c r="C152" s="18">
@@ -10500,7 +10494,7 @@
       <c r="A153" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B153" s="28">
+      <c r="B153" s="25">
         <v>44544</v>
       </c>
       <c r="C153" s="19">
@@ -10514,7 +10508,7 @@
       <c r="A154" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B154" s="32">
+      <c r="B154" s="29">
         <v>44544</v>
       </c>
       <c r="C154" s="16">
@@ -10528,7 +10522,7 @@
       <c r="A155" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B155" s="30">
+      <c r="B155" s="27">
         <v>44545</v>
       </c>
       <c r="C155" s="18">
@@ -10542,7 +10536,7 @@
       <c r="A156" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B156" s="27">
+      <c r="B156" s="24">
         <v>44545</v>
       </c>
       <c r="C156" s="19">
@@ -10556,7 +10550,7 @@
       <c r="A157" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B157" s="28">
+      <c r="B157" s="25">
         <v>44546</v>
       </c>
       <c r="C157" s="17">
@@ -10570,7 +10564,7 @@
       <c r="A158" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B158" s="32">
+      <c r="B158" s="29">
         <v>44546</v>
       </c>
       <c r="C158" s="16">
@@ -10584,7 +10578,7 @@
       <c r="A159" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B159" s="30">
+      <c r="B159" s="27">
         <v>44546</v>
       </c>
       <c r="C159" s="19">
@@ -10598,7 +10592,7 @@
       <c r="A160" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="B160" s="32">
+      <c r="B160" s="29">
         <v>44546</v>
       </c>
       <c r="C160" s="16">
@@ -10612,7 +10606,7 @@
       <c r="A161" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B161" s="28">
+      <c r="B161" s="25">
         <v>44547</v>
       </c>
       <c r="C161" s="17">
@@ -10626,7 +10620,7 @@
       <c r="A162" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B162" s="29">
+      <c r="B162" s="26">
         <v>44547</v>
       </c>
       <c r="C162" s="16">
@@ -10640,7 +10634,7 @@
       <c r="A163" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B163" s="33">
+      <c r="B163" s="30">
         <v>44547</v>
       </c>
       <c r="C163" s="18">
@@ -10654,7 +10648,7 @@
       <c r="A164" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B164" s="27">
+      <c r="B164" s="24">
         <v>44547</v>
       </c>
       <c r="C164" s="19">
@@ -10668,7 +10662,7 @@
       <c r="A165" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B165" s="32">
+      <c r="B165" s="29">
         <v>44548</v>
       </c>
       <c r="C165" s="18">
@@ -10682,7 +10676,7 @@
       <c r="A166" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B166" s="32">
+      <c r="B166" s="29">
         <v>44548</v>
       </c>
       <c r="C166" s="19">
@@ -10696,7 +10690,7 @@
       <c r="A167" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B167" s="30">
+      <c r="B167" s="27">
         <v>44548</v>
       </c>
       <c r="C167" s="16">
@@ -10710,7 +10704,7 @@
       <c r="A168" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B168" s="27">
+      <c r="B168" s="24">
         <v>44548</v>
       </c>
       <c r="C168" s="18">
@@ -10724,7 +10718,7 @@
       <c r="A169" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B169" s="32">
+      <c r="B169" s="29">
         <v>44548</v>
       </c>
       <c r="C169" s="19">
@@ -10738,7 +10732,7 @@
       <c r="A170" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B170" s="32">
+      <c r="B170" s="29">
         <v>44548</v>
       </c>
       <c r="C170" s="19">
@@ -10752,7 +10746,7 @@
       <c r="A171" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B171" s="30">
+      <c r="B171" s="27">
         <v>44548</v>
       </c>
       <c r="C171" s="18">
@@ -10766,7 +10760,7 @@
       <c r="A172" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B172" s="27">
+      <c r="B172" s="24">
         <v>44548</v>
       </c>
       <c r="C172" s="19">
@@ -10780,7 +10774,7 @@
       <c r="A173" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B173" s="32">
+      <c r="B173" s="29">
         <v>44548</v>
       </c>
       <c r="C173" s="16">
@@ -10794,7 +10788,7 @@
       <c r="A174" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B174" s="29">
+      <c r="B174" s="26">
         <v>44549</v>
       </c>
       <c r="C174" s="18">
@@ -10808,7 +10802,7 @@
       <c r="A175" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B175" s="30">
+      <c r="B175" s="27">
         <v>44549</v>
       </c>
       <c r="C175" s="19">
@@ -10822,7 +10816,7 @@
       <c r="A176" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B176" s="32">
+      <c r="B176" s="29">
         <v>44549</v>
       </c>
       <c r="C176" s="16">
@@ -10836,7 +10830,7 @@
       <c r="A177" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B177" s="28">
+      <c r="B177" s="25">
         <v>44549</v>
       </c>
       <c r="C177" s="17">
@@ -10850,7 +10844,7 @@
       <c r="A178" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B178" s="32">
+      <c r="B178" s="29">
         <v>44549</v>
       </c>
       <c r="C178" s="18">
@@ -10864,7 +10858,7 @@
       <c r="A179" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B179" s="32">
+      <c r="B179" s="29">
         <v>44549</v>
       </c>
       <c r="C179" s="19">
@@ -10878,7 +10872,7 @@
       <c r="A180" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B180" s="27">
+      <c r="B180" s="24">
         <v>44549</v>
       </c>
       <c r="C180" s="16">
@@ -10892,7 +10886,7 @@
       <c r="A181" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B181" s="28">
+      <c r="B181" s="25">
         <v>44550</v>
       </c>
       <c r="C181" s="16">
@@ -10906,7 +10900,7 @@
       <c r="A182" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B182" s="29">
+      <c r="B182" s="26">
         <v>44551</v>
       </c>
       <c r="C182" s="17">
@@ -10920,7 +10914,7 @@
       <c r="A183" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B183" s="30">
+      <c r="B183" s="27">
         <v>44551</v>
       </c>
       <c r="C183" s="18">
@@ -10934,7 +10928,7 @@
       <c r="A184" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B184" s="27">
+      <c r="B184" s="24">
         <v>44551</v>
       </c>
       <c r="C184" s="19">
@@ -10948,7 +10942,7 @@
       <c r="A185" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B185" s="28">
+      <c r="B185" s="25">
         <v>44551</v>
       </c>
       <c r="C185" s="16">
@@ -10962,7 +10956,7 @@
       <c r="A186" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B186" s="29">
+      <c r="B186" s="26">
         <v>44552</v>
       </c>
       <c r="C186" s="18">
@@ -10976,7 +10970,7 @@
       <c r="A187" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B187" s="30">
+      <c r="B187" s="27">
         <v>44552</v>
       </c>
       <c r="C187" s="19">
@@ -10990,7 +10984,7 @@
       <c r="A188" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B188" s="27">
+      <c r="B188" s="24">
         <v>44553</v>
       </c>
       <c r="C188" s="17">
@@ -11004,7 +10998,7 @@
       <c r="A189" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B189" s="32">
+      <c r="B189" s="29">
         <v>44553</v>
       </c>
       <c r="C189" s="16">
@@ -11018,7 +11012,7 @@
       <c r="A190" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B190" s="29">
+      <c r="B190" s="26">
         <v>44553</v>
       </c>
       <c r="C190" s="19">
@@ -11032,7 +11026,7 @@
       <c r="A191" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B191" s="30">
+      <c r="B191" s="27">
         <v>44553</v>
       </c>
       <c r="C191" s="16">
@@ -11046,13 +11040,13 @@
       <c r="A192" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B192" s="27">
+      <c r="B192" s="24">
         <v>44554</v>
       </c>
       <c r="C192" s="18">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D192" s="34" t="s">
+      <c r="D192" s="31" t="s">
         <v>61</v>
       </c>
     </row>
@@ -11060,7 +11054,7 @@
       <c r="A193" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B193" s="28">
+      <c r="B193" s="25">
         <v>44554</v>
       </c>
       <c r="C193" s="19">
@@ -11074,7 +11068,7 @@
       <c r="A194" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B194" s="29">
+      <c r="B194" s="26">
         <v>44554</v>
       </c>
       <c r="C194" s="17">
@@ -11088,7 +11082,7 @@
       <c r="A195" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B195" s="30">
+      <c r="B195" s="27">
         <v>44554</v>
       </c>
       <c r="C195" s="16">
@@ -11102,7 +11096,7 @@
       <c r="A196" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B196" s="27">
+      <c r="B196" s="24">
         <v>44555</v>
       </c>
       <c r="C196" s="18">
@@ -11116,7 +11110,7 @@
       <c r="A197" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B197" s="28">
+      <c r="B197" s="25">
         <v>44555</v>
       </c>
       <c r="C197" s="19">
@@ -11130,7 +11124,7 @@
       <c r="A198" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B198" s="29">
+      <c r="B198" s="26">
         <v>44555</v>
       </c>
       <c r="C198" s="16">
@@ -11144,7 +11138,7 @@
       <c r="A199" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B199" s="30">
+      <c r="B199" s="27">
         <v>44555</v>
       </c>
       <c r="C199" s="18">
@@ -11158,7 +11152,7 @@
       <c r="A200" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B200" s="27">
+      <c r="B200" s="24">
         <v>44555</v>
       </c>
       <c r="C200" s="19">
@@ -11172,7 +11166,7 @@
       <c r="A201" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B201" s="28">
+      <c r="B201" s="25">
         <v>44555</v>
       </c>
       <c r="C201" s="16">
@@ -11186,7 +11180,7 @@
       <c r="A202" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B202" s="29">
+      <c r="B202" s="26">
         <v>44555</v>
       </c>
       <c r="C202" s="19">
@@ -11200,7 +11194,7 @@
       <c r="A203" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B203" s="30">
+      <c r="B203" s="27">
         <v>44555</v>
       </c>
       <c r="C203" s="18">
@@ -11214,7 +11208,7 @@
       <c r="A204" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B204" s="27">
+      <c r="B204" s="24">
         <v>44555</v>
       </c>
       <c r="C204" s="19">
@@ -11228,7 +11222,7 @@
       <c r="A205" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B205" s="28">
+      <c r="B205" s="25">
         <v>44556</v>
       </c>
       <c r="C205" s="18">
@@ -11242,7 +11236,7 @@
       <c r="A206" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B206" s="29">
+      <c r="B206" s="26">
         <v>44556</v>
       </c>
       <c r="C206" s="19">
@@ -11256,7 +11250,7 @@
       <c r="A207" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B207" s="30">
+      <c r="B207" s="27">
         <v>44556</v>
       </c>
       <c r="C207" s="18">
@@ -11270,7 +11264,7 @@
       <c r="A208" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B208" s="27">
+      <c r="B208" s="24">
         <v>44556</v>
       </c>
       <c r="C208" s="19">
@@ -11284,7 +11278,7 @@
       <c r="A209" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B209" s="28">
+      <c r="B209" s="25">
         <v>44556</v>
       </c>
       <c r="C209" s="16">
@@ -11298,7 +11292,7 @@
       <c r="A210" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B210" s="28">
+      <c r="B210" s="25">
         <v>44557</v>
       </c>
       <c r="C210" s="16">
@@ -11312,7 +11306,7 @@
       <c r="A211" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B211" s="29">
+      <c r="B211" s="26">
         <v>44558</v>
       </c>
       <c r="C211" s="17">
@@ -11326,7 +11320,7 @@
       <c r="A212" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B212" s="30">
+      <c r="B212" s="27">
         <v>44558</v>
       </c>
       <c r="C212" s="18">
@@ -11340,7 +11334,7 @@
       <c r="A213" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B213" s="27">
+      <c r="B213" s="24">
         <v>44558</v>
       </c>
       <c r="C213" s="19">
@@ -11354,7 +11348,7 @@
       <c r="A214" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B214" s="28">
+      <c r="B214" s="25">
         <v>44558</v>
       </c>
       <c r="C214" s="16">
@@ -11368,7 +11362,7 @@
       <c r="A215" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B215" s="29">
+      <c r="B215" s="26">
         <v>44559</v>
       </c>
       <c r="C215" s="18">
@@ -11382,7 +11376,7 @@
       <c r="A216" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B216" s="30">
+      <c r="B216" s="27">
         <v>44559</v>
       </c>
       <c r="C216" s="19">
@@ -11396,7 +11390,7 @@
       <c r="A217" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B217" s="27">
+      <c r="B217" s="24">
         <v>44560</v>
       </c>
       <c r="C217" s="17">
@@ -11410,7 +11404,7 @@
       <c r="A218" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B218" s="28">
+      <c r="B218" s="25">
         <v>44560</v>
       </c>
       <c r="C218" s="16">
@@ -11424,7 +11418,7 @@
       <c r="A219" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B219" s="29">
+      <c r="B219" s="26">
         <v>44560</v>
       </c>
       <c r="C219" s="19">
@@ -11438,7 +11432,7 @@
       <c r="A220" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B220" s="30">
+      <c r="B220" s="27">
         <v>44560</v>
       </c>
       <c r="C220" s="16">
@@ -11452,7 +11446,7 @@
       <c r="A221" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B221" s="27">
+      <c r="B221" s="24">
         <v>44561</v>
       </c>
       <c r="C221" s="18">
@@ -11466,7 +11460,7 @@
       <c r="A222" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B222" s="28">
+      <c r="B222" s="25">
         <v>44561</v>
       </c>
       <c r="C222" s="19">
@@ -11480,7 +11474,7 @@
       <c r="A223" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B223" s="29">
+      <c r="B223" s="26">
         <v>44561</v>
       </c>
       <c r="C223" s="17">
@@ -11494,7 +11488,7 @@
       <c r="A224" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B224" s="30">
+      <c r="B224" s="27">
         <v>44561</v>
       </c>
       <c r="C224" s="16">
@@ -11508,7 +11502,7 @@
       <c r="A225" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B225" s="27">
+      <c r="B225" s="24">
         <v>44562</v>
       </c>
       <c r="C225" s="18">
@@ -11522,7 +11516,7 @@
       <c r="A226" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B226" s="28">
+      <c r="B226" s="25">
         <v>44562</v>
       </c>
       <c r="C226" s="19">
@@ -11536,7 +11530,7 @@
       <c r="A227" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B227" s="29">
+      <c r="B227" s="26">
         <v>44562</v>
       </c>
       <c r="C227" s="16">
@@ -11550,7 +11544,7 @@
       <c r="A228" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B228" s="30">
+      <c r="B228" s="27">
         <v>44562</v>
       </c>
       <c r="C228" s="18">
@@ -11564,7 +11558,7 @@
       <c r="A229" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B229" s="27">
+      <c r="B229" s="24">
         <v>44562</v>
       </c>
       <c r="C229" s="19">
@@ -11578,7 +11572,7 @@
       <c r="A230" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B230" s="28">
+      <c r="B230" s="25">
         <v>44562</v>
       </c>
       <c r="C230" s="16">
@@ -11592,7 +11586,7 @@
       <c r="A231" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B231" s="29">
+      <c r="B231" s="26">
         <v>44562</v>
       </c>
       <c r="C231" s="19">
@@ -11606,7 +11600,7 @@
       <c r="A232" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B232" s="30">
+      <c r="B232" s="27">
         <v>44562</v>
       </c>
       <c r="C232" s="18">
@@ -11620,7 +11614,7 @@
       <c r="A233" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B233" s="27">
+      <c r="B233" s="24">
         <v>44562</v>
       </c>
       <c r="C233" s="19">
@@ -11634,7 +11628,7 @@
       <c r="A234" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B234" s="28">
+      <c r="B234" s="25">
         <v>44563</v>
       </c>
       <c r="C234" s="16">
@@ -11648,7 +11642,7 @@
       <c r="A235" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B235" s="28">
+      <c r="B235" s="25">
         <v>44563</v>
       </c>
       <c r="C235" s="17">
@@ -11662,7 +11656,7 @@
       <c r="A236" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B236" s="28">
+      <c r="B236" s="25">
         <v>44563</v>
       </c>
       <c r="C236" s="18">
@@ -11676,7 +11670,7 @@
       <c r="A237" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B237" s="29">
+      <c r="B237" s="26">
         <v>44563</v>
       </c>
       <c r="C237" s="19">
@@ -11690,7 +11684,7 @@
       <c r="A238" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B238" s="30">
+      <c r="B238" s="27">
         <v>44563</v>
       </c>
       <c r="C238" s="18">
@@ -11704,7 +11698,7 @@
       <c r="A239" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B239" s="27">
+      <c r="B239" s="24">
         <v>44563</v>
       </c>
       <c r="C239" s="19">
@@ -11718,7 +11712,7 @@
       <c r="A240" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B240" s="28">
+      <c r="B240" s="25">
         <v>44563</v>
       </c>
       <c r="C240" s="16">
@@ -11732,7 +11726,7 @@
       <c r="A241" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B241" s="27">
+      <c r="B241" s="24">
         <v>44564</v>
       </c>
       <c r="C241" s="16">
@@ -11746,7 +11740,7 @@
       <c r="A242" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B242" s="28">
+      <c r="B242" s="25">
         <v>44565</v>
       </c>
       <c r="C242" s="17">
@@ -11760,7 +11754,7 @@
       <c r="A243" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B243" s="29">
+      <c r="B243" s="26">
         <v>44565</v>
       </c>
       <c r="C243" s="18">
@@ -11774,7 +11768,7 @@
       <c r="A244" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B244" s="30">
+      <c r="B244" s="27">
         <v>44565</v>
       </c>
       <c r="C244" s="19">
@@ -11788,7 +11782,7 @@
       <c r="A245" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B245" s="27">
+      <c r="B245" s="24">
         <v>44565</v>
       </c>
       <c r="C245" s="16">
@@ -11802,7 +11796,7 @@
       <c r="A246" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B246" s="28">
+      <c r="B246" s="25">
         <v>44566</v>
       </c>
       <c r="C246" s="18">
@@ -11816,7 +11810,7 @@
       <c r="A247" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B247" s="29">
+      <c r="B247" s="26">
         <v>44566</v>
       </c>
       <c r="C247" s="19">
@@ -11830,7 +11824,7 @@
       <c r="A248" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B248" s="30">
+      <c r="B248" s="27">
         <v>44567</v>
       </c>
       <c r="C248" s="17">
@@ -11844,7 +11838,7 @@
       <c r="A249" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B249" s="27">
+      <c r="B249" s="24">
         <v>44567</v>
       </c>
       <c r="C249" s="16">
@@ -11858,7 +11852,7 @@
       <c r="A250" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B250" s="28">
+      <c r="B250" s="25">
         <v>44567</v>
       </c>
       <c r="C250" s="19">
@@ -11872,7 +11866,7 @@
       <c r="A251" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B251" s="29">
+      <c r="B251" s="26">
         <v>44567</v>
       </c>
       <c r="C251" s="16">
@@ -11886,7 +11880,7 @@
       <c r="A252" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B252" s="30">
+      <c r="B252" s="27">
         <v>44568</v>
       </c>
       <c r="C252" s="18">
@@ -11900,7 +11894,7 @@
       <c r="A253" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B253" s="27">
+      <c r="B253" s="24">
         <v>44568</v>
       </c>
       <c r="C253" s="19">
@@ -11914,7 +11908,7 @@
       <c r="A254" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B254" s="28">
+      <c r="B254" s="25">
         <v>44568</v>
       </c>
       <c r="C254" s="17">
@@ -11928,7 +11922,7 @@
       <c r="A255" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B255" s="29">
+      <c r="B255" s="26">
         <v>44568</v>
       </c>
       <c r="C255" s="16">
@@ -11942,7 +11936,7 @@
       <c r="A256" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B256" s="30">
+      <c r="B256" s="27">
         <v>44569</v>
       </c>
       <c r="C256" s="18">
@@ -11956,7 +11950,7 @@
       <c r="A257" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B257" s="27">
+      <c r="B257" s="24">
         <v>44569</v>
       </c>
       <c r="C257" s="19">
@@ -11970,7 +11964,7 @@
       <c r="A258" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B258" s="28">
+      <c r="B258" s="25">
         <v>44569</v>
       </c>
       <c r="C258" s="16">
@@ -11984,7 +11978,7 @@
       <c r="A259" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B259" s="29">
+      <c r="B259" s="26">
         <v>44569</v>
       </c>
       <c r="C259" s="19">
@@ -11998,7 +11992,7 @@
       <c r="A260" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B260" s="30">
+      <c r="B260" s="27">
         <v>44569</v>
       </c>
       <c r="C260" s="16">
@@ -12012,7 +12006,7 @@
       <c r="A261" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B261" s="27">
+      <c r="B261" s="24">
         <v>44569</v>
       </c>
       <c r="C261" s="18">
@@ -12026,7 +12020,7 @@
       <c r="A262" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B262" s="28">
+      <c r="B262" s="25">
         <v>44569</v>
       </c>
       <c r="C262" s="19">
@@ -12040,7 +12034,7 @@
       <c r="A263" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B263" s="29">
+      <c r="B263" s="26">
         <v>44569</v>
       </c>
       <c r="C263" s="16">
@@ -12054,7 +12048,7 @@
       <c r="A264" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B264" s="30">
+      <c r="B264" s="27">
         <v>44569</v>
       </c>
       <c r="C264" s="18">
@@ -12068,7 +12062,7 @@
       <c r="A265" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B265" s="27">
+      <c r="B265" s="24">
         <v>44569</v>
       </c>
       <c r="C265" s="19">
@@ -12082,7 +12076,7 @@
       <c r="A266" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B266" s="28">
+      <c r="B266" s="25">
         <v>44569</v>
       </c>
       <c r="C266" s="19">
@@ -12096,7 +12090,7 @@
       <c r="A267" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B267" s="29">
+      <c r="B267" s="26">
         <v>44570</v>
       </c>
       <c r="C267" s="18">
@@ -12110,7 +12104,7 @@
       <c r="A268" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B268" s="30">
+      <c r="B268" s="27">
         <v>44570</v>
       </c>
       <c r="C268" s="19">
@@ -12124,7 +12118,7 @@
       <c r="A269" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B269" s="27">
+      <c r="B269" s="24">
         <v>44570</v>
       </c>
       <c r="C269" s="16">
@@ -12138,7 +12132,7 @@
       <c r="A270" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B270" s="28">
+      <c r="B270" s="25">
         <v>44570</v>
       </c>
       <c r="C270" s="18">
@@ -12152,7 +12146,7 @@
       <c r="A271" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B271" s="29">
+      <c r="B271" s="26">
         <v>44570</v>
       </c>
       <c r="C271" s="19">
@@ -12166,7 +12160,7 @@
       <c r="A272" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B272" s="30">
+      <c r="B272" s="27">
         <v>44570</v>
       </c>
       <c r="C272" s="17">
@@ -12180,7 +12174,7 @@
       <c r="A273" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B273" s="27">
+      <c r="B273" s="24">
         <v>44570</v>
       </c>
       <c r="C273" s="16">
@@ -12194,7 +12188,7 @@
       <c r="A274" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B274" s="28">
+      <c r="B274" s="25">
         <v>44570</v>
       </c>
       <c r="C274" s="17">
@@ -12208,7 +12202,7 @@
       <c r="A275" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B275" s="29">
+      <c r="B275" s="26">
         <v>44570</v>
       </c>
       <c r="C275" s="18">
@@ -12222,7 +12216,7 @@
       <c r="A276" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B276" s="30">
+      <c r="B276" s="27">
         <v>44570</v>
       </c>
       <c r="C276" s="19">
@@ -12236,7 +12230,7 @@
       <c r="A277" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B277" s="27">
+      <c r="B277" s="24">
         <v>44571</v>
       </c>
       <c r="C277" s="16">
@@ -12250,7 +12244,7 @@
       <c r="A278" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B278" s="28">
+      <c r="B278" s="25">
         <v>44572</v>
       </c>
       <c r="C278" s="17">
@@ -12264,7 +12258,7 @@
       <c r="A279" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B279" s="29">
+      <c r="B279" s="26">
         <v>44572</v>
       </c>
       <c r="C279" s="18">
@@ -12278,7 +12272,7 @@
       <c r="A280" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B280" s="30">
+      <c r="B280" s="27">
         <v>44572</v>
       </c>
       <c r="C280" s="19">
@@ -12292,7 +12286,7 @@
       <c r="A281" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B281" s="27">
+      <c r="B281" s="24">
         <v>44572</v>
       </c>
       <c r="C281" s="16">
@@ -12306,7 +12300,7 @@
       <c r="A282" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B282" s="28">
+      <c r="B282" s="25">
         <v>44573</v>
       </c>
       <c r="C282" s="18">
@@ -12320,7 +12314,7 @@
       <c r="A283" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B283" s="29">
+      <c r="B283" s="26">
         <v>44573</v>
       </c>
       <c r="C283" s="19">
@@ -12334,7 +12328,7 @@
       <c r="A284" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B284" s="30">
+      <c r="B284" s="27">
         <v>44574</v>
       </c>
       <c r="C284" s="17">
@@ -12348,7 +12342,7 @@
       <c r="A285" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B285" s="27">
+      <c r="B285" s="24">
         <v>44574</v>
       </c>
       <c r="C285" s="16">
@@ -12362,7 +12356,7 @@
       <c r="A286" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B286" s="28">
+      <c r="B286" s="25">
         <v>44574</v>
       </c>
       <c r="C286" s="19">
@@ -12376,7 +12370,7 @@
       <c r="A287" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B287" s="29">
+      <c r="B287" s="26">
         <v>44574</v>
       </c>
       <c r="C287" s="16">
@@ -12390,7 +12384,7 @@
       <c r="A288" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B288" s="30">
+      <c r="B288" s="27">
         <v>44575</v>
       </c>
       <c r="C288" s="18">
@@ -12404,7 +12398,7 @@
       <c r="A289" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B289" s="27">
+      <c r="B289" s="24">
         <v>44575</v>
       </c>
       <c r="C289" s="19">
@@ -12418,7 +12412,7 @@
       <c r="A290" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B290" s="28">
+      <c r="B290" s="25">
         <v>44575</v>
       </c>
       <c r="C290" s="17">
@@ -12432,7 +12426,7 @@
       <c r="A291" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B291" s="29">
+      <c r="B291" s="26">
         <v>44575</v>
       </c>
       <c r="C291" s="16">
@@ -12446,7 +12440,7 @@
       <c r="A292" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B292" s="30">
+      <c r="B292" s="27">
         <v>44576</v>
       </c>
       <c r="C292" s="18">
@@ -12460,7 +12454,7 @@
       <c r="A293" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B293" s="27">
+      <c r="B293" s="24">
         <v>44576</v>
       </c>
       <c r="C293" s="19">
@@ -12474,7 +12468,7 @@
       <c r="A294" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B294" s="28">
+      <c r="B294" s="25">
         <v>44576</v>
       </c>
       <c r="C294" s="16">
@@ -12488,7 +12482,7 @@
       <c r="A295" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B295" s="29">
+      <c r="B295" s="26">
         <v>44576</v>
       </c>
       <c r="C295" s="19">
@@ -12502,7 +12496,7 @@
       <c r="A296" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B296" s="30">
+      <c r="B296" s="27">
         <v>44576</v>
       </c>
       <c r="C296" s="16">
@@ -12516,7 +12510,7 @@
       <c r="A297" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B297" s="27">
+      <c r="B297" s="24">
         <v>44576</v>
       </c>
       <c r="C297" s="18">
@@ -12530,7 +12524,7 @@
       <c r="A298" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B298" s="28">
+      <c r="B298" s="25">
         <v>44576</v>
       </c>
       <c r="C298" s="19">
@@ -12544,7 +12538,7 @@
       <c r="A299" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B299" s="29">
+      <c r="B299" s="26">
         <v>44576</v>
       </c>
       <c r="C299" s="16">
@@ -12558,7 +12552,7 @@
       <c r="A300" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B300" s="30">
+      <c r="B300" s="27">
         <v>44576</v>
       </c>
       <c r="C300" s="18">
@@ -12572,7 +12566,7 @@
       <c r="A301" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B301" s="27">
+      <c r="B301" s="24">
         <v>44576</v>
       </c>
       <c r="C301" s="19">
@@ -12586,7 +12580,7 @@
       <c r="A302" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B302" s="28">
+      <c r="B302" s="25">
         <v>44576</v>
       </c>
       <c r="C302" s="19">
@@ -12600,7 +12594,7 @@
       <c r="A303" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B303" s="29">
+      <c r="B303" s="26">
         <v>44577</v>
       </c>
       <c r="C303" s="18">
@@ -12614,7 +12608,7 @@
       <c r="A304" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B304" s="30">
+      <c r="B304" s="27">
         <v>44577</v>
       </c>
       <c r="C304" s="19">
@@ -12628,7 +12622,7 @@
       <c r="A305" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B305" s="27">
+      <c r="B305" s="24">
         <v>44577</v>
       </c>
       <c r="C305" s="16">
@@ -12642,7 +12636,7 @@
       <c r="A306" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B306" s="28">
+      <c r="B306" s="25">
         <v>44577</v>
       </c>
       <c r="C306" s="18">
@@ -12656,7 +12650,7 @@
       <c r="A307" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B307" s="29">
+      <c r="B307" s="26">
         <v>44577</v>
       </c>
       <c r="C307" s="19">
@@ -12670,7 +12664,7 @@
       <c r="A308" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B308" s="30">
+      <c r="B308" s="27">
         <v>44577</v>
       </c>
       <c r="C308" s="17">
@@ -12684,7 +12678,7 @@
       <c r="A309" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B309" s="27">
+      <c r="B309" s="24">
         <v>44577</v>
       </c>
       <c r="C309" s="16">
@@ -12698,7 +12692,7 @@
       <c r="A310" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B310" s="28">
+      <c r="B310" s="25">
         <v>44577</v>
       </c>
       <c r="C310" s="17">
@@ -12712,7 +12706,7 @@
       <c r="A311" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B311" s="29">
+      <c r="B311" s="26">
         <v>44577</v>
       </c>
       <c r="C311" s="18">
@@ -12726,7 +12720,7 @@
       <c r="A312" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B312" s="30">
+      <c r="B312" s="27">
         <v>44577</v>
       </c>
       <c r="C312" s="19">
@@ -12740,7 +12734,7 @@
       <c r="A313" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B313" s="27">
+      <c r="B313" s="24">
         <v>44578</v>
       </c>
       <c r="C313" s="16">
@@ -12754,7 +12748,7 @@
       <c r="A314" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B314" s="28">
+      <c r="B314" s="25">
         <v>44579</v>
       </c>
       <c r="C314" s="17">
@@ -12768,7 +12762,7 @@
       <c r="A315" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B315" s="29">
+      <c r="B315" s="26">
         <v>44579</v>
       </c>
       <c r="C315" s="18">
@@ -12782,7 +12776,7 @@
       <c r="A316" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B316" s="30">
+      <c r="B316" s="27">
         <v>44579</v>
       </c>
       <c r="C316" s="19">
@@ -12796,7 +12790,7 @@
       <c r="A317" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B317" s="27">
+      <c r="B317" s="24">
         <v>44579</v>
       </c>
       <c r="C317" s="16">
@@ -12810,7 +12804,7 @@
       <c r="A318" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B318" s="28">
+      <c r="B318" s="25">
         <v>44580</v>
       </c>
       <c r="C318" s="18">
@@ -12824,7 +12818,7 @@
       <c r="A319" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B319" s="29">
+      <c r="B319" s="26">
         <v>44580</v>
       </c>
       <c r="C319" s="19">
@@ -12838,7 +12832,7 @@
       <c r="A320" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B320" s="30">
+      <c r="B320" s="27">
         <v>44581</v>
       </c>
       <c r="C320" s="17">
@@ -12852,7 +12846,7 @@
       <c r="A321" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B321" s="27">
+      <c r="B321" s="24">
         <v>44581</v>
       </c>
       <c r="C321" s="16">
@@ -12866,7 +12860,7 @@
       <c r="A322" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B322" s="28">
+      <c r="B322" s="25">
         <v>44581</v>
       </c>
       <c r="C322" s="19">
@@ -12880,7 +12874,7 @@
       <c r="A323" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B323" s="29">
+      <c r="B323" s="26">
         <v>44581</v>
       </c>
       <c r="C323" s="16">
@@ -12894,7 +12888,7 @@
       <c r="A324" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B324" s="30">
+      <c r="B324" s="27">
         <v>44582</v>
       </c>
       <c r="C324" s="18">
@@ -12908,7 +12902,7 @@
       <c r="A325" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B325" s="27">
+      <c r="B325" s="24">
         <v>44582</v>
       </c>
       <c r="C325" s="19">
@@ -12922,7 +12916,7 @@
       <c r="A326" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B326" s="28">
+      <c r="B326" s="25">
         <v>44582</v>
       </c>
       <c r="C326" s="17">
@@ -12936,7 +12930,7 @@
       <c r="A327" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B327" s="29">
+      <c r="B327" s="26">
         <v>44582</v>
       </c>
       <c r="C327" s="16">
@@ -12950,7 +12944,7 @@
       <c r="A328" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B328" s="30">
+      <c r="B328" s="27">
         <v>44583</v>
       </c>
       <c r="C328" s="18">
@@ -12964,7 +12958,7 @@
       <c r="A329" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B329" s="27">
+      <c r="B329" s="24">
         <v>44583</v>
       </c>
       <c r="C329" s="19">
@@ -12978,7 +12972,7 @@
       <c r="A330" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B330" s="28">
+      <c r="B330" s="25">
         <v>44583</v>
       </c>
       <c r="C330" s="16">
@@ -12992,7 +12986,7 @@
       <c r="A331" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B331" s="29">
+      <c r="B331" s="26">
         <v>44583</v>
       </c>
       <c r="C331" s="19">
@@ -13006,7 +13000,7 @@
       <c r="A332" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B332" s="30">
+      <c r="B332" s="27">
         <v>44583</v>
       </c>
       <c r="C332" s="16">
@@ -13020,7 +13014,7 @@
       <c r="A333" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B333" s="27">
+      <c r="B333" s="24">
         <v>44583</v>
       </c>
       <c r="C333" s="18">
@@ -13034,7 +13028,7 @@
       <c r="A334" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B334" s="28">
+      <c r="B334" s="25">
         <v>44583</v>
       </c>
       <c r="C334" s="19">
@@ -13048,7 +13042,7 @@
       <c r="A335" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B335" s="29">
+      <c r="B335" s="26">
         <v>44583</v>
       </c>
       <c r="C335" s="16">
@@ -13062,7 +13056,7 @@
       <c r="A336" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B336" s="30">
+      <c r="B336" s="27">
         <v>44583</v>
       </c>
       <c r="C336" s="18">
@@ -13076,7 +13070,7 @@
       <c r="A337" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B337" s="27">
+      <c r="B337" s="24">
         <v>44583</v>
       </c>
       <c r="C337" s="19">
@@ -13090,7 +13084,7 @@
       <c r="A338" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B338" s="28">
+      <c r="B338" s="25">
         <v>44583</v>
       </c>
       <c r="C338" s="19">
@@ -13104,7 +13098,7 @@
       <c r="A339" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B339" s="29">
+      <c r="B339" s="26">
         <v>44584</v>
       </c>
       <c r="C339" s="18">
@@ -13118,7 +13112,7 @@
       <c r="A340" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B340" s="30">
+      <c r="B340" s="27">
         <v>44584</v>
       </c>
       <c r="C340" s="19">
@@ -13132,7 +13126,7 @@
       <c r="A341" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B341" s="27">
+      <c r="B341" s="24">
         <v>44584</v>
       </c>
       <c r="C341" s="16">
@@ -13146,7 +13140,7 @@
       <c r="A342" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B342" s="28">
+      <c r="B342" s="25">
         <v>44584</v>
       </c>
       <c r="C342" s="18">
@@ -13160,7 +13154,7 @@
       <c r="A343" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B343" s="29">
+      <c r="B343" s="26">
         <v>44584</v>
       </c>
       <c r="C343" s="19">
@@ -13174,7 +13168,7 @@
       <c r="A344" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B344" s="30">
+      <c r="B344" s="27">
         <v>44584</v>
       </c>
       <c r="C344" s="17">
@@ -13188,7 +13182,7 @@
       <c r="A345" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B345" s="27">
+      <c r="B345" s="24">
         <v>44584</v>
       </c>
       <c r="C345" s="16">
@@ -13202,7 +13196,7 @@
       <c r="A346" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B346" s="28">
+      <c r="B346" s="25">
         <v>44584</v>
       </c>
       <c r="C346" s="17">
@@ -13216,7 +13210,7 @@
       <c r="A347" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B347" s="29">
+      <c r="B347" s="26">
         <v>44584</v>
       </c>
       <c r="C347" s="18">
@@ -13230,7 +13224,7 @@
       <c r="A348" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B348" s="30">
+      <c r="B348" s="27">
         <v>44584</v>
       </c>
       <c r="C348" s="19">
@@ -13244,7 +13238,7 @@
       <c r="A349" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B349" s="27">
+      <c r="B349" s="24">
         <v>44585</v>
       </c>
       <c r="C349" s="16">
@@ -13258,7 +13252,7 @@
       <c r="A350" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B350" s="28">
+      <c r="B350" s="25">
         <v>44586</v>
       </c>
       <c r="C350" s="17">
@@ -13272,7 +13266,7 @@
       <c r="A351" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B351" s="29">
+      <c r="B351" s="26">
         <v>44586</v>
       </c>
       <c r="C351" s="18">
@@ -13286,7 +13280,7 @@
       <c r="A352" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B352" s="30">
+      <c r="B352" s="27">
         <v>44586</v>
       </c>
       <c r="C352" s="19">
@@ -13300,7 +13294,7 @@
       <c r="A353" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B353" s="27">
+      <c r="B353" s="24">
         <v>44586</v>
       </c>
       <c r="C353" s="16">
@@ -13314,7 +13308,7 @@
       <c r="A354" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B354" s="28">
+      <c r="B354" s="25">
         <v>44587</v>
       </c>
       <c r="C354" s="18">
@@ -13328,7 +13322,7 @@
       <c r="A355" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B355" s="29">
+      <c r="B355" s="26">
         <v>44587</v>
       </c>
       <c r="C355" s="19">
@@ -13342,7 +13336,7 @@
       <c r="A356" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B356" s="30">
+      <c r="B356" s="27">
         <v>44588</v>
       </c>
       <c r="C356" s="17">
@@ -13356,7 +13350,7 @@
       <c r="A357" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B357" s="27">
+      <c r="B357" s="24">
         <v>44588</v>
       </c>
       <c r="C357" s="16">
@@ -13370,7 +13364,7 @@
       <c r="A358" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B358" s="28">
+      <c r="B358" s="25">
         <v>44588</v>
       </c>
       <c r="C358" s="19">
@@ -13384,7 +13378,7 @@
       <c r="A359" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B359" s="29">
+      <c r="B359" s="26">
         <v>44588</v>
       </c>
       <c r="C359" s="16">
@@ -13398,7 +13392,7 @@
       <c r="A360" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B360" s="30">
+      <c r="B360" s="27">
         <v>44589</v>
       </c>
       <c r="C360" s="18">
@@ -13412,7 +13406,7 @@
       <c r="A361" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B361" s="27">
+      <c r="B361" s="24">
         <v>44589</v>
       </c>
       <c r="C361" s="19">
@@ -13426,7 +13420,7 @@
       <c r="A362" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B362" s="28">
+      <c r="B362" s="25">
         <v>44589</v>
       </c>
       <c r="C362" s="17">
@@ -13440,7 +13434,7 @@
       <c r="A363" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B363" s="29">
+      <c r="B363" s="26">
         <v>44589</v>
       </c>
       <c r="C363" s="16">
@@ -13454,7 +13448,7 @@
       <c r="A364" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B364" s="30">
+      <c r="B364" s="27">
         <v>44590</v>
       </c>
       <c r="C364" s="18">
@@ -13468,7 +13462,7 @@
       <c r="A365" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B365" s="27">
+      <c r="B365" s="24">
         <v>44590</v>
       </c>
       <c r="C365" s="19">
@@ -13482,7 +13476,7 @@
       <c r="A366" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B366" s="28">
+      <c r="B366" s="25">
         <v>44590</v>
       </c>
       <c r="C366" s="16">
@@ -13496,7 +13490,7 @@
       <c r="A367" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B367" s="29">
+      <c r="B367" s="26">
         <v>44590</v>
       </c>
       <c r="C367" s="19">
@@ -13510,7 +13504,7 @@
       <c r="A368" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B368" s="30">
+      <c r="B368" s="27">
         <v>44590</v>
       </c>
       <c r="C368" s="16">
@@ -13524,7 +13518,7 @@
       <c r="A369" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B369" s="27">
+      <c r="B369" s="24">
         <v>44590</v>
       </c>
       <c r="C369" s="18">
@@ -13538,7 +13532,7 @@
       <c r="A370" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B370" s="28">
+      <c r="B370" s="25">
         <v>44590</v>
       </c>
       <c r="C370" s="19">
@@ -13552,7 +13546,7 @@
       <c r="A371" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B371" s="29">
+      <c r="B371" s="26">
         <v>44590</v>
       </c>
       <c r="C371" s="16">
@@ -13566,7 +13560,7 @@
       <c r="A372" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B372" s="30">
+      <c r="B372" s="27">
         <v>44590</v>
       </c>
       <c r="C372" s="18">
@@ -13580,7 +13574,7 @@
       <c r="A373" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B373" s="27">
+      <c r="B373" s="24">
         <v>44590</v>
       </c>
       <c r="C373" s="19">
@@ -13594,7 +13588,7 @@
       <c r="A374" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B374" s="28">
+      <c r="B374" s="25">
         <v>44590</v>
       </c>
       <c r="C374" s="19">
@@ -13608,7 +13602,7 @@
       <c r="A375" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B375" s="29">
+      <c r="B375" s="26">
         <v>44591</v>
       </c>
       <c r="C375" s="18">
@@ -13622,7 +13616,7 @@
       <c r="A376" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B376" s="30">
+      <c r="B376" s="27">
         <v>44591</v>
       </c>
       <c r="C376" s="19">
@@ -13636,7 +13630,7 @@
       <c r="A377" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B377" s="27">
+      <c r="B377" s="24">
         <v>44591</v>
       </c>
       <c r="C377" s="16">
@@ -13650,7 +13644,7 @@
       <c r="A378" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B378" s="28">
+      <c r="B378" s="25">
         <v>44591</v>
       </c>
       <c r="C378" s="18">
@@ -13664,7 +13658,7 @@
       <c r="A379" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B379" s="29">
+      <c r="B379" s="26">
         <v>44591</v>
       </c>
       <c r="C379" s="19">
@@ -13678,7 +13672,7 @@
       <c r="A380" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B380" s="30">
+      <c r="B380" s="27">
         <v>44591</v>
       </c>
       <c r="C380" s="17">
@@ -13692,7 +13686,7 @@
       <c r="A381" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B381" s="27">
+      <c r="B381" s="24">
         <v>44591</v>
       </c>
       <c r="C381" s="16">
@@ -13706,7 +13700,7 @@
       <c r="A382" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B382" s="28">
+      <c r="B382" s="25">
         <v>44591</v>
       </c>
       <c r="C382" s="17">
@@ -13720,7 +13714,7 @@
       <c r="A383" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B383" s="29">
+      <c r="B383" s="26">
         <v>44591</v>
       </c>
       <c r="C383" s="18">
@@ -13734,7 +13728,7 @@
       <c r="A384" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B384" s="30">
+      <c r="B384" s="27">
         <v>44591</v>
       </c>
       <c r="C384" s="19">
@@ -13748,7 +13742,7 @@
       <c r="A385" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B385" s="27">
+      <c r="B385" s="24">
         <v>44592</v>
       </c>
       <c r="C385" s="16">
@@ -13762,7 +13756,7 @@
       <c r="A386" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B386" s="28">
+      <c r="B386" s="25">
         <v>44593</v>
       </c>
       <c r="C386" s="17">
@@ -13776,7 +13770,7 @@
       <c r="A387" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B387" s="29">
+      <c r="B387" s="26">
         <v>44593</v>
       </c>
       <c r="C387" s="18">
@@ -13790,7 +13784,7 @@
       <c r="A388" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B388" s="30">
+      <c r="B388" s="27">
         <v>44593</v>
       </c>
       <c r="C388" s="19">
@@ -13804,7 +13798,7 @@
       <c r="A389" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B389" s="27">
+      <c r="B389" s="24">
         <v>44593</v>
       </c>
       <c r="C389" s="16">
@@ -13818,7 +13812,7 @@
       <c r="A390" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B390" s="28">
+      <c r="B390" s="25">
         <v>44594</v>
       </c>
       <c r="C390" s="18">
@@ -13832,7 +13826,7 @@
       <c r="A391" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B391" s="29">
+      <c r="B391" s="26">
         <v>44594</v>
       </c>
       <c r="C391" s="19">
@@ -13846,7 +13840,7 @@
       <c r="A392" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B392" s="30">
+      <c r="B392" s="27">
         <v>44595</v>
       </c>
       <c r="C392" s="17">
@@ -13860,7 +13854,7 @@
       <c r="A393" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B393" s="27">
+      <c r="B393" s="24">
         <v>44595</v>
       </c>
       <c r="C393" s="16">
@@ -13874,7 +13868,7 @@
       <c r="A394" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B394" s="28">
+      <c r="B394" s="25">
         <v>44595</v>
       </c>
       <c r="C394" s="19">
@@ -13888,7 +13882,7 @@
       <c r="A395" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B395" s="29">
+      <c r="B395" s="26">
         <v>44595</v>
       </c>
       <c r="C395" s="16">
@@ -13902,7 +13896,7 @@
       <c r="A396" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B396" s="30">
+      <c r="B396" s="27">
         <v>44596</v>
       </c>
       <c r="C396" s="18">
@@ -13916,7 +13910,7 @@
       <c r="A397" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B397" s="27">
+      <c r="B397" s="24">
         <v>44596</v>
       </c>
       <c r="C397" s="19">
@@ -13930,7 +13924,7 @@
       <c r="A398" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B398" s="28">
+      <c r="B398" s="25">
         <v>44596</v>
       </c>
       <c r="C398" s="17">
@@ -13944,7 +13938,7 @@
       <c r="A399" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B399" s="29">
+      <c r="B399" s="26">
         <v>44596</v>
       </c>
       <c r="C399" s="16">
@@ -13958,7 +13952,7 @@
       <c r="A400" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B400" s="30">
+      <c r="B400" s="27">
         <v>44597</v>
       </c>
       <c r="C400" s="18">
@@ -13972,7 +13966,7 @@
       <c r="A401" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B401" s="27">
+      <c r="B401" s="24">
         <v>44597</v>
       </c>
       <c r="C401" s="19">
@@ -13986,7 +13980,7 @@
       <c r="A402" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B402" s="28">
+      <c r="B402" s="25">
         <v>44597</v>
       </c>
       <c r="C402" s="16">
@@ -14000,7 +13994,7 @@
       <c r="A403" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B403" s="29">
+      <c r="B403" s="26">
         <v>44597</v>
       </c>
       <c r="C403" s="19">
@@ -14014,7 +14008,7 @@
       <c r="A404" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B404" s="30">
+      <c r="B404" s="27">
         <v>44597</v>
       </c>
       <c r="C404" s="16">
@@ -14028,7 +14022,7 @@
       <c r="A405" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B405" s="27">
+      <c r="B405" s="24">
         <v>44597</v>
       </c>
       <c r="C405" s="18">
@@ -14042,7 +14036,7 @@
       <c r="A406" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B406" s="28">
+      <c r="B406" s="25">
         <v>44597</v>
       </c>
       <c r="C406" s="19">
@@ -14056,7 +14050,7 @@
       <c r="A407" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B407" s="29">
+      <c r="B407" s="26">
         <v>44597</v>
       </c>
       <c r="C407" s="16">
@@ -14070,7 +14064,7 @@
       <c r="A408" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B408" s="30">
+      <c r="B408" s="27">
         <v>44597</v>
       </c>
       <c r="C408" s="18">
@@ -14084,7 +14078,7 @@
       <c r="A409" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B409" s="27">
+      <c r="B409" s="24">
         <v>44597</v>
       </c>
       <c r="C409" s="19">
@@ -14098,7 +14092,7 @@
       <c r="A410" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B410" s="28">
+      <c r="B410" s="25">
         <v>44597</v>
       </c>
       <c r="C410" s="19">
@@ -14112,7 +14106,7 @@
       <c r="A411" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B411" s="29">
+      <c r="B411" s="26">
         <v>44598</v>
       </c>
       <c r="C411" s="18">
@@ -14126,7 +14120,7 @@
       <c r="A412" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B412" s="30">
+      <c r="B412" s="27">
         <v>44598</v>
       </c>
       <c r="C412" s="19">
@@ -14140,7 +14134,7 @@
       <c r="A413" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B413" s="27">
+      <c r="B413" s="24">
         <v>44598</v>
       </c>
       <c r="C413" s="16">
@@ -14154,7 +14148,7 @@
       <c r="A414" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B414" s="28">
+      <c r="B414" s="25">
         <v>44598</v>
       </c>
       <c r="C414" s="18">
@@ -14168,7 +14162,7 @@
       <c r="A415" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B415" s="29">
+      <c r="B415" s="26">
         <v>44598</v>
       </c>
       <c r="C415" s="19">
@@ -14182,7 +14176,7 @@
       <c r="A416" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B416" s="30">
+      <c r="B416" s="27">
         <v>44598</v>
       </c>
       <c r="C416" s="17">
@@ -14196,7 +14190,7 @@
       <c r="A417" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B417" s="27">
+      <c r="B417" s="24">
         <v>44598</v>
       </c>
       <c r="C417" s="17">
@@ -14210,7 +14204,7 @@
       <c r="A418" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B418" s="28">
+      <c r="B418" s="25">
         <v>44598</v>
       </c>
       <c r="C418" s="16">
@@ -14224,7 +14218,7 @@
       <c r="A419" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B419" s="29">
+      <c r="B419" s="26">
         <v>44598</v>
       </c>
       <c r="C419" s="17">
@@ -14238,7 +14232,7 @@
       <c r="A420" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B420" s="30">
+      <c r="B420" s="27">
         <v>44598</v>
       </c>
       <c r="C420" s="18">
@@ -14252,7 +14246,7 @@
       <c r="A421" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B421" s="27">
+      <c r="B421" s="24">
         <v>44598</v>
       </c>
       <c r="C421" s="19">
@@ -14266,7 +14260,7 @@
       <c r="A422" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B422" s="28">
+      <c r="B422" s="25">
         <v>44599</v>
       </c>
       <c r="C422" s="16">
@@ -14280,7 +14274,7 @@
       <c r="A423" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B423" s="29">
+      <c r="B423" s="26">
         <v>44600</v>
       </c>
       <c r="C423" s="17">
@@ -14294,7 +14288,7 @@
       <c r="A424" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B424" s="30">
+      <c r="B424" s="27">
         <v>44600</v>
       </c>
       <c r="C424" s="18">
@@ -14308,7 +14302,7 @@
       <c r="A425" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B425" s="27">
+      <c r="B425" s="24">
         <v>44600</v>
       </c>
       <c r="C425" s="19">
@@ -14322,7 +14316,7 @@
       <c r="A426" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B426" s="28">
+      <c r="B426" s="25">
         <v>44600</v>
       </c>
       <c r="C426" s="16">
@@ -14336,7 +14330,7 @@
       <c r="A427" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B427" s="29">
+      <c r="B427" s="26">
         <v>44601</v>
       </c>
       <c r="C427" s="18">
@@ -14350,7 +14344,7 @@
       <c r="A428" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B428" s="30">
+      <c r="B428" s="27">
         <v>44601</v>
       </c>
       <c r="C428" s="19">
@@ -14364,7 +14358,7 @@
       <c r="A429" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B429" s="27">
+      <c r="B429" s="24">
         <v>44602</v>
       </c>
       <c r="C429" s="17">
@@ -14378,7 +14372,7 @@
       <c r="A430" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B430" s="28">
+      <c r="B430" s="25">
         <v>44602</v>
       </c>
       <c r="C430" s="16">
@@ -14392,7 +14386,7 @@
       <c r="A431" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B431" s="29">
+      <c r="B431" s="26">
         <v>44602</v>
       </c>
       <c r="C431" s="19">
@@ -14406,7 +14400,7 @@
       <c r="A432" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B432" s="30">
+      <c r="B432" s="27">
         <v>44602</v>
       </c>
       <c r="C432" s="16">
@@ -14420,7 +14414,7 @@
       <c r="A433" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B433" s="27">
+      <c r="B433" s="24">
         <v>44603</v>
       </c>
       <c r="C433" s="18">
@@ -14434,7 +14428,7 @@
       <c r="A434" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B434" s="28">
+      <c r="B434" s="25">
         <v>44603</v>
       </c>
       <c r="C434" s="19">
@@ -14448,7 +14442,7 @@
       <c r="A435" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B435" s="29">
+      <c r="B435" s="26">
         <v>44603</v>
       </c>
       <c r="C435" s="17">
@@ -14462,7 +14456,7 @@
       <c r="A436" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B436" s="30">
+      <c r="B436" s="27">
         <v>44603</v>
       </c>
       <c r="C436" s="16">
@@ -14476,7 +14470,7 @@
       <c r="A437" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B437" s="27">
+      <c r="B437" s="24">
         <v>44604</v>
       </c>
       <c r="C437" s="18">
@@ -14490,7 +14484,7 @@
       <c r="A438" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B438" s="28">
+      <c r="B438" s="25">
         <v>44604</v>
       </c>
       <c r="C438" s="19">
@@ -14504,7 +14498,7 @@
       <c r="A439" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B439" s="29">
+      <c r="B439" s="26">
         <v>44604</v>
       </c>
       <c r="C439" s="16">
@@ -14518,7 +14512,7 @@
       <c r="A440" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B440" s="30">
+      <c r="B440" s="27">
         <v>44604</v>
       </c>
       <c r="C440" s="19">
@@ -14532,7 +14526,7 @@
       <c r="A441" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B441" s="27">
+      <c r="B441" s="24">
         <v>44604</v>
       </c>
       <c r="C441" s="16">
@@ -14546,7 +14540,7 @@
       <c r="A442" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B442" s="28">
+      <c r="B442" s="25">
         <v>44604</v>
       </c>
       <c r="C442" s="18">
@@ -14560,7 +14554,7 @@
       <c r="A443" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B443" s="29">
+      <c r="B443" s="26">
         <v>44604</v>
       </c>
       <c r="C443" s="19">
@@ -14574,7 +14568,7 @@
       <c r="A444" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B444" s="30">
+      <c r="B444" s="27">
         <v>44604</v>
       </c>
       <c r="C444" s="16">
@@ -14588,7 +14582,7 @@
       <c r="A445" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B445" s="27">
+      <c r="B445" s="24">
         <v>44604</v>
       </c>
       <c r="C445" s="18">
@@ -14602,7 +14596,7 @@
       <c r="A446" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B446" s="28">
+      <c r="B446" s="25">
         <v>44604</v>
       </c>
       <c r="C446" s="19">
@@ -14616,7 +14610,7 @@
       <c r="A447" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B447" s="29">
+      <c r="B447" s="26">
         <v>44604</v>
       </c>
       <c r="C447" s="19">
@@ -14630,7 +14624,7 @@
       <c r="A448" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B448" s="30">
+      <c r="B448" s="27">
         <v>44605</v>
       </c>
       <c r="C448" s="18">
@@ -14644,7 +14638,7 @@
       <c r="A449" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B449" s="27">
+      <c r="B449" s="24">
         <v>44605</v>
       </c>
       <c r="C449" s="19">
@@ -14658,7 +14652,7 @@
       <c r="A450" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B450" s="28">
+      <c r="B450" s="25">
         <v>44605</v>
       </c>
       <c r="C450" s="16">
@@ -14672,7 +14666,7 @@
       <c r="A451" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B451" s="29">
+      <c r="B451" s="26">
         <v>44605</v>
       </c>
       <c r="C451" s="18">
@@ -14686,7 +14680,7 @@
       <c r="A452" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B452" s="30">
+      <c r="B452" s="27">
         <v>44605</v>
       </c>
       <c r="C452" s="19">
@@ -14700,7 +14694,7 @@
       <c r="A453" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B453" s="27">
+      <c r="B453" s="24">
         <v>44605</v>
       </c>
       <c r="C453" s="17">
@@ -14714,7 +14708,7 @@
       <c r="A454" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B454" s="28">
+      <c r="B454" s="25">
         <v>44605</v>
       </c>
       <c r="C454" s="17">
@@ -14728,7 +14722,7 @@
       <c r="A455" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B455" s="29">
+      <c r="B455" s="26">
         <v>44605</v>
       </c>
       <c r="C455" s="16">
@@ -14742,7 +14736,7 @@
       <c r="A456" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B456" s="30">
+      <c r="B456" s="27">
         <v>44605</v>
       </c>
       <c r="C456" s="17">
@@ -14756,7 +14750,7 @@
       <c r="A457" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B457" s="27">
+      <c r="B457" s="24">
         <v>44605</v>
       </c>
       <c r="C457" s="18">
@@ -14770,7 +14764,7 @@
       <c r="A458" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B458" s="28">
+      <c r="B458" s="25">
         <v>44605</v>
       </c>
       <c r="C458" s="19">
@@ -14784,7 +14778,7 @@
       <c r="A459" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B459" s="29">
+      <c r="B459" s="26">
         <v>44606</v>
       </c>
       <c r="C459" s="16">
@@ -14798,7 +14792,7 @@
       <c r="A460" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B460" s="30">
+      <c r="B460" s="27">
         <v>44607</v>
       </c>
       <c r="C460" s="17">
@@ -14812,7 +14806,7 @@
       <c r="A461" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B461" s="27">
+      <c r="B461" s="24">
         <v>44607</v>
       </c>
       <c r="C461" s="18">
@@ -14826,7 +14820,7 @@
       <c r="A462" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B462" s="28">
+      <c r="B462" s="25">
         <v>44607</v>
       </c>
       <c r="C462" s="19">
@@ -14840,7 +14834,7 @@
       <c r="A463" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B463" s="29">
+      <c r="B463" s="26">
         <v>44607</v>
       </c>
       <c r="C463" s="16">
@@ -14854,7 +14848,7 @@
       <c r="A464" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B464" s="30">
+      <c r="B464" s="27">
         <v>44608</v>
       </c>
       <c r="C464" s="18">
@@ -14868,7 +14862,7 @@
       <c r="A465" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B465" s="27">
+      <c r="B465" s="24">
         <v>44608</v>
       </c>
       <c r="C465" s="19">
@@ -14882,7 +14876,7 @@
       <c r="A466" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B466" s="28">
+      <c r="B466" s="25">
         <v>44609</v>
       </c>
       <c r="C466" s="17">
@@ -14896,7 +14890,7 @@
       <c r="A467" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B467" s="29">
+      <c r="B467" s="26">
         <v>44609</v>
       </c>
       <c r="C467" s="16">
@@ -14910,7 +14904,7 @@
       <c r="A468" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B468" s="30">
+      <c r="B468" s="27">
         <v>44609</v>
       </c>
       <c r="C468" s="19">
@@ -14924,7 +14918,7 @@
       <c r="A469" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B469" s="27">
+      <c r="B469" s="24">
         <v>44609</v>
       </c>
       <c r="C469" s="16">
@@ -14938,7 +14932,7 @@
       <c r="A470" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B470" s="29">
+      <c r="B470" s="26">
         <v>44610</v>
       </c>
       <c r="C470" s="18">
@@ -14952,7 +14946,7 @@
       <c r="A471" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B471" s="30">
+      <c r="B471" s="27">
         <v>44610</v>
       </c>
       <c r="C471" s="19">
@@ -14966,7 +14960,7 @@
       <c r="A472" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B472" s="27">
+      <c r="B472" s="24">
         <v>44610</v>
       </c>
       <c r="C472" s="17">
@@ -14980,7 +14974,7 @@
       <c r="A473" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B473" s="28">
+      <c r="B473" s="25">
         <v>44610</v>
       </c>
       <c r="C473" s="16">
@@ -14994,7 +14988,7 @@
       <c r="A474" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B474" s="29">
+      <c r="B474" s="26">
         <v>44611</v>
       </c>
       <c r="C474" s="18">
@@ -15008,7 +15002,7 @@
       <c r="A475" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B475" s="30">
+      <c r="B475" s="27">
         <v>44611</v>
       </c>
       <c r="C475" s="19">
@@ -15022,7 +15016,7 @@
       <c r="A476" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B476" s="27">
+      <c r="B476" s="24">
         <v>44611</v>
       </c>
       <c r="C476" s="16">
@@ -15036,7 +15030,7 @@
       <c r="A477" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B477" s="28">
+      <c r="B477" s="25">
         <v>44611</v>
       </c>
       <c r="C477" s="19">
@@ -15050,7 +15044,7 @@
       <c r="A478" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B478" s="29">
+      <c r="B478" s="26">
         <v>44611</v>
       </c>
       <c r="C478" s="16">
@@ -15064,7 +15058,7 @@
       <c r="A479" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B479" s="30">
+      <c r="B479" s="27">
         <v>44611</v>
       </c>
       <c r="C479" s="18">
@@ -15078,7 +15072,7 @@
       <c r="A480" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B480" s="27">
+      <c r="B480" s="24">
         <v>44611</v>
       </c>
       <c r="C480" s="19">
@@ -15092,7 +15086,7 @@
       <c r="A481" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B481" s="28">
+      <c r="B481" s="25">
         <v>44611</v>
       </c>
       <c r="C481" s="16">
@@ -15106,7 +15100,7 @@
       <c r="A482" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B482" s="32">
+      <c r="B482" s="29">
         <v>44611</v>
       </c>
       <c r="C482" s="18">
@@ -15120,7 +15114,7 @@
       <c r="A483" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B483" s="32">
+      <c r="B483" s="29">
         <v>44611</v>
       </c>
       <c r="C483" s="19">
@@ -15134,7 +15128,7 @@
       <c r="A484" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B484" s="27">
+      <c r="B484" s="24">
         <v>44611</v>
       </c>
       <c r="C484" s="19">
@@ -15148,7 +15142,7 @@
       <c r="A485" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B485" s="28">
+      <c r="B485" s="25">
         <v>44612</v>
       </c>
       <c r="C485" s="18">
@@ -15162,7 +15156,7 @@
       <c r="A486" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B486" s="29">
+      <c r="B486" s="26">
         <v>44612</v>
       </c>
       <c r="C486" s="19">
@@ -15176,7 +15170,7 @@
       <c r="A487" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B487" s="30">
+      <c r="B487" s="27">
         <v>44612</v>
       </c>
       <c r="C487" s="16">
@@ -15190,7 +15184,7 @@
       <c r="A488" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B488" s="32">
+      <c r="B488" s="29">
         <v>44612</v>
       </c>
       <c r="C488" s="18">
@@ -15204,7 +15198,7 @@
       <c r="A489" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B489" s="28">
+      <c r="B489" s="25">
         <v>44612</v>
       </c>
       <c r="C489" s="19">
@@ -15218,7 +15212,7 @@
       <c r="A490" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B490" s="29">
+      <c r="B490" s="26">
         <v>44612</v>
       </c>
       <c r="C490" s="17">
@@ -15232,7 +15226,7 @@
       <c r="A491" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B491" s="30">
+      <c r="B491" s="27">
         <v>44612</v>
       </c>
       <c r="C491" s="17">
@@ -15246,7 +15240,7 @@
       <c r="A492" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B492" s="27">
+      <c r="B492" s="24">
         <v>44612</v>
       </c>
       <c r="C492" s="16">
@@ -15260,7 +15254,7 @@
       <c r="A493" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B493" s="28">
+      <c r="B493" s="25">
         <v>44612</v>
       </c>
       <c r="C493" s="17">
@@ -15274,7 +15268,7 @@
       <c r="A494" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B494" s="29">
+      <c r="B494" s="26">
         <v>44612</v>
       </c>
       <c r="C494" s="18">
@@ -15288,7 +15282,7 @@
       <c r="A495" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B495" s="30">
+      <c r="B495" s="27">
         <v>44612</v>
       </c>
       <c r="C495" s="19">
@@ -15302,7 +15296,7 @@
       <c r="A496" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B496" s="27">
+      <c r="B496" s="24">
         <v>44613</v>
       </c>
       <c r="C496" s="16">
@@ -15316,7 +15310,7 @@
       <c r="A497" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B497" s="28">
+      <c r="B497" s="25">
         <v>44614</v>
       </c>
       <c r="C497" s="17">
@@ -15330,7 +15324,7 @@
       <c r="A498" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B498" s="29">
+      <c r="B498" s="26">
         <v>44614</v>
       </c>
       <c r="C498" s="18">
@@ -15344,7 +15338,7 @@
       <c r="A499" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B499" s="30">
+      <c r="B499" s="27">
         <v>44614</v>
       </c>
       <c r="C499" s="19">
@@ -15358,7 +15352,7 @@
       <c r="A500" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B500" s="27">
+      <c r="B500" s="24">
         <v>44614</v>
       </c>
       <c r="C500" s="16">
@@ -15372,7 +15366,7 @@
       <c r="A501" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B501" s="28">
+      <c r="B501" s="25">
         <v>44615</v>
       </c>
       <c r="C501" s="18">
@@ -15386,7 +15380,7 @@
       <c r="A502" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B502" s="29">
+      <c r="B502" s="26">
         <v>44615</v>
       </c>
       <c r="C502" s="19">
@@ -15400,7 +15394,7 @@
       <c r="A503" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B503" s="30">
+      <c r="B503" s="27">
         <v>44616</v>
       </c>
       <c r="C503" s="17">
@@ -15414,7 +15408,7 @@
       <c r="A504" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B504" s="27">
+      <c r="B504" s="24">
         <v>44616</v>
       </c>
       <c r="C504" s="16">
@@ -15428,7 +15422,7 @@
       <c r="A505" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B505" s="28">
+      <c r="B505" s="25">
         <v>44616</v>
       </c>
       <c r="C505" s="19">
@@ -15442,7 +15436,7 @@
       <c r="A506" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B506" s="29">
+      <c r="B506" s="26">
         <v>44616</v>
       </c>
       <c r="C506" s="16">
@@ -15456,7 +15450,7 @@
       <c r="A507" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B507" s="30">
+      <c r="B507" s="27">
         <v>44617</v>
       </c>
       <c r="C507" s="18">
@@ -15470,7 +15464,7 @@
       <c r="A508" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B508" s="27">
+      <c r="B508" s="24">
         <v>44617</v>
       </c>
       <c r="C508" s="19">
@@ -15484,7 +15478,7 @@
       <c r="A509" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B509" s="28">
+      <c r="B509" s="25">
         <v>44617</v>
       </c>
       <c r="C509" s="17">
@@ -15498,7 +15492,7 @@
       <c r="A510" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B510" s="29">
+      <c r="B510" s="26">
         <v>44617</v>
       </c>
       <c r="C510" s="16">
@@ -15512,7 +15506,7 @@
       <c r="A511" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B511" s="30">
+      <c r="B511" s="27">
         <v>44618</v>
       </c>
       <c r="C511" s="18">
@@ -15526,7 +15520,7 @@
       <c r="A512" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B512" s="27">
+      <c r="B512" s="24">
         <v>44618</v>
       </c>
       <c r="C512" s="19">
@@ -15540,7 +15534,7 @@
       <c r="A513" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B513" s="28">
+      <c r="B513" s="25">
         <v>44618</v>
       </c>
       <c r="C513" s="16">
@@ -15554,7 +15548,7 @@
       <c r="A514" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B514" s="29">
+      <c r="B514" s="26">
         <v>44618</v>
       </c>
       <c r="C514" s="19">
@@ -15568,7 +15562,7 @@
       <c r="A515" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B515" s="30">
+      <c r="B515" s="27">
         <v>44618</v>
       </c>
       <c r="C515" s="16">
@@ -15582,7 +15576,7 @@
       <c r="A516" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B516" s="27">
+      <c r="B516" s="24">
         <v>44618</v>
       </c>
       <c r="C516" s="18">
@@ -15596,7 +15590,7 @@
       <c r="A517" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B517" s="28">
+      <c r="B517" s="25">
         <v>44618</v>
       </c>
       <c r="C517" s="19">
@@ -15610,7 +15604,7 @@
       <c r="A518" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B518" s="29">
+      <c r="B518" s="26">
         <v>44618</v>
       </c>
       <c r="C518" s="16">
@@ -15624,7 +15618,7 @@
       <c r="A519" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B519" s="30">
+      <c r="B519" s="27">
         <v>44618</v>
       </c>
       <c r="C519" s="18">
@@ -15638,7 +15632,7 @@
       <c r="A520" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B520" s="27">
+      <c r="B520" s="24">
         <v>44618</v>
       </c>
       <c r="C520" s="19">
@@ -15652,7 +15646,7 @@
       <c r="A521" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B521" s="28">
+      <c r="B521" s="25">
         <v>44618</v>
       </c>
       <c r="C521" s="19">
@@ -15666,7 +15660,7 @@
       <c r="A522" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B522" s="29">
+      <c r="B522" s="26">
         <v>44619</v>
       </c>
       <c r="C522" s="18">
@@ -15680,7 +15674,7 @@
       <c r="A523" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B523" s="30">
+      <c r="B523" s="27">
         <v>44619</v>
       </c>
       <c r="C523" s="19">
@@ -15694,7 +15688,7 @@
       <c r="A524" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B524" s="27">
+      <c r="B524" s="24">
         <v>44619</v>
       </c>
       <c r="C524" s="16">
@@ -15708,7 +15702,7 @@
       <c r="A525" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B525" s="28">
+      <c r="B525" s="25">
         <v>44619</v>
       </c>
       <c r="C525" s="18">
@@ -15722,7 +15716,7 @@
       <c r="A526" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B526" s="29">
+      <c r="B526" s="26">
         <v>44619</v>
       </c>
       <c r="C526" s="19">
@@ -15736,7 +15730,7 @@
       <c r="A527" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B527" s="30">
+      <c r="B527" s="27">
         <v>44619</v>
       </c>
       <c r="C527" s="17">
@@ -15750,7 +15744,7 @@
       <c r="A528" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B528" s="27">
+      <c r="B528" s="24">
         <v>44619</v>
       </c>
       <c r="C528" s="17">
@@ -15764,7 +15758,7 @@
       <c r="A529" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B529" s="28">
+      <c r="B529" s="25">
         <v>44619</v>
       </c>
       <c r="C529" s="16">
@@ -15778,7 +15772,7 @@
       <c r="A530" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B530" s="29">
+      <c r="B530" s="26">
         <v>44619</v>
       </c>
       <c r="C530" s="17">
@@ -15792,7 +15786,7 @@
       <c r="A531" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B531" s="30">
+      <c r="B531" s="27">
         <v>44619</v>
       </c>
       <c r="C531" s="18">
@@ -15806,7 +15800,7 @@
       <c r="A532" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B532" s="27">
+      <c r="B532" s="24">
         <v>44619</v>
       </c>
       <c r="C532" s="19">
@@ -15820,7 +15814,7 @@
       <c r="A533" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B533" s="28">
+      <c r="B533" s="25">
         <v>44620</v>
       </c>
       <c r="C533" s="16">
@@ -15834,7 +15828,7 @@
       <c r="A534" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B534" s="29">
+      <c r="B534" s="26">
         <v>44621</v>
       </c>
       <c r="C534" s="17">
@@ -15848,7 +15842,7 @@
       <c r="A535" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B535" s="30">
+      <c r="B535" s="27">
         <v>44621</v>
       </c>
       <c r="C535" s="18">
@@ -15862,7 +15856,7 @@
       <c r="A536" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B536" s="27">
+      <c r="B536" s="24">
         <v>44621</v>
       </c>
       <c r="C536" s="19">
@@ -15876,7 +15870,7 @@
       <c r="A537" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B537" s="28">
+      <c r="B537" s="25">
         <v>44621</v>
       </c>
       <c r="C537" s="16">
@@ -15890,7 +15884,7 @@
       <c r="A538" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B538" s="29">
+      <c r="B538" s="26">
         <v>44622</v>
       </c>
       <c r="C538" s="18">
@@ -15904,7 +15898,7 @@
       <c r="A539" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B539" s="30">
+      <c r="B539" s="27">
         <v>44622</v>
       </c>
       <c r="C539" s="19">
@@ -15918,7 +15912,7 @@
       <c r="A540" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B540" s="27">
+      <c r="B540" s="24">
         <v>44623</v>
       </c>
       <c r="C540" s="17">
@@ -15932,7 +15926,7 @@
       <c r="A541" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B541" s="28">
+      <c r="B541" s="25">
         <v>44623</v>
       </c>
       <c r="C541" s="16">
@@ -15946,7 +15940,7 @@
       <c r="A542" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B542" s="29">
+      <c r="B542" s="26">
         <v>44623</v>
       </c>
       <c r="C542" s="19">
@@ -15960,7 +15954,7 @@
       <c r="A543" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B543" s="30">
+      <c r="B543" s="27">
         <v>44623</v>
       </c>
       <c r="C543" s="16">
@@ -15974,7 +15968,7 @@
       <c r="A544" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B544" s="27">
+      <c r="B544" s="24">
         <v>44624</v>
       </c>
       <c r="C544" s="18">
@@ -15988,7 +15982,7 @@
       <c r="A545" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B545" s="28">
+      <c r="B545" s="25">
         <v>44624</v>
       </c>
       <c r="C545" s="19">
@@ -16002,7 +15996,7 @@
       <c r="A546" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B546" s="29">
+      <c r="B546" s="26">
         <v>44624</v>
       </c>
       <c r="C546" s="17">
@@ -16016,7 +16010,7 @@
       <c r="A547" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B547" s="30">
+      <c r="B547" s="27">
         <v>44624</v>
       </c>
       <c r="C547" s="16">
@@ -16030,7 +16024,7 @@
       <c r="A548" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B548" s="27">
+      <c r="B548" s="24">
         <v>44625</v>
       </c>
       <c r="C548" s="18">
@@ -16044,7 +16038,7 @@
       <c r="A549" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B549" s="28">
+      <c r="B549" s="25">
         <v>44625</v>
       </c>
       <c r="C549" s="19">
@@ -16058,7 +16052,7 @@
       <c r="A550" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B550" s="29">
+      <c r="B550" s="26">
         <v>44625</v>
       </c>
       <c r="C550" s="16">
@@ -16072,7 +16066,7 @@
       <c r="A551" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B551" s="30">
+      <c r="B551" s="27">
         <v>44625</v>
       </c>
       <c r="C551" s="19">
@@ -16086,7 +16080,7 @@
       <c r="A552" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B552" s="33">
+      <c r="B552" s="30">
         <v>44625</v>
       </c>
       <c r="C552" s="16">
@@ -16100,7 +16094,7 @@
       <c r="A553" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B553" s="31">
+      <c r="B553" s="28">
         <v>44625</v>
       </c>
       <c r="C553" s="18">
@@ -16114,7 +16108,7 @@
       <c r="A554" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B554" s="29">
+      <c r="B554" s="26">
         <v>44625</v>
       </c>
       <c r="C554" s="19">
@@ -16128,7 +16122,7 @@
       <c r="A555" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B555" s="30">
+      <c r="B555" s="27">
         <v>44625</v>
       </c>
       <c r="C555" s="16">
@@ -16142,7 +16136,7 @@
       <c r="A556" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B556" s="31">
+      <c r="B556" s="28">
         <v>44625</v>
       </c>
       <c r="C556" s="18">
@@ -16156,7 +16150,7 @@
       <c r="A557" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B557" s="28">
+      <c r="B557" s="25">
         <v>44625</v>
       </c>
       <c r="C557" s="19">
@@ -16170,7 +16164,7 @@
       <c r="A558" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B558" s="29">
+      <c r="B558" s="26">
         <v>44625</v>
       </c>
       <c r="C558" s="19">
@@ -16184,7 +16178,7 @@
       <c r="A559" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B559" s="30">
+      <c r="B559" s="27">
         <v>44626</v>
       </c>
       <c r="C559" s="18">
@@ -16198,7 +16192,7 @@
       <c r="A560" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B560" s="27">
+      <c r="B560" s="24">
         <v>44626</v>
       </c>
       <c r="C560" s="19">
@@ -16212,7 +16206,7 @@
       <c r="A561" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B561" s="28">
+      <c r="B561" s="25">
         <v>44626</v>
       </c>
       <c r="C561" s="16">
@@ -16226,7 +16220,7 @@
       <c r="A562" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B562" s="29">
+      <c r="B562" s="26">
         <v>44626</v>
       </c>
       <c r="C562" s="18">
@@ -16240,7 +16234,7 @@
       <c r="A563" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B563" s="30">
+      <c r="B563" s="27">
         <v>44626</v>
       </c>
       <c r="C563" s="19">
@@ -16254,7 +16248,7 @@
       <c r="A564" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B564" s="27">
+      <c r="B564" s="24">
         <v>44626</v>
       </c>
       <c r="C564" s="17">
@@ -16268,7 +16262,7 @@
       <c r="A565" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B565" s="28">
+      <c r="B565" s="25">
         <v>44626</v>
       </c>
       <c r="C565" s="17">
@@ -16282,7 +16276,7 @@
       <c r="A566" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B566" s="29">
+      <c r="B566" s="26">
         <v>44626</v>
       </c>
       <c r="C566" s="16">
@@ -16296,7 +16290,7 @@
       <c r="A567" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B567" s="30">
+      <c r="B567" s="27">
         <v>44626</v>
       </c>
       <c r="C567" s="17">
@@ -16310,7 +16304,7 @@
       <c r="A568" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B568" s="27">
+      <c r="B568" s="24">
         <v>44626</v>
       </c>
       <c r="C568" s="18">
@@ -16324,7 +16318,7 @@
       <c r="A569" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B569" s="31">
+      <c r="B569" s="28">
         <v>44626</v>
       </c>
       <c r="C569" s="19">
@@ -16338,7 +16332,7 @@
       <c r="A570" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B570" s="29">
+      <c r="B570" s="26">
         <v>44627</v>
       </c>
       <c r="C570" s="16">
@@ -16352,7 +16346,7 @@
       <c r="A571" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B571" s="30">
+      <c r="B571" s="27">
         <v>44628</v>
       </c>
       <c r="C571" s="17">
@@ -16366,7 +16360,7 @@
       <c r="A572" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B572" s="27">
+      <c r="B572" s="24">
         <v>44628</v>
       </c>
       <c r="C572" s="18">
@@ -16380,7 +16374,7 @@
       <c r="A573" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B573" s="28">
+      <c r="B573" s="25">
         <v>44628</v>
       </c>
       <c r="C573" s="19">
@@ -16394,7 +16388,7 @@
       <c r="A574" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B574" s="29">
+      <c r="B574" s="26">
         <v>44628</v>
       </c>
       <c r="C574" s="16">
@@ -16408,7 +16402,7 @@
       <c r="A575" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B575" s="30">
+      <c r="B575" s="27">
         <v>44629</v>
       </c>
       <c r="C575" s="18">
@@ -16422,7 +16416,7 @@
       <c r="A576" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B576" s="27">
+      <c r="B576" s="24">
         <v>44629</v>
       </c>
       <c r="C576" s="19">
@@ -16436,7 +16430,7 @@
       <c r="A577" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B577" s="28">
+      <c r="B577" s="25">
         <v>44630</v>
       </c>
       <c r="C577" s="17">
@@ -16450,7 +16444,7 @@
       <c r="A578" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B578" s="29">
+      <c r="B578" s="26">
         <v>44630</v>
       </c>
       <c r="C578" s="16">
@@ -16464,7 +16458,7 @@
       <c r="A579" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B579" s="30">
+      <c r="B579" s="27">
         <v>44630</v>
       </c>
       <c r="C579" s="19">
@@ -16478,7 +16472,7 @@
       <c r="A580" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B580" s="27">
+      <c r="B580" s="24">
         <v>44630</v>
       </c>
       <c r="C580" s="16">
@@ -16492,7 +16486,7 @@
       <c r="A581" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B581" s="28">
+      <c r="B581" s="25">
         <v>44631</v>
       </c>
       <c r="C581" s="18">
@@ -16506,7 +16500,7 @@
       <c r="A582" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B582" s="29">
+      <c r="B582" s="26">
         <v>44631</v>
       </c>
       <c r="C582" s="19">
@@ -16520,7 +16514,7 @@
       <c r="A583" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B583" s="30">
+      <c r="B583" s="27">
         <v>44631</v>
       </c>
       <c r="C583" s="17">
@@ -16534,7 +16528,7 @@
       <c r="A584" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B584" s="27">
+      <c r="B584" s="24">
         <v>44631</v>
       </c>
       <c r="C584" s="16">
@@ -16548,7 +16542,7 @@
       <c r="A585" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B585" s="28">
+      <c r="B585" s="25">
         <v>44632</v>
       </c>
       <c r="C585" s="18">
@@ -16562,7 +16556,7 @@
       <c r="A586" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B586" s="29">
+      <c r="B586" s="26">
         <v>44632</v>
       </c>
       <c r="C586" s="19">
@@ -16576,7 +16570,7 @@
       <c r="A587" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B587" s="30">
+      <c r="B587" s="27">
         <v>44632</v>
       </c>
       <c r="C587" s="16">
@@ -16590,7 +16584,7 @@
       <c r="A588" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B588" s="27">
+      <c r="B588" s="24">
         <v>44632</v>
       </c>
       <c r="C588" s="19">
@@ -16604,7 +16598,7 @@
       <c r="A589" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B589" s="28">
+      <c r="B589" s="25">
         <v>44632</v>
       </c>
       <c r="C589" s="16">
@@ -16618,7 +16612,7 @@
       <c r="A590" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B590" s="29">
+      <c r="B590" s="26">
         <v>44632</v>
       </c>
       <c r="C590" s="18">
@@ -16632,7 +16626,7 @@
       <c r="A591" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B591" s="30">
+      <c r="B591" s="27">
         <v>44632</v>
       </c>
       <c r="C591" s="19">
@@ -16646,7 +16640,7 @@
       <c r="A592" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B592" s="27">
+      <c r="B592" s="24">
         <v>44632</v>
       </c>
       <c r="C592" s="16">
@@ -16660,7 +16654,7 @@
       <c r="A593" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B593" s="28">
+      <c r="B593" s="25">
         <v>44632</v>
       </c>
       <c r="C593" s="18">
@@ -16674,7 +16668,7 @@
       <c r="A594" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B594" s="29">
+      <c r="B594" s="26">
         <v>44632</v>
       </c>
       <c r="C594" s="19">
@@ -16688,7 +16682,7 @@
       <c r="A595" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B595" s="30">
+      <c r="B595" s="27">
         <v>44632</v>
       </c>
       <c r="C595" s="19">
@@ -16702,7 +16696,7 @@
       <c r="A596" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B596" s="27">
+      <c r="B596" s="24">
         <v>44633</v>
       </c>
       <c r="C596" s="18">
@@ -16716,7 +16710,7 @@
       <c r="A597" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B597" s="28">
+      <c r="B597" s="25">
         <v>44633</v>
       </c>
       <c r="C597" s="19">
@@ -16730,7 +16724,7 @@
       <c r="A598" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B598" s="29">
+      <c r="B598" s="26">
         <v>44633</v>
       </c>
       <c r="C598" s="16">
@@ -16744,7 +16738,7 @@
       <c r="A599" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B599" s="30">
+      <c r="B599" s="27">
         <v>44633</v>
       </c>
       <c r="C599" s="18">
@@ -16758,7 +16752,7 @@
       <c r="A600" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B600" s="27">
+      <c r="B600" s="24">
         <v>44633</v>
       </c>
       <c r="C600" s="19">
@@ -16772,7 +16766,7 @@
       <c r="A601" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B601" s="27">
+      <c r="B601" s="24">
         <v>44633</v>
       </c>
       <c r="C601" s="17">
@@ -16786,7 +16780,7 @@
       <c r="A602" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B602" s="28">
+      <c r="B602" s="25">
         <v>44633</v>
       </c>
       <c r="C602" s="17">
@@ -16800,7 +16794,7 @@
       <c r="A603" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B603" s="29">
+      <c r="B603" s="26">
         <v>44633</v>
       </c>
       <c r="C603" s="16">
@@ -16814,7 +16808,7 @@
       <c r="A604" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B604" s="30">
+      <c r="B604" s="27">
         <v>44633</v>
       </c>
       <c r="C604" s="17">
@@ -16828,7 +16822,7 @@
       <c r="A605" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B605" s="27">
+      <c r="B605" s="24">
         <v>44633</v>
       </c>
       <c r="C605" s="18">
@@ -16842,7 +16836,7 @@
       <c r="A606" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B606" s="28">
+      <c r="B606" s="25">
         <v>44633</v>
       </c>
       <c r="C606" s="19">
@@ -16856,7 +16850,7 @@
       <c r="A607" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B607" s="29">
+      <c r="B607" s="26">
         <v>44634</v>
       </c>
       <c r="C607" s="16">
@@ -16870,7 +16864,7 @@
       <c r="A608" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B608" s="30">
+      <c r="B608" s="27">
         <v>44635</v>
       </c>
       <c r="C608" s="17">
@@ -16884,7 +16878,7 @@
       <c r="A609" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B609" s="27">
+      <c r="B609" s="24">
         <v>44635</v>
       </c>
       <c r="C609" s="18">
@@ -16898,7 +16892,7 @@
       <c r="A610" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B610" s="28">
+      <c r="B610" s="25">
         <v>44635</v>
       </c>
       <c r="C610" s="19">
@@ -16912,7 +16906,7 @@
       <c r="A611" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B611" s="29">
+      <c r="B611" s="26">
         <v>44635</v>
       </c>
       <c r="C611" s="16">
@@ -16926,7 +16920,7 @@
       <c r="A612" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B612" s="30">
+      <c r="B612" s="27">
         <v>44636</v>
       </c>
       <c r="C612" s="18">
@@ -16940,7 +16934,7 @@
       <c r="A613" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B613" s="27">
+      <c r="B613" s="24">
         <v>44636</v>
       </c>
       <c r="C613" s="19">
@@ -16954,7 +16948,7 @@
       <c r="A614" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B614" s="28">
+      <c r="B614" s="25">
         <v>44637</v>
       </c>
       <c r="C614" s="17">
@@ -16968,7 +16962,7 @@
       <c r="A615" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B615" s="29">
+      <c r="B615" s="26">
         <v>44637</v>
       </c>
       <c r="C615" s="16">
@@ -16982,7 +16976,7 @@
       <c r="A616" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B616" s="30">
+      <c r="B616" s="27">
         <v>44637</v>
       </c>
       <c r="C616" s="19">
@@ -16996,7 +16990,7 @@
       <c r="A617" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B617" s="27">
+      <c r="B617" s="24">
         <v>44637</v>
       </c>
       <c r="C617" s="16">
@@ -17010,7 +17004,7 @@
       <c r="A618" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B618" s="28">
+      <c r="B618" s="25">
         <v>44638</v>
       </c>
       <c r="C618" s="18">
@@ -17024,7 +17018,7 @@
       <c r="A619" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B619" s="29">
+      <c r="B619" s="26">
         <v>44638</v>
       </c>
       <c r="C619" s="19">
@@ -17038,7 +17032,7 @@
       <c r="A620" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B620" s="30">
+      <c r="B620" s="27">
         <v>44638</v>
       </c>
       <c r="C620" s="17">
@@ -17052,7 +17046,7 @@
       <c r="A621" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B621" s="27">
+      <c r="B621" s="24">
         <v>44638</v>
       </c>
       <c r="C621" s="16">
@@ -17066,7 +17060,7 @@
       <c r="A622" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B622" s="28">
+      <c r="B622" s="25">
         <v>44639</v>
       </c>
       <c r="C622" s="18">
@@ -17080,7 +17074,7 @@
       <c r="A623" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B623" s="29">
+      <c r="B623" s="26">
         <v>44639</v>
       </c>
       <c r="C623" s="19">
@@ -17094,7 +17088,7 @@
       <c r="A624" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B624" s="30">
+      <c r="B624" s="27">
         <v>44639</v>
       </c>
       <c r="C624" s="16">
@@ -17108,7 +17102,7 @@
       <c r="A625" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B625" s="27">
+      <c r="B625" s="24">
         <v>44639</v>
       </c>
       <c r="C625" s="19">
@@ -17122,7 +17116,7 @@
       <c r="A626" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B626" s="28">
+      <c r="B626" s="25">
         <v>44639</v>
       </c>
       <c r="C626" s="16">
@@ -17136,7 +17130,7 @@
       <c r="A627" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="B627" s="31">
+      <c r="B627" s="28">
         <v>44639</v>
       </c>
       <c r="C627" s="18">
@@ -17150,7 +17144,7 @@
       <c r="A628" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B628" s="30">
+      <c r="B628" s="27">
         <v>44639</v>
       </c>
       <c r="C628" s="19">
@@ -17164,7 +17158,7 @@
       <c r="A629" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B629" s="27">
+      <c r="B629" s="24">
         <v>44639</v>
       </c>
       <c r="C629" s="16">
@@ -17178,7 +17172,7 @@
       <c r="A630" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B630" s="28">
+      <c r="B630" s="25">
         <v>44639</v>
       </c>
       <c r="C630" s="18">
@@ -17192,7 +17186,7 @@
       <c r="A631" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B631" s="31">
+      <c r="B631" s="28">
         <v>44639</v>
       </c>
       <c r="C631" s="19">
@@ -17206,7 +17200,7 @@
       <c r="A632" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B632" s="30">
+      <c r="B632" s="27">
         <v>44639</v>
       </c>
       <c r="C632" s="19">
@@ -17220,7 +17214,7 @@
       <c r="A633" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B633" s="27">
+      <c r="B633" s="24">
         <v>44640</v>
       </c>
       <c r="C633" s="18">
@@ -17234,7 +17228,7 @@
       <c r="A634" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B634" s="28">
+      <c r="B634" s="25">
         <v>44640</v>
       </c>
       <c r="C634" s="19">
@@ -17248,7 +17242,7 @@
       <c r="A635" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B635" s="29">
+      <c r="B635" s="26">
         <v>44640</v>
       </c>
       <c r="C635" s="16">
@@ -17262,7 +17256,7 @@
       <c r="A636" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B636" s="30">
+      <c r="B636" s="27">
         <v>44640</v>
       </c>
       <c r="C636" s="18">
@@ -17276,7 +17270,7 @@
       <c r="A637" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B637" s="27">
+      <c r="B637" s="24">
         <v>44640</v>
       </c>
       <c r="C637" s="19">
@@ -17290,7 +17284,7 @@
       <c r="A638" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B638" s="28">
+      <c r="B638" s="25">
         <v>44640</v>
       </c>
       <c r="C638" s="17">
@@ -17304,7 +17298,7 @@
       <c r="A639" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B639" s="29">
+      <c r="B639" s="26">
         <v>44640</v>
       </c>
       <c r="C639" s="17">
@@ -17318,7 +17312,7 @@
       <c r="A640" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B640" s="30">
+      <c r="B640" s="27">
         <v>44640</v>
       </c>
       <c r="C640" s="16">
@@ -17332,7 +17326,7 @@
       <c r="A641" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B641" s="27">
+      <c r="B641" s="24">
         <v>44640</v>
       </c>
       <c r="C641" s="17">
@@ -17346,7 +17340,7 @@
       <c r="A642" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B642" s="28">
+      <c r="B642" s="25">
         <v>44640</v>
       </c>
       <c r="C642" s="18">
@@ -17360,7 +17354,7 @@
       <c r="A643" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B643" s="31">
+      <c r="B643" s="28">
         <v>44640</v>
       </c>
       <c r="C643" s="19">
@@ -17374,7 +17368,7 @@
       <c r="A644" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B644" s="28">
+      <c r="B644" s="25">
         <v>44641</v>
       </c>
       <c r="C644" s="16">
@@ -17388,7 +17382,7 @@
       <c r="A645" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B645" s="29">
+      <c r="B645" s="26">
         <v>44642</v>
       </c>
       <c r="C645" s="17">
@@ -17402,7 +17396,7 @@
       <c r="A646" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B646" s="30">
+      <c r="B646" s="27">
         <v>44642</v>
       </c>
       <c r="C646" s="18">
@@ -17416,7 +17410,7 @@
       <c r="A647" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B647" s="27">
+      <c r="B647" s="24">
         <v>44642</v>
       </c>
       <c r="C647" s="19">
@@ -17430,7 +17424,7 @@
       <c r="A648" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B648" s="28">
+      <c r="B648" s="25">
         <v>44642</v>
       </c>
       <c r="C648" s="16">
@@ -17444,7 +17438,7 @@
       <c r="A649" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B649" s="29">
+      <c r="B649" s="26">
         <v>44643</v>
       </c>
       <c r="C649" s="18">
@@ -17458,7 +17452,7 @@
       <c r="A650" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B650" s="30">
+      <c r="B650" s="27">
         <v>44643</v>
       </c>
       <c r="C650" s="19">
@@ -17472,7 +17466,7 @@
       <c r="A651" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B651" s="27">
+      <c r="B651" s="24">
         <v>44644</v>
       </c>
       <c r="C651" s="17">
@@ -17486,7 +17480,7 @@
       <c r="A652" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B652" s="28">
+      <c r="B652" s="25">
         <v>44644</v>
       </c>
       <c r="C652" s="16">
@@ -17500,7 +17494,7 @@
       <c r="A653" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B653" s="29">
+      <c r="B653" s="26">
         <v>44644</v>
       </c>
       <c r="C653" s="19">
@@ -17514,7 +17508,7 @@
       <c r="A654" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B654" s="30">
+      <c r="B654" s="27">
         <v>44644</v>
       </c>
       <c r="C654" s="16">
@@ -17528,7 +17522,7 @@
       <c r="A655" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B655" s="27">
+      <c r="B655" s="24">
         <v>44645</v>
       </c>
       <c r="C655" s="18">
@@ -17542,7 +17536,7 @@
       <c r="A656" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B656" s="28">
+      <c r="B656" s="25">
         <v>44645</v>
       </c>
       <c r="C656" s="19">
@@ -17556,7 +17550,7 @@
       <c r="A657" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B657" s="29">
+      <c r="B657" s="26">
         <v>44645</v>
       </c>
       <c r="C657" s="17">
@@ -17570,7 +17564,7 @@
       <c r="A658" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B658" s="30">
+      <c r="B658" s="27">
         <v>44645</v>
       </c>
       <c r="C658" s="16">
@@ -17584,7 +17578,7 @@
       <c r="A659" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B659" s="27">
+      <c r="B659" s="24">
         <v>44646</v>
       </c>
       <c r="C659" s="18">
@@ -17598,7 +17592,7 @@
       <c r="A660" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B660" s="28">
+      <c r="B660" s="25">
         <v>44646</v>
       </c>
       <c r="C660" s="19">
@@ -17612,7 +17606,7 @@
       <c r="A661" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B661" s="29">
+      <c r="B661" s="26">
         <v>44646</v>
       </c>
       <c r="C661" s="16">
@@ -17626,7 +17620,7 @@
       <c r="A662" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B662" s="30">
+      <c r="B662" s="27">
         <v>44646</v>
       </c>
       <c r="C662" s="19">
@@ -17640,7 +17634,7 @@
       <c r="A663" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B663" s="27">
+      <c r="B663" s="24">
         <v>44646</v>
       </c>
       <c r="C663" s="16">
@@ -17654,7 +17648,7 @@
       <c r="A664" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B664" s="28">
+      <c r="B664" s="25">
         <v>44646</v>
       </c>
       <c r="C664" s="19">
@@ -17668,7 +17662,7 @@
       <c r="A665" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B665" s="29">
+      <c r="B665" s="26">
         <v>44646</v>
       </c>
       <c r="C665" s="16">
@@ -17682,7 +17676,7 @@
       <c r="A666" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B666" s="30">
+      <c r="B666" s="27">
         <v>44646</v>
       </c>
       <c r="C666" s="17">
@@ -17696,7 +17690,7 @@
       <c r="A667" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B667" s="27">
+      <c r="B667" s="24">
         <v>44646</v>
       </c>
       <c r="C667" s="18">
@@ -17710,7 +17704,7 @@
       <c r="A668" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B668" s="28">
+      <c r="B668" s="25">
         <v>44646</v>
       </c>
       <c r="C668" s="19">
@@ -17724,7 +17718,7 @@
       <c r="A669" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B669" s="29">
+      <c r="B669" s="26">
         <v>44646</v>
       </c>
       <c r="C669" s="16">
@@ -17738,7 +17732,7 @@
       <c r="A670" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B670" s="30">
+      <c r="B670" s="27">
         <v>44646</v>
       </c>
       <c r="C670" s="18">
@@ -17752,7 +17746,7 @@
       <c r="A671" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B671" s="31">
+      <c r="B671" s="28">
         <v>44646</v>
       </c>
       <c r="C671" s="18">
@@ -17766,7 +17760,7 @@
       <c r="A672" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B672" s="28">
+      <c r="B672" s="25">
         <v>44646</v>
       </c>
       <c r="C672" s="19">
@@ -17780,7 +17774,7 @@
       <c r="A673" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B673" s="29">
+      <c r="B673" s="26">
         <v>44647</v>
       </c>
       <c r="C673" s="18">
@@ -17794,7 +17788,7 @@
       <c r="A674" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B674" s="30">
+      <c r="B674" s="27">
         <v>44647</v>
       </c>
       <c r="C674" s="19">
@@ -17808,7 +17802,7 @@
       <c r="A675" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B675" s="27">
+      <c r="B675" s="24">
         <v>44647</v>
       </c>
       <c r="C675" s="16">
@@ -17822,7 +17816,7 @@
       <c r="A676" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B676" s="28">
+      <c r="B676" s="25">
         <v>44647</v>
       </c>
       <c r="C676" s="18">
@@ -17836,7 +17830,7 @@
       <c r="A677" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B677" s="29">
+      <c r="B677" s="26">
         <v>44647</v>
       </c>
       <c r="C677" s="19">
@@ -17850,7 +17844,7 @@
       <c r="A678" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B678" s="30">
+      <c r="B678" s="27">
         <v>44647</v>
       </c>
       <c r="C678" s="17">
@@ -17864,7 +17858,7 @@
       <c r="A679" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B679" s="30">
+      <c r="B679" s="27">
         <v>44647</v>
       </c>
       <c r="C679" s="17">
@@ -17878,7 +17872,7 @@
       <c r="A680" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B680" s="27">
+      <c r="B680" s="24">
         <v>44647</v>
       </c>
       <c r="C680" s="16">
@@ -17892,7 +17886,7 @@
       <c r="A681" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B681" s="28">
+      <c r="B681" s="25">
         <v>44647</v>
       </c>
       <c r="C681" s="17">
@@ -17906,7 +17900,7 @@
       <c r="A682" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B682" s="29">
+      <c r="B682" s="26">
         <v>44647</v>
       </c>
       <c r="C682" s="18">
@@ -17920,7 +17914,7 @@
       <c r="A683" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B683" s="30">
+      <c r="B683" s="27">
         <v>44647</v>
       </c>
       <c r="C683" s="19">
@@ -17934,7 +17928,7 @@
       <c r="A684" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B684" s="27">
+      <c r="B684" s="24">
         <v>44648</v>
       </c>
       <c r="C684" s="16">
@@ -17948,7 +17942,7 @@
       <c r="A685" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B685" s="28">
+      <c r="B685" s="25">
         <v>44649</v>
       </c>
       <c r="C685" s="17">
@@ -17962,7 +17956,7 @@
       <c r="A686" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B686" s="29">
+      <c r="B686" s="26">
         <v>44649</v>
       </c>
       <c r="C686" s="18">
@@ -17976,7 +17970,7 @@
       <c r="A687" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B687" s="30">
+      <c r="B687" s="27">
         <v>44649</v>
       </c>
       <c r="C687" s="19">
@@ -17990,7 +17984,7 @@
       <c r="A688" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B688" s="27">
+      <c r="B688" s="24">
         <v>44649</v>
       </c>
       <c r="C688" s="16">
@@ -18004,7 +17998,7 @@
       <c r="A689" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B689" s="28">
+      <c r="B689" s="25">
         <v>44650</v>
       </c>
       <c r="C689" s="18">
@@ -18018,7 +18012,7 @@
       <c r="A690" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B690" s="29">
+      <c r="B690" s="26">
         <v>44650</v>
       </c>
       <c r="C690" s="19">
@@ -18032,7 +18026,7 @@
       <c r="A691" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B691" s="30">
+      <c r="B691" s="27">
         <v>44651</v>
       </c>
       <c r="C691" s="17">
@@ -18046,7 +18040,7 @@
       <c r="A692" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B692" s="31">
+      <c r="B692" s="28">
         <v>44651</v>
       </c>
       <c r="C692" s="16">
@@ -18060,7 +18054,7 @@
       <c r="A693" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B693" s="28">
+      <c r="B693" s="25">
         <v>44651</v>
       </c>
       <c r="C693" s="19">
@@ -18074,7 +18068,7 @@
       <c r="A694" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B694" s="29">
+      <c r="B694" s="26">
         <v>44651</v>
       </c>
       <c r="C694" s="16">
@@ -18088,7 +18082,7 @@
       <c r="A695" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B695" s="30">
+      <c r="B695" s="27">
         <v>44652</v>
       </c>
       <c r="C695" s="18">
@@ -18102,7 +18096,7 @@
       <c r="A696" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B696" s="27">
+      <c r="B696" s="24">
         <v>44652</v>
       </c>
       <c r="C696" s="19">
@@ -18116,7 +18110,7 @@
       <c r="A697" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B697" s="28">
+      <c r="B697" s="25">
         <v>44652</v>
       </c>
       <c r="C697" s="16">
@@ -18130,7 +18124,7 @@
       <c r="A698" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B698" s="29">
+      <c r="B698" s="26">
         <v>44652</v>
       </c>
       <c r="C698" s="16">
@@ -18144,7 +18138,7 @@
       <c r="A699" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B699" s="30">
+      <c r="B699" s="27">
         <v>44653</v>
       </c>
       <c r="C699" s="18">
@@ -18158,7 +18152,7 @@
       <c r="A700" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B700" s="27">
+      <c r="B700" s="24">
         <v>44653</v>
       </c>
       <c r="C700" s="19">
@@ -18172,7 +18166,7 @@
       <c r="A701" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B701" s="28">
+      <c r="B701" s="25">
         <v>44653</v>
       </c>
       <c r="C701" s="16">
@@ -18186,7 +18180,7 @@
       <c r="A702" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B702" s="29">
+      <c r="B702" s="26">
         <v>44653</v>
       </c>
       <c r="C702" s="19">
@@ -18200,7 +18194,7 @@
       <c r="A703" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B703" s="30">
+      <c r="B703" s="27">
         <v>44653</v>
       </c>
       <c r="C703" s="16">
@@ -18214,7 +18208,7 @@
       <c r="A704" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B704" s="27">
+      <c r="B704" s="24">
         <v>44653</v>
       </c>
       <c r="C704" s="18">
@@ -18228,7 +18222,7 @@
       <c r="A705" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B705" s="28">
+      <c r="B705" s="25">
         <v>44653</v>
       </c>
       <c r="C705" s="19">
@@ -18242,7 +18236,7 @@
       <c r="A706" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B706" s="29">
+      <c r="B706" s="26">
         <v>44653</v>
       </c>
       <c r="C706" s="16">
@@ -18256,7 +18250,7 @@
       <c r="A707" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B707" s="30">
+      <c r="B707" s="27">
         <v>44653</v>
       </c>
       <c r="C707" s="18">
@@ -18270,7 +18264,7 @@
       <c r="A708" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B708" s="27">
+      <c r="B708" s="24">
         <v>44653</v>
       </c>
       <c r="C708" s="19">
@@ -18284,7 +18278,7 @@
       <c r="A709" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B709" s="28">
+      <c r="B709" s="25">
         <v>44653</v>
       </c>
       <c r="C709" s="19">
@@ -18298,7 +18292,7 @@
       <c r="A710" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B710" s="29">
+      <c r="B710" s="26">
         <v>44654</v>
       </c>
       <c r="C710" s="18">
@@ -18312,7 +18306,7 @@
       <c r="A711" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B711" s="30">
+      <c r="B711" s="27">
         <v>44654</v>
       </c>
       <c r="C711" s="19">
@@ -18326,7 +18320,7 @@
       <c r="A712" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B712" s="27">
+      <c r="B712" s="24">
         <v>44654</v>
       </c>
       <c r="C712" s="16">
@@ -18340,7 +18334,7 @@
       <c r="A713" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B713" s="28">
+      <c r="B713" s="25">
         <v>44654</v>
       </c>
       <c r="C713" s="18">
@@ -18354,7 +18348,7 @@
       <c r="A714" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B714" s="29">
+      <c r="B714" s="26">
         <v>44654</v>
       </c>
       <c r="C714" s="19">
@@ -18368,7 +18362,7 @@
       <c r="A715" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B715" s="30">
+      <c r="B715" s="27">
         <v>44654</v>
       </c>
       <c r="C715" s="17">
@@ -18382,7 +18376,7 @@
       <c r="A716" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B716" s="27">
+      <c r="B716" s="24">
         <v>44654</v>
       </c>
       <c r="C716" s="17">
@@ -18396,7 +18390,7 @@
       <c r="A717" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B717" s="28">
+      <c r="B717" s="25">
         <v>44654</v>
       </c>
       <c r="C717" s="17">
@@ -18410,7 +18404,7 @@
       <c r="A718" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B718" s="31">
+      <c r="B718" s="28">
         <v>44654</v>
       </c>
       <c r="C718" s="18">
@@ -18424,7 +18418,7 @@
       <c r="A719" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B719" s="30">
+      <c r="B719" s="27">
         <v>44654</v>
       </c>
       <c r="C719" s="17">
@@ -18438,7 +18432,7 @@
       <c r="A720" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B720" s="27">
+      <c r="B720" s="24">
         <v>44654</v>
       </c>
       <c r="C720" s="18">
@@ -18452,7 +18446,7 @@
       <c r="A721" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B721" s="28">
+      <c r="B721" s="25">
         <v>44654</v>
       </c>
       <c r="C721" s="19">
@@ -18466,7 +18460,7 @@
       <c r="A722" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B722" s="29">
+      <c r="B722" s="26">
         <v>44654</v>
       </c>
       <c r="C722" s="16">
@@ -18480,7 +18474,7 @@
       <c r="A723" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B723" s="30">
+      <c r="B723" s="27">
         <v>44654</v>
       </c>
       <c r="C723" s="17">
@@ -18494,7 +18488,7 @@
       <c r="A724" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B724" s="27">
+      <c r="B724" s="24">
         <v>44654</v>
       </c>
       <c r="C724" s="18">
@@ -18508,7 +18502,7 @@
       <c r="A725" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B725" s="28">
+      <c r="B725" s="25">
         <v>44654</v>
       </c>
       <c r="C725" s="19">
@@ -18522,7 +18516,7 @@
       <c r="A726" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B726" s="29">
+      <c r="B726" s="26">
         <v>44655</v>
       </c>
       <c r="C726" s="16">
@@ -18536,7 +18530,7 @@
       <c r="A727" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B727" s="30">
+      <c r="B727" s="27">
         <v>44656</v>
       </c>
       <c r="C727" s="17">
@@ -18550,7 +18544,7 @@
       <c r="A728" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B728" s="27">
+      <c r="B728" s="24">
         <v>44656</v>
       </c>
       <c r="C728" s="18">
@@ -18564,7 +18558,7 @@
       <c r="A729" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B729" s="28">
+      <c r="B729" s="25">
         <v>44656</v>
       </c>
       <c r="C729" s="19">
@@ -18578,7 +18572,7 @@
       <c r="A730" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B730" s="29">
+      <c r="B730" s="26">
         <v>44656</v>
       </c>
       <c r="C730" s="16">
@@ -18592,7 +18586,7 @@
       <c r="A731" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B731" s="30">
+      <c r="B731" s="27">
         <v>44657</v>
       </c>
       <c r="C731" s="18">
@@ -18606,7 +18600,7 @@
       <c r="A732" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B732" s="31">
+      <c r="B732" s="28">
         <v>44657</v>
       </c>
       <c r="C732" s="19">
@@ -18620,7 +18614,7 @@
       <c r="A733" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B733" s="28">
+      <c r="B733" s="25">
         <v>44658</v>
       </c>
       <c r="C733" s="17">
@@ -18634,7 +18628,7 @@
       <c r="A734" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B734" s="29">
+      <c r="B734" s="26">
         <v>44658</v>
       </c>
       <c r="C734" s="16">
@@ -18648,7 +18642,7 @@
       <c r="A735" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B735" s="30">
+      <c r="B735" s="27">
         <v>44658</v>
       </c>
       <c r="C735" s="19">
@@ -18662,7 +18656,7 @@
       <c r="A736" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B736" s="27">
+      <c r="B736" s="24">
         <v>44658</v>
       </c>
       <c r="C736" s="16">
@@ -18676,7 +18670,7 @@
       <c r="A737" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B737" s="28">
+      <c r="B737" s="25">
         <v>44659</v>
       </c>
       <c r="C737" s="18">
@@ -18690,7 +18684,7 @@
       <c r="A738" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B738" s="29">
+      <c r="B738" s="26">
         <v>44659</v>
       </c>
       <c r="C738" s="19">
@@ -18704,7 +18698,7 @@
       <c r="A739" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B739" s="30">
+      <c r="B739" s="27">
         <v>44659</v>
       </c>
       <c r="C739" s="17">
@@ -18718,7 +18712,7 @@
       <c r="A740" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B740" s="27">
+      <c r="B740" s="24">
         <v>44659</v>
       </c>
       <c r="C740" s="16">
@@ -18732,7 +18726,7 @@
       <c r="A741" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B741" s="28">
+      <c r="B741" s="25">
         <v>44660</v>
       </c>
       <c r="C741" s="17">
@@ -18746,7 +18740,7 @@
       <c r="A742" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B742" s="29">
+      <c r="B742" s="26">
         <v>44660</v>
       </c>
       <c r="C742" s="18">
@@ -18760,7 +18754,7 @@
       <c r="A743" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B743" s="30">
+      <c r="B743" s="27">
         <v>44660</v>
       </c>
       <c r="C743" s="19">
@@ -18774,7 +18768,7 @@
       <c r="A744" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B744" s="27">
+      <c r="B744" s="24">
         <v>44660</v>
       </c>
       <c r="C744" s="16">
@@ -18788,7 +18782,7 @@
       <c r="A745" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B745" s="28">
+      <c r="B745" s="25">
         <v>44660</v>
       </c>
       <c r="C745" s="17">
@@ -18802,7 +18796,7 @@
       <c r="A746" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B746" s="29">
+      <c r="B746" s="26">
         <v>44660</v>
       </c>
       <c r="C746" s="18">
@@ -18816,7 +18810,7 @@
       <c r="A747" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="B747" s="30">
+      <c r="B747" s="27">
         <v>44660</v>
       </c>
       <c r="C747" s="19">
@@ -18830,7 +18824,7 @@
       <c r="A748" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B748" s="27">
+      <c r="B748" s="24">
         <v>44660</v>
       </c>
       <c r="C748" s="16">
@@ -18844,7 +18838,7 @@
       <c r="A749" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B749" s="28">
+      <c r="B749" s="25">
         <v>44660</v>
       </c>
       <c r="C749" s="18">
@@ -18858,7 +18852,7 @@
       <c r="A750" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B750" s="29">
+      <c r="B750" s="26">
         <v>44660</v>
       </c>
       <c r="C750" s="19">
@@ -18872,7 +18866,7 @@
       <c r="A751" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B751" s="30">
+      <c r="B751" s="27">
         <v>44660</v>
       </c>
       <c r="C751" s="16">
@@ -18886,7 +18880,7 @@
       <c r="A752" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B752" s="27">
+      <c r="B752" s="24">
         <v>44660</v>
       </c>
       <c r="C752" s="19">
@@ -18900,7 +18894,7 @@
       <c r="A753" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B753" s="28">
+      <c r="B753" s="25">
         <v>44660</v>
       </c>
       <c r="C753" s="16">
@@ -18914,7 +18908,7 @@
       <c r="A754" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B754" s="29">
+      <c r="B754" s="26">
         <v>44660</v>
       </c>
       <c r="C754" s="18">
@@ -18928,7 +18922,7 @@
       <c r="A755" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B755" s="30">
+      <c r="B755" s="27">
         <v>44660</v>
       </c>
       <c r="C755" s="19">
@@ -18942,7 +18936,7 @@
       <c r="A756" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B756" s="27">
+      <c r="B756" s="24">
         <v>44660</v>
       </c>
       <c r="C756" s="16">
@@ -18956,7 +18950,7 @@
       <c r="A757" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B757" s="28">
+      <c r="B757" s="25">
         <v>44660</v>
       </c>
       <c r="C757" s="18">
@@ -18970,7 +18964,7 @@
       <c r="A758" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B758" s="29">
+      <c r="B758" s="26">
         <v>44660</v>
       </c>
       <c r="C758" s="19">
@@ -18984,7 +18978,7 @@
       <c r="A759" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B759" s="30">
+      <c r="B759" s="27">
         <v>44660</v>
       </c>
       <c r="C759" s="19">
@@ -18998,7 +18992,7 @@
       <c r="A760" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B760" s="27">
+      <c r="B760" s="24">
         <v>44661</v>
       </c>
       <c r="C760" s="18">
@@ -19012,7 +19006,7 @@
       <c r="A761" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B761" s="28">
+      <c r="B761" s="25">
         <v>44661</v>
       </c>
       <c r="C761" s="19">
@@ -19026,7 +19020,7 @@
       <c r="A762" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B762" s="29">
+      <c r="B762" s="26">
         <v>44661</v>
       </c>
       <c r="C762" s="16">
@@ -19040,7 +19034,7 @@
       <c r="A763" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B763" s="30">
+      <c r="B763" s="27">
         <v>44661</v>
       </c>
       <c r="C763" s="18">
@@ -19054,7 +19048,7 @@
       <c r="A764" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B764" s="27">
+      <c r="B764" s="24">
         <v>44661</v>
       </c>
       <c r="C764" s="19">
@@ -19068,7 +19062,7 @@
       <c r="A765" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B765" s="28">
+      <c r="B765" s="25">
         <v>44661</v>
       </c>
       <c r="C765" s="17">
@@ -19082,7 +19076,7 @@
       <c r="A766" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B766" s="29">
+      <c r="B766" s="26">
         <v>44661</v>
       </c>
       <c r="C766" s="17">
@@ -19096,7 +19090,7 @@
       <c r="A767" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B767" s="27">
+      <c r="B767" s="24">
         <v>44661</v>
       </c>
       <c r="C767" s="18">
@@ -19110,7 +19104,7 @@
       <c r="A768" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B768" s="28">
+      <c r="B768" s="25">
         <v>44661</v>
       </c>
       <c r="C768" s="19">
@@ -19124,7 +19118,7 @@
       <c r="A769" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B769" s="27">
+      <c r="B769" s="24">
         <v>44661</v>
       </c>
       <c r="C769" s="16">
@@ -19138,7 +19132,7 @@
       <c r="A770" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B770" s="27">
+      <c r="B770" s="24">
         <v>44661</v>
       </c>
       <c r="C770" s="18">
@@ -19152,7 +19146,7 @@
       <c r="A771" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B771" s="31">
+      <c r="B771" s="28">
         <v>44661</v>
       </c>
       <c r="C771" s="19">
@@ -19166,7 +19160,7 @@
       <c r="A772" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B772" s="28">
+      <c r="B772" s="25">
         <v>44661</v>
       </c>
       <c r="C772" s="16">
@@ -19180,7 +19174,7 @@
       <c r="A773" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B773" s="29">
+      <c r="B773" s="26">
         <v>44661</v>
       </c>
       <c r="C773" s="18">
@@ -19194,7 +19188,7 @@
       <c r="A774" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B774" s="30">
+      <c r="B774" s="27">
         <v>44661</v>
       </c>
       <c r="C774" s="19">
@@ -19208,7 +19202,7 @@
       <c r="A775" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B775" s="27">
+      <c r="B775" s="24">
         <v>44662</v>
       </c>
       <c r="C775" s="16">
@@ -19222,7 +19216,7 @@
       <c r="A776" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B776" s="28">
+      <c r="B776" s="25">
         <v>44663</v>
       </c>
       <c r="C776" s="17">
@@ -19236,7 +19230,7 @@
       <c r="A777" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B777" s="29">
+      <c r="B777" s="26">
         <v>44663</v>
       </c>
       <c r="C777" s="18">
@@ -19250,7 +19244,7 @@
       <c r="A778" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B778" s="30">
+      <c r="B778" s="27">
         <v>44663</v>
       </c>
       <c r="C778" s="19">
@@ -19264,7 +19258,7 @@
       <c r="A779" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B779" s="27">
+      <c r="B779" s="24">
         <v>44663</v>
       </c>
       <c r="C779" s="16">
@@ -19278,7 +19272,7 @@
       <c r="A780" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B780" s="28">
+      <c r="B780" s="25">
         <v>44664</v>
       </c>
       <c r="C780" s="18">
@@ -19292,7 +19286,7 @@
       <c r="A781" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="B781" s="29">
+      <c r="B781" s="26">
         <v>44664</v>
       </c>
       <c r="C781" s="19">
@@ -19306,7 +19300,7 @@
       <c r="A782" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B782" s="30">
+      <c r="B782" s="27">
         <v>44665</v>
       </c>
       <c r="C782" s="17">
@@ -19320,7 +19314,7 @@
       <c r="A783" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B783" s="27">
+      <c r="B783" s="24">
         <v>44665</v>
       </c>
       <c r="C783" s="16">
@@ -19334,7 +19328,7 @@
       <c r="A784" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B784" s="28">
+      <c r="B784" s="25">
         <v>44665</v>
       </c>
       <c r="C784" s="19">
@@ -19348,7 +19342,7 @@
       <c r="A785" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B785" s="29">
+      <c r="B785" s="26">
         <v>44665</v>
       </c>
       <c r="C785" s="16">
@@ -19362,7 +19356,7 @@
       <c r="A786" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B786" s="30">
+      <c r="B786" s="27">
         <v>44666</v>
       </c>
       <c r="C786" s="18">
@@ -19376,7 +19370,7 @@
       <c r="A787" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B787" s="27">
+      <c r="B787" s="24">
         <v>44666</v>
       </c>
       <c r="C787" s="19">
@@ -19390,7 +19384,7 @@
       <c r="A788" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B788" s="28">
+      <c r="B788" s="25">
         <v>44666</v>
       </c>
       <c r="C788" s="17">
@@ -19404,7 +19398,7 @@
       <c r="A789" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B789" s="29">
+      <c r="B789" s="26">
         <v>44666</v>
       </c>
       <c r="C789" s="16">
@@ -21696,7 +21690,7 @@
       <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="35">
+      <c r="B3" s="32">
         <v>2</v>
       </c>
     </row>

--- a/src/main/resources/Input_Proposal.xlsx
+++ b/src/main/resources/Input_Proposal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Iteration 2\Itteration_2.3\Multi_variable_Sports_Scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70662887-6426-4FCB-A23F-05BAD6E1438A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76126DE5-6EA8-4FAC-8437-895E8D40243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2625" windowWidth="24240" windowHeight="13140" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2790" yWindow="390" windowWidth="22680" windowHeight="11055" tabRatio="888" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -19,11 +19,13 @@
     <sheet name="Arenas" sheetId="5" r:id="rId4"/>
     <sheet name="Time_Slots" sheetId="6" r:id="rId5"/>
     <sheet name="Home_Arena" sheetId="7" r:id="rId6"/>
-    <sheet name="Other" sheetId="8" r:id="rId7"/>
+    <sheet name="Matchups" sheetId="9" r:id="rId7"/>
+    <sheet name="Other" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Date_Exceptions!$B$1:$B$141</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Home_Arena!$C$1:$C$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Matchups!$C$1:$C$395</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Teams!$C$1:$C$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Time_Exceptions!$B$1:$B$146</definedName>
   </definedNames>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3017" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="89">
   <si>
     <t>Name</t>
   </si>
@@ -296,6 +298,24 @@
   </si>
   <si>
     <t>length Of timeslot (hours)</t>
+  </si>
+  <si>
+    <t>Opponent</t>
+  </si>
+  <si>
+    <t>Only play on Weekends</t>
+  </si>
+  <si>
+    <t>Preferred</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>AnyDay</t>
+  </si>
+  <si>
+    <t>Rank 0 / Tier 1</t>
   </si>
 </sst>
 </file>
@@ -1514,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G57"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5975,8 +5995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA098CFB-FD8A-4615-BF02-45A69431C1A9}">
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21657,17 +21677,6754 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA1FBB2-DAA8-4DE3-8A17-0A0C258A95AF}">
-  <dimension ref="A1:B4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F07B16-D03F-4C68-8145-4637A8BF5BC5}">
+  <dimension ref="A1:E395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B36" sqref="B36:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" t="s">
+        <v>27</v>
+      </c>
+      <c r="C42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C43" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C44" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="s">
+        <v>28</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>34</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>32</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>4</v>
+      </c>
+      <c r="B56" t="s">
+        <v>28</v>
+      </c>
+      <c r="C56" t="s">
+        <v>29</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>35</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>28</v>
+      </c>
+      <c r="C60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>28</v>
+      </c>
+      <c r="C61" t="s">
+        <v>32</v>
+      </c>
+      <c r="D61">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C62" t="s">
+        <v>33</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>4</v>
+      </c>
+      <c r="B63" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" t="s">
+        <v>36</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>28</v>
+      </c>
+      <c r="C64" t="s">
+        <v>37</v>
+      </c>
+      <c r="D64">
+        <v>3</v>
+      </c>
+      <c r="E64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>4</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>4</v>
+      </c>
+      <c r="B66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C66" t="s">
+        <v>28</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>4</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" t="s">
+        <v>31</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>4</v>
+      </c>
+      <c r="B68" t="s">
+        <v>30</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68">
+        <v>3</v>
+      </c>
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69" t="s">
+        <v>34</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>4</v>
+      </c>
+      <c r="B70" t="s">
+        <v>30</v>
+      </c>
+      <c r="C70" t="s">
+        <v>32</v>
+      </c>
+      <c r="D70">
+        <v>3</v>
+      </c>
+      <c r="E70" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>4</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71">
+        <v>3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72" t="s">
+        <v>36</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+      <c r="E72" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73" t="s">
+        <v>37</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>4</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" t="s">
+        <v>28</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>4</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>30</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>4</v>
+      </c>
+      <c r="B77" t="s">
+        <v>31</v>
+      </c>
+      <c r="C77" t="s">
+        <v>31</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>4</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" t="s">
+        <v>34</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" t="s">
+        <v>31</v>
+      </c>
+      <c r="C80" t="s">
+        <v>32</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>4</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>33</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>31</v>
+      </c>
+      <c r="C82" t="s">
+        <v>36</v>
+      </c>
+      <c r="D82">
+        <v>3</v>
+      </c>
+      <c r="E82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" t="s">
+        <v>35</v>
+      </c>
+      <c r="C84" t="s">
+        <v>34</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>35</v>
+      </c>
+      <c r="C85" t="s">
+        <v>32</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="B86" t="s">
+        <v>35</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>4</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>4</v>
+      </c>
+      <c r="B88" t="s">
+        <v>35</v>
+      </c>
+      <c r="C88" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>4</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>4</v>
+      </c>
+      <c r="B90" t="s">
+        <v>34</v>
+      </c>
+      <c r="C90" t="s">
+        <v>35</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>4</v>
+      </c>
+      <c r="B91" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" t="s">
+        <v>34</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>4</v>
+      </c>
+      <c r="B92" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" t="s">
+        <v>32</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" t="s">
+        <v>33</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" t="s">
+        <v>34</v>
+      </c>
+      <c r="C94" t="s">
+        <v>36</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>4</v>
+      </c>
+      <c r="B95" t="s">
+        <v>34</v>
+      </c>
+      <c r="C95" t="s">
+        <v>37</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>32</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>4</v>
+      </c>
+      <c r="B97" t="s">
+        <v>32</v>
+      </c>
+      <c r="C97" t="s">
+        <v>35</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>4</v>
+      </c>
+      <c r="B98" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" t="s">
+        <v>34</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>32</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>4</v>
+      </c>
+      <c r="B100" t="s">
+        <v>32</v>
+      </c>
+      <c r="C100" t="s">
+        <v>36</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>32</v>
+      </c>
+      <c r="C101" t="s">
+        <v>37</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>4</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" t="s">
+        <v>35</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>36</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>4</v>
+      </c>
+      <c r="B106" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" t="s">
+        <v>37</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" t="s">
+        <v>36</v>
+      </c>
+      <c r="C107" t="s">
+        <v>35</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>4</v>
+      </c>
+      <c r="B108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C108" t="s">
+        <v>34</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>4</v>
+      </c>
+      <c r="B109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C109" t="s">
+        <v>32</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>4</v>
+      </c>
+      <c r="B110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>33</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>4</v>
+      </c>
+      <c r="B111" t="s">
+        <v>36</v>
+      </c>
+      <c r="C111" t="s">
+        <v>37</v>
+      </c>
+      <c r="D111">
+        <v>3</v>
+      </c>
+      <c r="E111" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>4</v>
+      </c>
+      <c r="B112" t="s">
+        <v>36</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>4</v>
+      </c>
+      <c r="B113" t="s">
+        <v>37</v>
+      </c>
+      <c r="C113" t="s">
+        <v>35</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>37</v>
+      </c>
+      <c r="C115" t="s">
+        <v>32</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C116" t="s">
+        <v>33</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>4</v>
+      </c>
+      <c r="B117" t="s">
+        <v>37</v>
+      </c>
+      <c r="C117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>4</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" t="s">
+        <v>32</v>
+      </c>
+      <c r="D118">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>4</v>
+      </c>
+      <c r="B119" t="s">
+        <v>38</v>
+      </c>
+      <c r="C119" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119">
+        <v>2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>4</v>
+      </c>
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" t="s">
+        <v>36</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>4</v>
+      </c>
+      <c r="B121" t="s">
+        <v>38</v>
+      </c>
+      <c r="C121" t="s">
+        <v>37</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>19</v>
+      </c>
+      <c r="B122" t="s">
+        <v>35</v>
+      </c>
+      <c r="C122" t="s">
+        <v>58</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>19</v>
+      </c>
+      <c r="B123" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" t="s">
+        <v>58</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>19</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124" t="s">
+        <v>58</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>19</v>
+      </c>
+      <c r="B125" t="s">
+        <v>21</v>
+      </c>
+      <c r="C125" t="s">
+        <v>58</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>19</v>
+      </c>
+      <c r="B126" t="s">
+        <v>20</v>
+      </c>
+      <c r="C126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>19</v>
+      </c>
+      <c r="B127" t="s">
+        <v>29</v>
+      </c>
+      <c r="C127" t="s">
+        <v>58</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>19</v>
+      </c>
+      <c r="B128" t="s">
+        <v>31</v>
+      </c>
+      <c r="C128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>19</v>
+      </c>
+      <c r="B129" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D129">
+        <v>2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" t="s">
+        <v>58</v>
+      </c>
+      <c r="D130">
+        <v>2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>19</v>
+      </c>
+      <c r="B131" t="s">
+        <v>30</v>
+      </c>
+      <c r="C131" t="s">
+        <v>58</v>
+      </c>
+      <c r="D131">
+        <v>2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>19</v>
+      </c>
+      <c r="B132" t="s">
+        <v>28</v>
+      </c>
+      <c r="C132" t="s">
+        <v>58</v>
+      </c>
+      <c r="D132">
+        <v>3</v>
+      </c>
+      <c r="E132" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>19</v>
+      </c>
+      <c r="B133" t="s">
+        <v>36</v>
+      </c>
+      <c r="C133" t="s">
+        <v>58</v>
+      </c>
+      <c r="D133">
+        <v>3</v>
+      </c>
+      <c r="E133" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>19</v>
+      </c>
+      <c r="B134" t="s">
+        <v>32</v>
+      </c>
+      <c r="C134" t="s">
+        <v>58</v>
+      </c>
+      <c r="D134">
+        <v>3</v>
+      </c>
+      <c r="E134" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>19</v>
+      </c>
+      <c r="B135" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" t="s">
+        <v>58</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>19</v>
+      </c>
+      <c r="B136" t="s">
+        <v>39</v>
+      </c>
+      <c r="C136" t="s">
+        <v>58</v>
+      </c>
+      <c r="D136">
+        <v>3</v>
+      </c>
+      <c r="E136" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>40</v>
+      </c>
+      <c r="C137" t="s">
+        <v>58</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" t="s">
+        <v>35</v>
+      </c>
+      <c r="C138" t="s">
+        <v>23</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>19</v>
+      </c>
+      <c r="B139" t="s">
+        <v>35</v>
+      </c>
+      <c r="C139" t="s">
+        <v>22</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>19</v>
+      </c>
+      <c r="B140" t="s">
+        <v>35</v>
+      </c>
+      <c r="C140" t="s">
+        <v>21</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>35</v>
+      </c>
+      <c r="C141" t="s">
+        <v>20</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>19</v>
+      </c>
+      <c r="B143" t="s">
+        <v>23</v>
+      </c>
+      <c r="C143" t="s">
+        <v>35</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>19</v>
+      </c>
+      <c r="B144" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144" t="s">
+        <v>22</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>19</v>
+      </c>
+      <c r="B145" t="s">
+        <v>23</v>
+      </c>
+      <c r="C145" t="s">
+        <v>21</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>19</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" t="s">
+        <v>20</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>19</v>
+      </c>
+      <c r="B147" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>19</v>
+      </c>
+      <c r="B148" t="s">
+        <v>22</v>
+      </c>
+      <c r="C148" t="s">
+        <v>35</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>19</v>
+      </c>
+      <c r="B149" t="s">
+        <v>22</v>
+      </c>
+      <c r="C149" t="s">
+        <v>23</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>19</v>
+      </c>
+      <c r="B150" t="s">
+        <v>22</v>
+      </c>
+      <c r="C150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>19</v>
+      </c>
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="C151" t="s">
+        <v>20</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>19</v>
+      </c>
+      <c r="B152" t="s">
+        <v>22</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>19</v>
+      </c>
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" t="s">
+        <v>35</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>19</v>
+      </c>
+      <c r="B154" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" t="s">
+        <v>23</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>19</v>
+      </c>
+      <c r="B155" t="s">
+        <v>21</v>
+      </c>
+      <c r="C155" t="s">
+        <v>22</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>19</v>
+      </c>
+      <c r="B156" t="s">
+        <v>21</v>
+      </c>
+      <c r="C156" t="s">
+        <v>20</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>19</v>
+      </c>
+      <c r="B157" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>19</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" t="s">
+        <v>27</v>
+      </c>
+      <c r="D158">
+        <v>2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>21</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159">
+        <v>3</v>
+      </c>
+      <c r="E159" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>19</v>
+      </c>
+      <c r="B160" t="s">
+        <v>20</v>
+      </c>
+      <c r="C160" t="s">
+        <v>35</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+      <c r="E160" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161" t="s">
+        <v>23</v>
+      </c>
+      <c r="D161">
+        <v>1</v>
+      </c>
+      <c r="E161" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" t="s">
+        <v>20</v>
+      </c>
+      <c r="C162" t="s">
+        <v>22</v>
+      </c>
+      <c r="D162">
+        <v>1</v>
+      </c>
+      <c r="E162" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>21</v>
+      </c>
+      <c r="D163">
+        <v>1</v>
+      </c>
+      <c r="E163" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>19</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164" t="s">
+        <v>29</v>
+      </c>
+      <c r="D164">
+        <v>1</v>
+      </c>
+      <c r="E164" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>20</v>
+      </c>
+      <c r="C165" t="s">
+        <v>27</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>19</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" t="s">
+        <v>30</v>
+      </c>
+      <c r="D166">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>19</v>
+      </c>
+      <c r="B167" t="s">
+        <v>29</v>
+      </c>
+      <c r="C167" t="s">
+        <v>35</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>19</v>
+      </c>
+      <c r="B168" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" t="s">
+        <v>23</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
+        <v>29</v>
+      </c>
+      <c r="C169" t="s">
+        <v>22</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>19</v>
+      </c>
+      <c r="B170" t="s">
+        <v>29</v>
+      </c>
+      <c r="C170" t="s">
+        <v>21</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B171" t="s">
+        <v>29</v>
+      </c>
+      <c r="C171" t="s">
+        <v>20</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+      <c r="E171" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>19</v>
+      </c>
+      <c r="B172" t="s">
+        <v>29</v>
+      </c>
+      <c r="C172" t="s">
+        <v>31</v>
+      </c>
+      <c r="D172">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>19</v>
+      </c>
+      <c r="B173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173" t="s">
+        <v>27</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>19</v>
+      </c>
+      <c r="B174" t="s">
+        <v>29</v>
+      </c>
+      <c r="C174" t="s">
+        <v>30</v>
+      </c>
+      <c r="D174">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>19</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175" t="s">
+        <v>27</v>
+      </c>
+      <c r="D175">
+        <v>1</v>
+      </c>
+      <c r="E175" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>19</v>
+      </c>
+      <c r="B176" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" t="s">
+        <v>33</v>
+      </c>
+      <c r="D176">
+        <v>1</v>
+      </c>
+      <c r="E176" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>19</v>
+      </c>
+      <c r="B177" t="s">
+        <v>31</v>
+      </c>
+      <c r="C177" t="s">
+        <v>30</v>
+      </c>
+      <c r="D177">
+        <v>1</v>
+      </c>
+      <c r="E177" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>19</v>
+      </c>
+      <c r="B178" t="s">
+        <v>31</v>
+      </c>
+      <c r="C178" t="s">
+        <v>28</v>
+      </c>
+      <c r="D178">
+        <v>1</v>
+      </c>
+      <c r="E178" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>19</v>
+      </c>
+      <c r="B179" t="s">
+        <v>31</v>
+      </c>
+      <c r="C179" t="s">
+        <v>36</v>
+      </c>
+      <c r="D179">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>19</v>
+      </c>
+      <c r="B180" t="s">
+        <v>31</v>
+      </c>
+      <c r="C180" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>19</v>
+      </c>
+      <c r="B181" t="s">
+        <v>31</v>
+      </c>
+      <c r="C181" t="s">
+        <v>38</v>
+      </c>
+      <c r="D181">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" t="s">
+        <v>31</v>
+      </c>
+      <c r="C182" t="s">
+        <v>39</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>19</v>
+      </c>
+      <c r="B183" t="s">
+        <v>27</v>
+      </c>
+      <c r="C183" t="s">
+        <v>21</v>
+      </c>
+      <c r="D183">
+        <v>1</v>
+      </c>
+      <c r="E183" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" t="s">
+        <v>27</v>
+      </c>
+      <c r="C184" t="s">
+        <v>20</v>
+      </c>
+      <c r="D184">
+        <v>1</v>
+      </c>
+      <c r="E184" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>27</v>
+      </c>
+      <c r="C185" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185">
+        <v>1</v>
+      </c>
+      <c r="E185" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" t="s">
+        <v>31</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187">
+        <v>1</v>
+      </c>
+      <c r="E187" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>19</v>
+      </c>
+      <c r="B188" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>19</v>
+      </c>
+      <c r="B189" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" t="s">
+        <v>27</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+      <c r="E189" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>19</v>
+      </c>
+      <c r="B190" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" t="s">
+        <v>30</v>
+      </c>
+      <c r="D190">
+        <v>1</v>
+      </c>
+      <c r="E190" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>19</v>
+      </c>
+      <c r="B191" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" t="s">
+        <v>28</v>
+      </c>
+      <c r="D191">
+        <v>1</v>
+      </c>
+      <c r="E191" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>19</v>
+      </c>
+      <c r="B192" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" t="s">
+        <v>36</v>
+      </c>
+      <c r="D192">
+        <v>1</v>
+      </c>
+      <c r="E192" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>19</v>
+      </c>
+      <c r="B193" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+      <c r="E193" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>19</v>
+      </c>
+      <c r="B194" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" t="s">
+        <v>38</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>19</v>
+      </c>
+      <c r="B195" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" t="s">
+        <v>39</v>
+      </c>
+      <c r="D195">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>30</v>
+      </c>
+      <c r="C196" t="s">
+        <v>31</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>19</v>
+      </c>
+      <c r="B197" t="s">
+        <v>30</v>
+      </c>
+      <c r="C197" t="s">
+        <v>27</v>
+      </c>
+      <c r="D197">
+        <v>1</v>
+      </c>
+      <c r="E197" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>19</v>
+      </c>
+      <c r="B198" t="s">
+        <v>30</v>
+      </c>
+      <c r="C198" t="s">
+        <v>33</v>
+      </c>
+      <c r="D198">
+        <v>1</v>
+      </c>
+      <c r="E198" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>19</v>
+      </c>
+      <c r="B199" t="s">
+        <v>30</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199">
+        <v>1</v>
+      </c>
+      <c r="E199" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>19</v>
+      </c>
+      <c r="B200" t="s">
+        <v>30</v>
+      </c>
+      <c r="C200" t="s">
+        <v>36</v>
+      </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201" t="s">
+        <v>30</v>
+      </c>
+      <c r="C201" t="s">
+        <v>32</v>
+      </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>19</v>
+      </c>
+      <c r="B202" t="s">
+        <v>30</v>
+      </c>
+      <c r="C202" t="s">
+        <v>38</v>
+      </c>
+      <c r="D202">
+        <v>1</v>
+      </c>
+      <c r="E202" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>19</v>
+      </c>
+      <c r="B203" t="s">
+        <v>30</v>
+      </c>
+      <c r="C203" t="s">
+        <v>39</v>
+      </c>
+      <c r="D203">
+        <v>1</v>
+      </c>
+      <c r="E203" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" t="s">
+        <v>31</v>
+      </c>
+      <c r="D204">
+        <v>1</v>
+      </c>
+      <c r="E204" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>19</v>
+      </c>
+      <c r="B205" t="s">
+        <v>28</v>
+      </c>
+      <c r="C205" t="s">
+        <v>27</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>19</v>
+      </c>
+      <c r="B206" t="s">
+        <v>28</v>
+      </c>
+      <c r="C206" t="s">
+        <v>33</v>
+      </c>
+      <c r="D206">
+        <v>2</v>
+      </c>
+      <c r="E206" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>19</v>
+      </c>
+      <c r="B207" t="s">
+        <v>28</v>
+      </c>
+      <c r="C207" t="s">
+        <v>30</v>
+      </c>
+      <c r="D207">
+        <v>1</v>
+      </c>
+      <c r="E207" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s">
+        <v>28</v>
+      </c>
+      <c r="C208" t="s">
+        <v>36</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>19</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" t="s">
+        <v>32</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>19</v>
+      </c>
+      <c r="B210" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" t="s">
+        <v>38</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>19</v>
+      </c>
+      <c r="B211" t="s">
+        <v>28</v>
+      </c>
+      <c r="C211" t="s">
+        <v>39</v>
+      </c>
+      <c r="D211">
+        <v>2</v>
+      </c>
+      <c r="E211" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" t="s">
+        <v>36</v>
+      </c>
+      <c r="C212" t="s">
+        <v>27</v>
+      </c>
+      <c r="D212">
+        <v>2</v>
+      </c>
+      <c r="E212" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>19</v>
+      </c>
+      <c r="B213" t="s">
+        <v>36</v>
+      </c>
+      <c r="C213" t="s">
+        <v>33</v>
+      </c>
+      <c r="D213">
+        <v>1</v>
+      </c>
+      <c r="E213" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>19</v>
+      </c>
+      <c r="B214" t="s">
+        <v>36</v>
+      </c>
+      <c r="C214" t="s">
+        <v>30</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>19</v>
+      </c>
+      <c r="B215" t="s">
+        <v>36</v>
+      </c>
+      <c r="C215" t="s">
+        <v>28</v>
+      </c>
+      <c r="D215">
+        <v>1</v>
+      </c>
+      <c r="E215" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>19</v>
+      </c>
+      <c r="B216" t="s">
+        <v>36</v>
+      </c>
+      <c r="C216" t="s">
+        <v>32</v>
+      </c>
+      <c r="D216">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>19</v>
+      </c>
+      <c r="B217" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" t="s">
+        <v>38</v>
+      </c>
+      <c r="D217">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>19</v>
+      </c>
+      <c r="B218" t="s">
+        <v>36</v>
+      </c>
+      <c r="C218" t="s">
+        <v>39</v>
+      </c>
+      <c r="D218">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>19</v>
+      </c>
+      <c r="B219" t="s">
+        <v>36</v>
+      </c>
+      <c r="C219" t="s">
+        <v>40</v>
+      </c>
+      <c r="D219">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>19</v>
+      </c>
+      <c r="B220" t="s">
+        <v>32</v>
+      </c>
+      <c r="C220" t="s">
+        <v>31</v>
+      </c>
+      <c r="D220">
+        <v>1</v>
+      </c>
+      <c r="E220" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>19</v>
+      </c>
+      <c r="B221" t="s">
+        <v>32</v>
+      </c>
+      <c r="C221" t="s">
+        <v>27</v>
+      </c>
+      <c r="D221">
+        <v>1</v>
+      </c>
+      <c r="E221" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>32</v>
+      </c>
+      <c r="C222" t="s">
+        <v>33</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>32</v>
+      </c>
+      <c r="C223" t="s">
+        <v>30</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s">
+        <v>32</v>
+      </c>
+      <c r="C224" t="s">
+        <v>28</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" t="s">
+        <v>32</v>
+      </c>
+      <c r="C225" t="s">
+        <v>36</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" t="s">
+        <v>32</v>
+      </c>
+      <c r="C226" t="s">
+        <v>38</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" t="s">
+        <v>39</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" t="s">
+        <v>32</v>
+      </c>
+      <c r="C228" t="s">
+        <v>40</v>
+      </c>
+      <c r="D228">
+        <v>3</v>
+      </c>
+      <c r="E228" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" t="s">
+        <v>38</v>
+      </c>
+      <c r="C229" t="s">
+        <v>31</v>
+      </c>
+      <c r="D229">
+        <v>2</v>
+      </c>
+      <c r="E229" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>27</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
+        <v>33</v>
+      </c>
+      <c r="D231">
+        <v>2</v>
+      </c>
+      <c r="E231" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
+        <v>28</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" t="s">
+        <v>36</v>
+      </c>
+      <c r="D234">
+        <v>1</v>
+      </c>
+      <c r="E234" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
+        <v>32</v>
+      </c>
+      <c r="D235">
+        <v>2</v>
+      </c>
+      <c r="E235" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" t="s">
+        <v>39</v>
+      </c>
+      <c r="D236">
+        <v>2</v>
+      </c>
+      <c r="E236" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" t="s">
+        <v>38</v>
+      </c>
+      <c r="C237" t="s">
+        <v>40</v>
+      </c>
+      <c r="D237">
+        <v>1</v>
+      </c>
+      <c r="E237" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" t="s">
+        <v>39</v>
+      </c>
+      <c r="C238" t="s">
+        <v>31</v>
+      </c>
+      <c r="D238">
+        <v>1</v>
+      </c>
+      <c r="E238" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" t="s">
+        <v>39</v>
+      </c>
+      <c r="C239" t="s">
+        <v>27</v>
+      </c>
+      <c r="D239">
+        <v>2</v>
+      </c>
+      <c r="E239" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" t="s">
+        <v>39</v>
+      </c>
+      <c r="C240" t="s">
+        <v>33</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+      <c r="E240" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" t="s">
+        <v>39</v>
+      </c>
+      <c r="C241" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+      <c r="E241" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" t="s">
+        <v>39</v>
+      </c>
+      <c r="C242" t="s">
+        <v>28</v>
+      </c>
+      <c r="D242">
+        <v>2</v>
+      </c>
+      <c r="E242" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s">
+        <v>39</v>
+      </c>
+      <c r="C243" t="s">
+        <v>36</v>
+      </c>
+      <c r="D243">
+        <v>2</v>
+      </c>
+      <c r="E243" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>19</v>
+      </c>
+      <c r="B244" t="s">
+        <v>39</v>
+      </c>
+      <c r="C244" t="s">
+        <v>32</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>19</v>
+      </c>
+      <c r="B245" t="s">
+        <v>39</v>
+      </c>
+      <c r="C245" t="s">
+        <v>38</v>
+      </c>
+      <c r="D245">
+        <v>2</v>
+      </c>
+      <c r="E245" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>19</v>
+      </c>
+      <c r="B246" t="s">
+        <v>39</v>
+      </c>
+      <c r="C246" t="s">
+        <v>40</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>19</v>
+      </c>
+      <c r="B247" t="s">
+        <v>40</v>
+      </c>
+      <c r="C247" t="s">
+        <v>33</v>
+      </c>
+      <c r="D247">
+        <v>1</v>
+      </c>
+      <c r="E247" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>19</v>
+      </c>
+      <c r="B248" t="s">
+        <v>40</v>
+      </c>
+      <c r="C248" t="s">
+        <v>36</v>
+      </c>
+      <c r="D248">
+        <v>1</v>
+      </c>
+      <c r="E248" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>19</v>
+      </c>
+      <c r="B249" t="s">
+        <v>40</v>
+      </c>
+      <c r="C249" t="s">
+        <v>38</v>
+      </c>
+      <c r="D249">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>19</v>
+      </c>
+      <c r="B250" t="s">
+        <v>40</v>
+      </c>
+      <c r="C250" t="s">
+        <v>39</v>
+      </c>
+      <c r="D250">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>42</v>
+      </c>
+      <c r="B251" t="s">
+        <v>23</v>
+      </c>
+      <c r="C251" t="s">
+        <v>58</v>
+      </c>
+      <c r="D251">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>42</v>
+      </c>
+      <c r="B252" t="s">
+        <v>31</v>
+      </c>
+      <c r="C252" t="s">
+        <v>58</v>
+      </c>
+      <c r="D252">
+        <v>1</v>
+      </c>
+      <c r="E252" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>42</v>
+      </c>
+      <c r="B253" t="s">
+        <v>20</v>
+      </c>
+      <c r="C253" t="s">
+        <v>58</v>
+      </c>
+      <c r="D253">
+        <v>1</v>
+      </c>
+      <c r="E253" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>42</v>
+      </c>
+      <c r="B254" t="s">
+        <v>41</v>
+      </c>
+      <c r="C254" t="s">
+        <v>58</v>
+      </c>
+      <c r="D254">
+        <v>1</v>
+      </c>
+      <c r="E254" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>42</v>
+      </c>
+      <c r="B255" t="s">
+        <v>21</v>
+      </c>
+      <c r="C255" t="s">
+        <v>58</v>
+      </c>
+      <c r="D255">
+        <v>1</v>
+      </c>
+      <c r="E255" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>42</v>
+      </c>
+      <c r="B256" t="s">
+        <v>29</v>
+      </c>
+      <c r="C256" t="s">
+        <v>58</v>
+      </c>
+      <c r="D256">
+        <v>1</v>
+      </c>
+      <c r="E256" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>42</v>
+      </c>
+      <c r="B257" t="s">
+        <v>44</v>
+      </c>
+      <c r="C257" t="s">
+        <v>58</v>
+      </c>
+      <c r="D257">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>42</v>
+      </c>
+      <c r="B258" t="s">
+        <v>34</v>
+      </c>
+      <c r="C258" t="s">
+        <v>58</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+      <c r="E258" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>42</v>
+      </c>
+      <c r="B259" t="s">
+        <v>28</v>
+      </c>
+      <c r="C259" t="s">
+        <v>58</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+      <c r="E259" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>42</v>
+      </c>
+      <c r="B260" t="s">
+        <v>30</v>
+      </c>
+      <c r="C260" t="s">
+        <v>58</v>
+      </c>
+      <c r="D260">
+        <v>3</v>
+      </c>
+      <c r="E260" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>42</v>
+      </c>
+      <c r="B261" t="s">
+        <v>46</v>
+      </c>
+      <c r="C261" t="s">
+        <v>58</v>
+      </c>
+      <c r="D261">
+        <v>3</v>
+      </c>
+      <c r="E261" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>42</v>
+      </c>
+      <c r="B262" t="s">
+        <v>39</v>
+      </c>
+      <c r="C262" t="s">
+        <v>58</v>
+      </c>
+      <c r="D262">
+        <v>3</v>
+      </c>
+      <c r="E262" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>42</v>
+      </c>
+      <c r="B263" t="s">
+        <v>32</v>
+      </c>
+      <c r="C263" t="s">
+        <v>58</v>
+      </c>
+      <c r="D263">
+        <v>3</v>
+      </c>
+      <c r="E263" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>42</v>
+      </c>
+      <c r="B264" t="s">
+        <v>47</v>
+      </c>
+      <c r="C264" t="s">
+        <v>58</v>
+      </c>
+      <c r="D264">
+        <v>3</v>
+      </c>
+      <c r="E264" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>42</v>
+      </c>
+      <c r="B265" t="s">
+        <v>50</v>
+      </c>
+      <c r="C265" t="s">
+        <v>58</v>
+      </c>
+      <c r="D265">
+        <v>3</v>
+      </c>
+      <c r="E265" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>42</v>
+      </c>
+      <c r="B266" t="s">
+        <v>40</v>
+      </c>
+      <c r="C266" t="s">
+        <v>58</v>
+      </c>
+      <c r="D266">
+        <v>3</v>
+      </c>
+      <c r="E266" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>42</v>
+      </c>
+      <c r="B267" t="s">
+        <v>27</v>
+      </c>
+      <c r="C267" t="s">
+        <v>58</v>
+      </c>
+      <c r="D267">
+        <v>3</v>
+      </c>
+      <c r="E267" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>42</v>
+      </c>
+      <c r="B268" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" t="s">
+        <v>58</v>
+      </c>
+      <c r="D268">
+        <v>3</v>
+      </c>
+      <c r="E268" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>42</v>
+      </c>
+      <c r="B269" t="s">
+        <v>45</v>
+      </c>
+      <c r="C269" t="s">
+        <v>58</v>
+      </c>
+      <c r="D269">
+        <v>3</v>
+      </c>
+      <c r="E269" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>42</v>
+      </c>
+      <c r="B270" t="s">
+        <v>48</v>
+      </c>
+      <c r="C270" t="s">
+        <v>58</v>
+      </c>
+      <c r="D270">
+        <v>1</v>
+      </c>
+      <c r="E270" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>42</v>
+      </c>
+      <c r="B271" t="s">
+        <v>49</v>
+      </c>
+      <c r="C271" t="s">
+        <v>58</v>
+      </c>
+      <c r="D271">
+        <v>1</v>
+      </c>
+      <c r="E271" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>42</v>
+      </c>
+      <c r="B272" t="s">
+        <v>36</v>
+      </c>
+      <c r="C272" t="s">
+        <v>58</v>
+      </c>
+      <c r="D272">
+        <v>1</v>
+      </c>
+      <c r="E272" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>42</v>
+      </c>
+      <c r="B273" t="s">
+        <v>23</v>
+      </c>
+      <c r="C273" t="s">
+        <v>20</v>
+      </c>
+      <c r="D273">
+        <v>1</v>
+      </c>
+      <c r="E273" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>42</v>
+      </c>
+      <c r="B274" t="s">
+        <v>23</v>
+      </c>
+      <c r="C274" t="s">
+        <v>31</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+      <c r="E274" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>42</v>
+      </c>
+      <c r="B275" t="s">
+        <v>23</v>
+      </c>
+      <c r="C275" t="s">
+        <v>41</v>
+      </c>
+      <c r="D275">
+        <v>1</v>
+      </c>
+      <c r="E275" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>42</v>
+      </c>
+      <c r="B276" t="s">
+        <v>23</v>
+      </c>
+      <c r="C276" t="s">
+        <v>21</v>
+      </c>
+      <c r="D276">
+        <v>1</v>
+      </c>
+      <c r="E276" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>42</v>
+      </c>
+      <c r="B277" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277" t="s">
+        <v>29</v>
+      </c>
+      <c r="D277">
+        <v>1</v>
+      </c>
+      <c r="E277" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>42</v>
+      </c>
+      <c r="B278" t="s">
+        <v>20</v>
+      </c>
+      <c r="C278" t="s">
+        <v>23</v>
+      </c>
+      <c r="D278">
+        <v>1</v>
+      </c>
+      <c r="E278" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>42</v>
+      </c>
+      <c r="B279" t="s">
+        <v>20</v>
+      </c>
+      <c r="C279" t="s">
+        <v>31</v>
+      </c>
+      <c r="D279">
+        <v>1</v>
+      </c>
+      <c r="E279" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>42</v>
+      </c>
+      <c r="B280" t="s">
+        <v>20</v>
+      </c>
+      <c r="C280" t="s">
+        <v>41</v>
+      </c>
+      <c r="D280">
+        <v>1</v>
+      </c>
+      <c r="E280" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>42</v>
+      </c>
+      <c r="B281" t="s">
+        <v>20</v>
+      </c>
+      <c r="C281" t="s">
+        <v>21</v>
+      </c>
+      <c r="D281">
+        <v>1</v>
+      </c>
+      <c r="E281" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>42</v>
+      </c>
+      <c r="B282" t="s">
+        <v>20</v>
+      </c>
+      <c r="C282" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282">
+        <v>1</v>
+      </c>
+      <c r="E282" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>42</v>
+      </c>
+      <c r="B283" t="s">
+        <v>31</v>
+      </c>
+      <c r="C283" t="s">
+        <v>23</v>
+      </c>
+      <c r="D283">
+        <v>1</v>
+      </c>
+      <c r="E283" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>42</v>
+      </c>
+      <c r="B284" t="s">
+        <v>31</v>
+      </c>
+      <c r="C284" t="s">
+        <v>20</v>
+      </c>
+      <c r="D284">
+        <v>1</v>
+      </c>
+      <c r="E284" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>42</v>
+      </c>
+      <c r="B285" t="s">
+        <v>31</v>
+      </c>
+      <c r="C285" t="s">
+        <v>41</v>
+      </c>
+      <c r="D285">
+        <v>1</v>
+      </c>
+      <c r="E285" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>42</v>
+      </c>
+      <c r="B286" t="s">
+        <v>31</v>
+      </c>
+      <c r="C286" t="s">
+        <v>21</v>
+      </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>42</v>
+      </c>
+      <c r="B287" t="s">
+        <v>31</v>
+      </c>
+      <c r="C287" t="s">
+        <v>29</v>
+      </c>
+      <c r="D287">
+        <v>1</v>
+      </c>
+      <c r="E287" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>42</v>
+      </c>
+      <c r="B288" t="s">
+        <v>41</v>
+      </c>
+      <c r="C288" t="s">
+        <v>23</v>
+      </c>
+      <c r="D288">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>42</v>
+      </c>
+      <c r="B289" t="s">
+        <v>41</v>
+      </c>
+      <c r="C289" t="s">
+        <v>20</v>
+      </c>
+      <c r="D289">
+        <v>1</v>
+      </c>
+      <c r="E289" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>42</v>
+      </c>
+      <c r="B290" t="s">
+        <v>41</v>
+      </c>
+      <c r="C290" t="s">
+        <v>31</v>
+      </c>
+      <c r="D290">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>42</v>
+      </c>
+      <c r="B291" t="s">
+        <v>41</v>
+      </c>
+      <c r="C291" t="s">
+        <v>21</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+      <c r="E291" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>42</v>
+      </c>
+      <c r="B292" t="s">
+        <v>41</v>
+      </c>
+      <c r="C292" t="s">
+        <v>29</v>
+      </c>
+      <c r="D292">
+        <v>1</v>
+      </c>
+      <c r="E292" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>42</v>
+      </c>
+      <c r="B293" t="s">
+        <v>21</v>
+      </c>
+      <c r="C293" t="s">
+        <v>23</v>
+      </c>
+      <c r="D293">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>42</v>
+      </c>
+      <c r="B294" t="s">
+        <v>21</v>
+      </c>
+      <c r="C294" t="s">
+        <v>20</v>
+      </c>
+      <c r="D294">
+        <v>1</v>
+      </c>
+      <c r="E294" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>42</v>
+      </c>
+      <c r="B295" t="s">
+        <v>21</v>
+      </c>
+      <c r="C295" t="s">
+        <v>31</v>
+      </c>
+      <c r="D295">
+        <v>1</v>
+      </c>
+      <c r="E295" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>42</v>
+      </c>
+      <c r="B296" t="s">
+        <v>21</v>
+      </c>
+      <c r="C296" t="s">
+        <v>41</v>
+      </c>
+      <c r="D296">
+        <v>1</v>
+      </c>
+      <c r="E296" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>42</v>
+      </c>
+      <c r="B297" t="s">
+        <v>21</v>
+      </c>
+      <c r="C297" t="s">
+        <v>29</v>
+      </c>
+      <c r="D297">
+        <v>1</v>
+      </c>
+      <c r="E297" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>42</v>
+      </c>
+      <c r="B298" t="s">
+        <v>29</v>
+      </c>
+      <c r="C298" t="s">
+        <v>23</v>
+      </c>
+      <c r="D298">
+        <v>1</v>
+      </c>
+      <c r="E298" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>42</v>
+      </c>
+      <c r="B299" t="s">
+        <v>29</v>
+      </c>
+      <c r="C299" t="s">
+        <v>20</v>
+      </c>
+      <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>42</v>
+      </c>
+      <c r="B300" t="s">
+        <v>29</v>
+      </c>
+      <c r="C300" t="s">
+        <v>31</v>
+      </c>
+      <c r="D300">
+        <v>1</v>
+      </c>
+      <c r="E300" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>42</v>
+      </c>
+      <c r="B301" t="s">
+        <v>29</v>
+      </c>
+      <c r="C301" t="s">
+        <v>41</v>
+      </c>
+      <c r="D301">
+        <v>1</v>
+      </c>
+      <c r="E301" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>42</v>
+      </c>
+      <c r="B302" t="s">
+        <v>29</v>
+      </c>
+      <c r="C302" t="s">
+        <v>21</v>
+      </c>
+      <c r="D302">
+        <v>1</v>
+      </c>
+      <c r="E302" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>42</v>
+      </c>
+      <c r="B303" t="s">
+        <v>29</v>
+      </c>
+      <c r="C303" t="s">
+        <v>28</v>
+      </c>
+      <c r="D303">
+        <v>1</v>
+      </c>
+      <c r="E303" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>42</v>
+      </c>
+      <c r="B304" t="s">
+        <v>29</v>
+      </c>
+      <c r="C304" t="s">
+        <v>30</v>
+      </c>
+      <c r="D304">
+        <v>1</v>
+      </c>
+      <c r="E304" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>42</v>
+      </c>
+      <c r="B305" t="s">
+        <v>28</v>
+      </c>
+      <c r="C305" t="s">
+        <v>29</v>
+      </c>
+      <c r="D305">
+        <v>1</v>
+      </c>
+      <c r="E305" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>42</v>
+      </c>
+      <c r="B306" t="s">
+        <v>28</v>
+      </c>
+      <c r="C306" t="s">
+        <v>44</v>
+      </c>
+      <c r="D306">
+        <v>1</v>
+      </c>
+      <c r="E306" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>42</v>
+      </c>
+      <c r="B307" t="s">
+        <v>28</v>
+      </c>
+      <c r="C307" t="s">
+        <v>30</v>
+      </c>
+      <c r="D307">
+        <v>1</v>
+      </c>
+      <c r="E307" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>42</v>
+      </c>
+      <c r="B308" t="s">
+        <v>28</v>
+      </c>
+      <c r="C308" t="s">
+        <v>34</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+      <c r="E308" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>42</v>
+      </c>
+      <c r="B309" t="s">
+        <v>28</v>
+      </c>
+      <c r="C309" t="s">
+        <v>40</v>
+      </c>
+      <c r="D309">
+        <v>3</v>
+      </c>
+      <c r="E309" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>42</v>
+      </c>
+      <c r="B310" t="s">
+        <v>28</v>
+      </c>
+      <c r="C310" t="s">
+        <v>27</v>
+      </c>
+      <c r="D310">
+        <v>2</v>
+      </c>
+      <c r="E310" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>42</v>
+      </c>
+      <c r="B311" t="s">
+        <v>28</v>
+      </c>
+      <c r="C311" t="s">
+        <v>38</v>
+      </c>
+      <c r="D311">
+        <v>2</v>
+      </c>
+      <c r="E311" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>42</v>
+      </c>
+      <c r="B312" t="s">
+        <v>28</v>
+      </c>
+      <c r="C312" t="s">
+        <v>45</v>
+      </c>
+      <c r="D312">
+        <v>3</v>
+      </c>
+      <c r="E312" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>42</v>
+      </c>
+      <c r="B313" t="s">
+        <v>44</v>
+      </c>
+      <c r="C313" t="s">
+        <v>28</v>
+      </c>
+      <c r="D313">
+        <v>1</v>
+      </c>
+      <c r="E313" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>42</v>
+      </c>
+      <c r="B314" t="s">
+        <v>44</v>
+      </c>
+      <c r="C314" t="s">
+        <v>44</v>
+      </c>
+      <c r="D314">
+        <v>1</v>
+      </c>
+      <c r="E314" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>42</v>
+      </c>
+      <c r="B315" t="s">
+        <v>44</v>
+      </c>
+      <c r="C315" t="s">
+        <v>30</v>
+      </c>
+      <c r="D315">
+        <v>1</v>
+      </c>
+      <c r="E315" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>42</v>
+      </c>
+      <c r="B316" t="s">
+        <v>44</v>
+      </c>
+      <c r="C316" t="s">
+        <v>34</v>
+      </c>
+      <c r="D316">
+        <v>1</v>
+      </c>
+      <c r="E316" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>42</v>
+      </c>
+      <c r="B317" t="s">
+        <v>44</v>
+      </c>
+      <c r="C317" t="s">
+        <v>46</v>
+      </c>
+      <c r="D317">
+        <v>2</v>
+      </c>
+      <c r="E317" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>42</v>
+      </c>
+      <c r="B318" t="s">
+        <v>44</v>
+      </c>
+      <c r="C318" t="s">
+        <v>39</v>
+      </c>
+      <c r="D318">
+        <v>2</v>
+      </c>
+      <c r="E318" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>42</v>
+      </c>
+      <c r="B319" t="s">
+        <v>44</v>
+      </c>
+      <c r="C319" t="s">
+        <v>32</v>
+      </c>
+      <c r="D319">
+        <v>2</v>
+      </c>
+      <c r="E319" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>42</v>
+      </c>
+      <c r="B320" t="s">
+        <v>44</v>
+      </c>
+      <c r="C320" t="s">
+        <v>47</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+      <c r="E320" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>42</v>
+      </c>
+      <c r="B321" t="s">
+        <v>44</v>
+      </c>
+      <c r="C321" t="s">
+        <v>50</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+      <c r="E321" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>42</v>
+      </c>
+      <c r="B322" t="s">
+        <v>30</v>
+      </c>
+      <c r="C322" t="s">
+        <v>29</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+      <c r="E322" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>42</v>
+      </c>
+      <c r="B323" t="s">
+        <v>30</v>
+      </c>
+      <c r="C323" t="s">
+        <v>44</v>
+      </c>
+      <c r="D323">
+        <v>1</v>
+      </c>
+      <c r="E323" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>42</v>
+      </c>
+      <c r="B324" t="s">
+        <v>30</v>
+      </c>
+      <c r="C324" t="s">
+        <v>34</v>
+      </c>
+      <c r="D324">
+        <v>1</v>
+      </c>
+      <c r="E324" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>42</v>
+      </c>
+      <c r="B325" t="s">
+        <v>30</v>
+      </c>
+      <c r="C325" t="s">
+        <v>28</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+      <c r="E325" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>42</v>
+      </c>
+      <c r="B326" t="s">
+        <v>30</v>
+      </c>
+      <c r="C326" t="s">
+        <v>40</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+      <c r="E326" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>42</v>
+      </c>
+      <c r="B327" t="s">
+        <v>30</v>
+      </c>
+      <c r="C327" t="s">
+        <v>27</v>
+      </c>
+      <c r="D327">
+        <v>2</v>
+      </c>
+      <c r="E327" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>42</v>
+      </c>
+      <c r="B328" t="s">
+        <v>30</v>
+      </c>
+      <c r="C328" t="s">
+        <v>38</v>
+      </c>
+      <c r="D328">
+        <v>2</v>
+      </c>
+      <c r="E328" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>42</v>
+      </c>
+      <c r="B329" t="s">
+        <v>30</v>
+      </c>
+      <c r="C329" t="s">
+        <v>45</v>
+      </c>
+      <c r="D329">
+        <v>2</v>
+      </c>
+      <c r="E329" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>42</v>
+      </c>
+      <c r="B330" t="s">
+        <v>34</v>
+      </c>
+      <c r="C330" t="s">
+        <v>44</v>
+      </c>
+      <c r="D330">
+        <v>1</v>
+      </c>
+      <c r="E330" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>42</v>
+      </c>
+      <c r="B331" t="s">
+        <v>34</v>
+      </c>
+      <c r="C331" t="s">
+        <v>28</v>
+      </c>
+      <c r="D331">
+        <v>1</v>
+      </c>
+      <c r="E331" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>42</v>
+      </c>
+      <c r="B332" t="s">
+        <v>34</v>
+      </c>
+      <c r="C332" t="s">
+        <v>30</v>
+      </c>
+      <c r="D332">
+        <v>1</v>
+      </c>
+      <c r="E332" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>42</v>
+      </c>
+      <c r="B333" t="s">
+        <v>34</v>
+      </c>
+      <c r="C333" t="s">
+        <v>46</v>
+      </c>
+      <c r="D333">
+        <v>2</v>
+      </c>
+      <c r="E333" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>42</v>
+      </c>
+      <c r="B334" t="s">
+        <v>34</v>
+      </c>
+      <c r="C334" t="s">
+        <v>39</v>
+      </c>
+      <c r="D334">
+        <v>2</v>
+      </c>
+      <c r="E334" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>42</v>
+      </c>
+      <c r="B335" t="s">
+        <v>34</v>
+      </c>
+      <c r="C335" t="s">
+        <v>32</v>
+      </c>
+      <c r="D335">
+        <v>2</v>
+      </c>
+      <c r="E335" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>42</v>
+      </c>
+      <c r="B336" t="s">
+        <v>34</v>
+      </c>
+      <c r="C336" t="s">
+        <v>47</v>
+      </c>
+      <c r="D336">
+        <v>2</v>
+      </c>
+      <c r="E336" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>42</v>
+      </c>
+      <c r="B337" t="s">
+        <v>34</v>
+      </c>
+      <c r="C337" t="s">
+        <v>50</v>
+      </c>
+      <c r="D337">
+        <v>2</v>
+      </c>
+      <c r="E337" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>42</v>
+      </c>
+      <c r="B338" t="s">
+        <v>46</v>
+      </c>
+      <c r="C338" t="s">
+        <v>44</v>
+      </c>
+      <c r="D338">
+        <v>2</v>
+      </c>
+      <c r="E338" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>42</v>
+      </c>
+      <c r="B339" t="s">
+        <v>46</v>
+      </c>
+      <c r="C339" t="s">
+        <v>34</v>
+      </c>
+      <c r="D339">
+        <v>2</v>
+      </c>
+      <c r="E339" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>42</v>
+      </c>
+      <c r="B340" t="s">
+        <v>46</v>
+      </c>
+      <c r="C340" t="s">
+        <v>39</v>
+      </c>
+      <c r="D340">
+        <v>1</v>
+      </c>
+      <c r="E340" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>42</v>
+      </c>
+      <c r="B341" t="s">
+        <v>46</v>
+      </c>
+      <c r="C341" t="s">
+        <v>32</v>
+      </c>
+      <c r="D341">
+        <v>1</v>
+      </c>
+      <c r="E341" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>42</v>
+      </c>
+      <c r="B342" t="s">
+        <v>46</v>
+      </c>
+      <c r="C342" t="s">
+        <v>47</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+      <c r="E342" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>42</v>
+      </c>
+      <c r="B343" t="s">
+        <v>46</v>
+      </c>
+      <c r="C343" t="s">
+        <v>50</v>
+      </c>
+      <c r="D343">
+        <v>1</v>
+      </c>
+      <c r="E343" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>42</v>
+      </c>
+      <c r="B344" t="s">
+        <v>39</v>
+      </c>
+      <c r="C344" t="s">
+        <v>44</v>
+      </c>
+      <c r="D344">
+        <v>2</v>
+      </c>
+      <c r="E344" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>42</v>
+      </c>
+      <c r="B345" t="s">
+        <v>39</v>
+      </c>
+      <c r="C345" t="s">
+        <v>34</v>
+      </c>
+      <c r="D345">
+        <v>2</v>
+      </c>
+      <c r="E345" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>42</v>
+      </c>
+      <c r="B346" t="s">
+        <v>39</v>
+      </c>
+      <c r="C346" t="s">
+        <v>46</v>
+      </c>
+      <c r="D346">
+        <v>1</v>
+      </c>
+      <c r="E346" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>42</v>
+      </c>
+      <c r="B347" t="s">
+        <v>39</v>
+      </c>
+      <c r="C347" t="s">
+        <v>32</v>
+      </c>
+      <c r="D347">
+        <v>1</v>
+      </c>
+      <c r="E347" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>42</v>
+      </c>
+      <c r="B348" t="s">
+        <v>39</v>
+      </c>
+      <c r="C348" t="s">
+        <v>47</v>
+      </c>
+      <c r="D348">
+        <v>1</v>
+      </c>
+      <c r="E348" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>42</v>
+      </c>
+      <c r="B349" t="s">
+        <v>39</v>
+      </c>
+      <c r="C349" t="s">
+        <v>50</v>
+      </c>
+      <c r="D349">
+        <v>1</v>
+      </c>
+      <c r="E349" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>42</v>
+      </c>
+      <c r="B350" t="s">
+        <v>32</v>
+      </c>
+      <c r="C350" t="s">
+        <v>44</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+      <c r="E350" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>42</v>
+      </c>
+      <c r="B351" t="s">
+        <v>32</v>
+      </c>
+      <c r="C351" t="s">
+        <v>34</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+      <c r="E351" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>42</v>
+      </c>
+      <c r="B352" t="s">
+        <v>32</v>
+      </c>
+      <c r="C352" t="s">
+        <v>46</v>
+      </c>
+      <c r="D352">
+        <v>1</v>
+      </c>
+      <c r="E352" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>42</v>
+      </c>
+      <c r="B353" t="s">
+        <v>32</v>
+      </c>
+      <c r="C353" t="s">
+        <v>39</v>
+      </c>
+      <c r="D353">
+        <v>1</v>
+      </c>
+      <c r="E353" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>42</v>
+      </c>
+      <c r="B354" t="s">
+        <v>32</v>
+      </c>
+      <c r="C354" t="s">
+        <v>47</v>
+      </c>
+      <c r="D354">
+        <v>1</v>
+      </c>
+      <c r="E354" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>42</v>
+      </c>
+      <c r="B355" t="s">
+        <v>32</v>
+      </c>
+      <c r="C355" t="s">
+        <v>50</v>
+      </c>
+      <c r="D355">
+        <v>1</v>
+      </c>
+      <c r="E355" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>42</v>
+      </c>
+      <c r="B356" t="s">
+        <v>47</v>
+      </c>
+      <c r="C356" t="s">
+        <v>44</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+      <c r="E356" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>42</v>
+      </c>
+      <c r="B357" t="s">
+        <v>47</v>
+      </c>
+      <c r="C357" t="s">
+        <v>34</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>42</v>
+      </c>
+      <c r="B358" t="s">
+        <v>47</v>
+      </c>
+      <c r="C358" t="s">
+        <v>46</v>
+      </c>
+      <c r="D358">
+        <v>1</v>
+      </c>
+      <c r="E358" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>42</v>
+      </c>
+      <c r="B359" t="s">
+        <v>47</v>
+      </c>
+      <c r="C359" t="s">
+        <v>39</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+      <c r="E359" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>42</v>
+      </c>
+      <c r="B360" t="s">
+        <v>47</v>
+      </c>
+      <c r="C360" t="s">
+        <v>32</v>
+      </c>
+      <c r="D360">
+        <v>1</v>
+      </c>
+      <c r="E360" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>42</v>
+      </c>
+      <c r="B361" t="s">
+        <v>47</v>
+      </c>
+      <c r="C361" t="s">
+        <v>50</v>
+      </c>
+      <c r="D361">
+        <v>1</v>
+      </c>
+      <c r="E361" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>42</v>
+      </c>
+      <c r="B362" t="s">
+        <v>50</v>
+      </c>
+      <c r="C362" t="s">
+        <v>44</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>42</v>
+      </c>
+      <c r="B363" t="s">
+        <v>50</v>
+      </c>
+      <c r="C363" t="s">
+        <v>34</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>42</v>
+      </c>
+      <c r="B364" t="s">
+        <v>50</v>
+      </c>
+      <c r="C364" t="s">
+        <v>46</v>
+      </c>
+      <c r="D364">
+        <v>1</v>
+      </c>
+      <c r="E364" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>42</v>
+      </c>
+      <c r="B365" t="s">
+        <v>50</v>
+      </c>
+      <c r="C365" t="s">
+        <v>39</v>
+      </c>
+      <c r="D365">
+        <v>1</v>
+      </c>
+      <c r="E365" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>42</v>
+      </c>
+      <c r="B366" t="s">
+        <v>50</v>
+      </c>
+      <c r="C366" t="s">
+        <v>32</v>
+      </c>
+      <c r="D366">
+        <v>1</v>
+      </c>
+      <c r="E366" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>42</v>
+      </c>
+      <c r="B367" t="s">
+        <v>50</v>
+      </c>
+      <c r="C367" t="s">
+        <v>47</v>
+      </c>
+      <c r="D367">
+        <v>1</v>
+      </c>
+      <c r="E367" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>42</v>
+      </c>
+      <c r="B368" t="s">
+        <v>40</v>
+      </c>
+      <c r="C368" t="s">
+        <v>27</v>
+      </c>
+      <c r="D368">
+        <v>1</v>
+      </c>
+      <c r="E368" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>42</v>
+      </c>
+      <c r="B369" t="s">
+        <v>40</v>
+      </c>
+      <c r="C369" t="s">
+        <v>38</v>
+      </c>
+      <c r="D369">
+        <v>1</v>
+      </c>
+      <c r="E369" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>42</v>
+      </c>
+      <c r="B370" t="s">
+        <v>40</v>
+      </c>
+      <c r="C370" t="s">
+        <v>45</v>
+      </c>
+      <c r="D370">
+        <v>1</v>
+      </c>
+      <c r="E370" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>42</v>
+      </c>
+      <c r="B371" t="s">
+        <v>40</v>
+      </c>
+      <c r="C371" t="s">
+        <v>48</v>
+      </c>
+      <c r="D371">
+        <v>2</v>
+      </c>
+      <c r="E371" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>42</v>
+      </c>
+      <c r="B372" t="s">
+        <v>40</v>
+      </c>
+      <c r="C372" t="s">
+        <v>28</v>
+      </c>
+      <c r="D372">
+        <v>2</v>
+      </c>
+      <c r="E372" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>42</v>
+      </c>
+      <c r="B373" t="s">
+        <v>40</v>
+      </c>
+      <c r="C373" t="s">
+        <v>30</v>
+      </c>
+      <c r="D373">
+        <v>2</v>
+      </c>
+      <c r="E373" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>42</v>
+      </c>
+      <c r="B374" t="s">
+        <v>27</v>
+      </c>
+      <c r="C374" t="s">
+        <v>40</v>
+      </c>
+      <c r="D374">
+        <v>1</v>
+      </c>
+      <c r="E374" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>42</v>
+      </c>
+      <c r="B375" t="s">
+        <v>27</v>
+      </c>
+      <c r="C375" t="s">
+        <v>38</v>
+      </c>
+      <c r="D375">
+        <v>1</v>
+      </c>
+      <c r="E375" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>42</v>
+      </c>
+      <c r="B376" t="s">
+        <v>27</v>
+      </c>
+      <c r="C376" t="s">
+        <v>45</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+      <c r="E376" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>42</v>
+      </c>
+      <c r="B377" t="s">
+        <v>27</v>
+      </c>
+      <c r="C377" t="s">
+        <v>48</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+      <c r="E377" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>42</v>
+      </c>
+      <c r="B378" t="s">
+        <v>27</v>
+      </c>
+      <c r="C378" t="s">
+        <v>28</v>
+      </c>
+      <c r="D378">
+        <v>2</v>
+      </c>
+      <c r="E378" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>42</v>
+      </c>
+      <c r="B379" t="s">
+        <v>27</v>
+      </c>
+      <c r="C379" t="s">
+        <v>30</v>
+      </c>
+      <c r="D379">
+        <v>2</v>
+      </c>
+      <c r="E379" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>42</v>
+      </c>
+      <c r="B380" t="s">
+        <v>38</v>
+      </c>
+      <c r="C380" t="s">
+        <v>40</v>
+      </c>
+      <c r="D380">
+        <v>1</v>
+      </c>
+      <c r="E380" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>42</v>
+      </c>
+      <c r="B381" t="s">
+        <v>38</v>
+      </c>
+      <c r="C381" t="s">
+        <v>27</v>
+      </c>
+      <c r="D381">
+        <v>1</v>
+      </c>
+      <c r="E381" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>42</v>
+      </c>
+      <c r="B382" t="s">
+        <v>38</v>
+      </c>
+      <c r="C382" t="s">
+        <v>45</v>
+      </c>
+      <c r="D382">
+        <v>1</v>
+      </c>
+      <c r="E382" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>42</v>
+      </c>
+      <c r="B383" t="s">
+        <v>38</v>
+      </c>
+      <c r="C383" t="s">
+        <v>48</v>
+      </c>
+      <c r="D383">
+        <v>2</v>
+      </c>
+      <c r="E383" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>42</v>
+      </c>
+      <c r="B384" t="s">
+        <v>38</v>
+      </c>
+      <c r="C384" t="s">
+        <v>28</v>
+      </c>
+      <c r="D384">
+        <v>2</v>
+      </c>
+      <c r="E384" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>42</v>
+      </c>
+      <c r="B385" t="s">
+        <v>38</v>
+      </c>
+      <c r="C385" t="s">
+        <v>30</v>
+      </c>
+      <c r="D385">
+        <v>2</v>
+      </c>
+      <c r="E385" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>42</v>
+      </c>
+      <c r="B386" t="s">
+        <v>45</v>
+      </c>
+      <c r="C386" t="s">
+        <v>40</v>
+      </c>
+      <c r="D386">
+        <v>1</v>
+      </c>
+      <c r="E386" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>42</v>
+      </c>
+      <c r="B387" t="s">
+        <v>45</v>
+      </c>
+      <c r="C387" t="s">
+        <v>27</v>
+      </c>
+      <c r="D387">
+        <v>1</v>
+      </c>
+      <c r="E387" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>42</v>
+      </c>
+      <c r="B388" t="s">
+        <v>45</v>
+      </c>
+      <c r="C388" t="s">
+        <v>38</v>
+      </c>
+      <c r="D388">
+        <v>1</v>
+      </c>
+      <c r="E388" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>42</v>
+      </c>
+      <c r="B389" t="s">
+        <v>45</v>
+      </c>
+      <c r="C389" t="s">
+        <v>48</v>
+      </c>
+      <c r="D389">
+        <v>2</v>
+      </c>
+      <c r="E389" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>42</v>
+      </c>
+      <c r="B390" t="s">
+        <v>45</v>
+      </c>
+      <c r="C390" t="s">
+        <v>28</v>
+      </c>
+      <c r="D390">
+        <v>2</v>
+      </c>
+      <c r="E390" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>42</v>
+      </c>
+      <c r="B391" t="s">
+        <v>45</v>
+      </c>
+      <c r="C391" t="s">
+        <v>30</v>
+      </c>
+      <c r="D391">
+        <v>2</v>
+      </c>
+      <c r="E391" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>42</v>
+      </c>
+      <c r="B392" t="s">
+        <v>48</v>
+      </c>
+      <c r="C392" t="s">
+        <v>40</v>
+      </c>
+      <c r="D392">
+        <v>1</v>
+      </c>
+      <c r="E392" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>42</v>
+      </c>
+      <c r="B393" t="s">
+        <v>48</v>
+      </c>
+      <c r="C393" t="s">
+        <v>27</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+      <c r="E393" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>42</v>
+      </c>
+      <c r="B394" t="s">
+        <v>48</v>
+      </c>
+      <c r="C394" t="s">
+        <v>38</v>
+      </c>
+      <c r="D394">
+        <v>1</v>
+      </c>
+      <c r="E394" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>42</v>
+      </c>
+      <c r="B395" t="s">
+        <v>48</v>
+      </c>
+      <c r="C395" t="s">
+        <v>45</v>
+      </c>
+      <c r="D395">
+        <v>1</v>
+      </c>
+      <c r="E395" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="C1:C395" xr:uid="{76F07B16-D03F-4C68-8145-4637A8BF5BC5}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA1FBB2-DAA8-4DE3-8A17-0A0C258A95AF}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -21690,14 +28447,20 @@
       <c r="A3" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="32">
+      <c r="B3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="6"/>
+      <c r="A4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/Input_Proposal.xlsx
+++ b/src/main/resources/Input_Proposal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Iteration 2\Itteration_2.3\Multi_variable_Sports_Scheduler\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Final_Draft\Final_Draft\Multi_variable_Sports_Scheduler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76126DE5-6EA8-4FAC-8437-895E8D40243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7992F6-AC2D-4A47-9529-3F62620F37A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="390" windowWidth="22680" windowHeight="11055" tabRatio="888" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>

--- a/src/main/resources/Input_Proposal.xlsx
+++ b/src/main/resources/Input_Proposal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Quinn Sondermeyer\Documents\Carelton\5th Year\Final Project\Java\Git Reposatory\Iteration 2\Itteration_2.3\Multi_variable_Sports_Scheduler\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brady\Desktop\Year 4\Fall Semester\Capstone\Git Projects\Iteration 2.2\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76126DE5-6EA8-4FAC-8437-895E8D40243C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F02D23-D0EF-4475-977C-9484C607847F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="390" windowWidth="22680" windowHeight="11055" tabRatio="888" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2280" windowWidth="25590" windowHeight="13965" tabRatio="888" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Teams" sheetId="1" r:id="rId1"/>
@@ -28418,7 +28418,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
